--- a/my_work/data1/all.xlsx
+++ b/my_work/data1/all.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TD\my_work\data1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D72A06F-314F-4072-A16A-CCD35D77FF86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EA9DC54-6CF6-485D-8412-47FCB4E42781}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6060" yWindow="2472" windowWidth="17280" windowHeight="8556" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,9 +33,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>Year</t>
+  </si>
   <si>
     <t>T_all_mean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Temperature_anomaly</t>
   </si>
   <si>
     <t>S1_mean</t>
@@ -49,16 +56,12 @@
   <si>
     <t>S4_mean</t>
   </si>
-  <si>
-    <t>Year</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -73,6 +76,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -82,10 +92,36 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -94,8 +130,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -376,1052 +418,1189 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1966</v>
+        <v>1967</v>
       </c>
       <c r="B2">
-        <v>17.138689823874756</v>
+        <v>18.061942045670577</v>
       </c>
       <c r="C2">
-        <v>13.415444444444443</v>
+        <v>17.86645353262</v>
       </c>
       <c r="D2">
-        <v>19.987936507936507</v>
+        <v>14.019020576131688</v>
       </c>
       <c r="E2">
-        <v>20.345326086956526</v>
+        <v>21.397725717505946</v>
       </c>
       <c r="F2">
-        <v>14.762173913043483</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>22.430287530545439</v>
+      </c>
+      <c r="G2">
+        <v>15.286968985645736</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1967</v>
+        <v>1968</v>
       </c>
       <c r="B3">
-        <v>18.061942045670577</v>
+        <v>18.366977739557939</v>
       </c>
       <c r="C3">
-        <v>14.019020576131688</v>
+        <v>18.214459892614258</v>
       </c>
       <c r="D3">
-        <v>21.397725717505946</v>
+        <v>13.743156523909841</v>
       </c>
       <c r="E3">
-        <v>22.430287530545439</v>
+        <v>21.036238744148417</v>
       </c>
       <c r="F3">
-        <v>15.286968985645736</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>22.458023198231231</v>
+      </c>
+      <c r="G3">
+        <v>16.419061257090348</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>1968</v>
+        <v>1969</v>
       </c>
       <c r="B4">
-        <v>18.366977739557939</v>
+        <v>18.641963972100967</v>
       </c>
       <c r="C4">
-        <v>13.743156523909841</v>
+        <v>18.504470855829453</v>
       </c>
       <c r="D4">
-        <v>21.036238744148417</v>
+        <v>14.762331368784187</v>
       </c>
       <c r="E4">
-        <v>22.458023198231231</v>
+        <v>22.552452854151493</v>
       </c>
       <c r="F4">
-        <v>16.419061257090348</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>22.240123440560485</v>
+      </c>
+      <c r="G4">
+        <v>15.775657180678769</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>1969</v>
+        <v>1970</v>
       </c>
       <c r="B5">
-        <v>18.641963972100967</v>
+        <v>17.210612178073706</v>
       </c>
       <c r="C5">
-        <v>14.762331368784187</v>
+        <v>17.926288075087335</v>
       </c>
       <c r="D5">
-        <v>22.552452854151493</v>
+        <v>18.025003698041452</v>
       </c>
       <c r="E5">
-        <v>22.240123440560485</v>
+        <v>21.703873108287382</v>
       </c>
       <c r="F5">
-        <v>15.775657180678769</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>22.223327071432667</v>
+      </c>
+      <c r="G5">
+        <v>20.017888913948941</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>1970</v>
+        <v>1971</v>
       </c>
       <c r="B6">
-        <v>16.770900701363075</v>
+        <v>16.626829181092884</v>
       </c>
       <c r="C6">
-        <v>16.433105471713656</v>
+        <v>16.918720679583295</v>
       </c>
       <c r="D6">
-        <v>29.337951473017618</v>
+        <v>12.507083374422685</v>
       </c>
       <c r="E6">
-        <v>28.917062169135583</v>
+        <v>20.683411890099705</v>
       </c>
       <c r="F6">
-        <v>18.52785563672348</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>20.995934284492591</v>
+      </c>
+      <c r="G6">
+        <v>13.388645531673363</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>1971</v>
+        <v>1972</v>
       </c>
       <c r="B7">
-        <v>16.229869938280899</v>
+        <v>17.358401639344262</v>
       </c>
       <c r="C7">
-        <v>11.996478949685709</v>
+        <v>16.992615410218573</v>
       </c>
       <c r="D7">
-        <v>20.099513255901787</v>
+        <v>13.039913004114529</v>
       </c>
       <c r="E7">
-        <v>20.683228936621042</v>
+        <v>20.616438592198904</v>
       </c>
       <c r="F7">
-        <v>13.106889441883354</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>21.324276459614047</v>
+      </c>
+      <c r="G7">
+        <v>15.175963538387752</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>1972</v>
+        <v>1973</v>
       </c>
       <c r="B8">
-        <v>16.877759562841526</v>
+        <v>17.531721025964487</v>
       </c>
       <c r="C8">
-        <v>12.474027241205333</v>
+        <v>17.445061332654376</v>
       </c>
       <c r="D8">
-        <v>20.085379266548376</v>
+        <v>13.98361776013811</v>
       </c>
       <c r="E8">
-        <v>21.014056836267617</v>
+        <v>21.391664160353841</v>
       </c>
       <c r="F8">
-        <v>14.640727059150905</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>21.335318222387109</v>
+      </c>
+      <c r="G8">
+        <v>14.11278221237378</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>1973</v>
+        <v>1974</v>
       </c>
       <c r="B9">
-        <v>17.114911067346931</v>
+        <v>17.054323657405458</v>
       </c>
       <c r="C9">
-        <v>13.357139728531752</v>
+        <v>17.293022341684974</v>
       </c>
       <c r="D9">
-        <v>20.806652519412626</v>
+        <v>12.276901308445979</v>
       </c>
       <c r="E9">
-        <v>21.103848443872476</v>
+        <v>20.220691032428164</v>
       </c>
       <c r="F9">
-        <v>13.867181815860334</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>21.141526943847204</v>
+      </c>
+      <c r="G9">
+        <v>16.520299070893081</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>1974</v>
+        <v>1975</v>
       </c>
       <c r="B10">
-        <v>16.614637008116148</v>
+        <v>17.368801750235566</v>
       </c>
       <c r="C10">
-        <v>11.724968219205909</v>
+        <v>17.211562703820512</v>
       </c>
       <c r="D10">
-        <v>19.736259652218685</v>
+        <v>15.7156713458472</v>
       </c>
       <c r="E10">
-        <v>20.730782357968661</v>
+        <v>21.354276493389595</v>
       </c>
       <c r="F10">
-        <v>15.939032257214043</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>20.069603223170379</v>
+      </c>
+      <c r="G10">
+        <v>12.687079852039226</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>1975</v>
+        <v>1976</v>
       </c>
       <c r="B11">
-        <v>17.802544230125672</v>
+        <v>15.963231463592802</v>
       </c>
       <c r="C11">
-        <v>14.572294196968858</v>
+        <v>16.666016606914184</v>
       </c>
       <c r="D11">
-        <v>21.337169826248257</v>
+        <v>14.879424763040207</v>
       </c>
       <c r="E11">
-        <v>21.69105906283869</v>
+        <v>20.555170925757338</v>
       </c>
       <c r="F11">
-        <v>14.227824301153301</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>20.224980157482147</v>
+      </c>
+      <c r="G11">
+        <v>13.183686456074041</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>1976</v>
+        <v>1977</v>
       </c>
       <c r="B12">
-        <v>17.155906962887308</v>
+        <v>17.172483356290172</v>
       </c>
       <c r="C12">
-        <v>12.75483346727602</v>
+        <v>16.567857409941489</v>
       </c>
       <c r="D12">
-        <v>20.611016304308393</v>
+        <v>14.216484663423254</v>
       </c>
       <c r="E12">
-        <v>21.572224242695938</v>
+        <v>21.815908392650996</v>
       </c>
       <c r="F12">
-        <v>14.827574781317745</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>22.258520625044323</v>
+      </c>
+      <c r="G12">
+        <v>15.604567227786776</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>1977</v>
+        <v>1978</v>
       </c>
       <c r="B13">
-        <v>16.662151068593779</v>
+        <v>16.975170478131254</v>
       </c>
       <c r="C13">
-        <v>12.299318440844342</v>
+        <v>17.073826917210713</v>
       </c>
       <c r="D13">
-        <v>20.404742789050871</v>
+        <v>12.712330097653066</v>
       </c>
       <c r="E13">
-        <v>24.288484877182182</v>
+        <v>20.124809802636658</v>
       </c>
       <c r="F13">
-        <v>15.778948081710706</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>21.051491899598631</v>
+      </c>
+      <c r="G13">
+        <v>14.781764592596256</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>1978</v>
+        <v>1979</v>
       </c>
       <c r="B14">
-        <v>16.592081587984456</v>
+        <v>17.518664383561646</v>
       </c>
       <c r="C14">
-        <v>12.151638833898801</v>
+        <v>17.246917430846452</v>
       </c>
       <c r="D14">
-        <v>19.731370799879681</v>
+        <v>13.961109223307261</v>
       </c>
       <c r="E14">
-        <v>20.843165016963869</v>
+        <v>21.62486054728172</v>
       </c>
       <c r="F14">
-        <v>14.370640740018592</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>21.68316839021303</v>
+      </c>
+      <c r="G14">
+        <v>13.519231136876048</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>1979</v>
+        <v>1980</v>
       </c>
       <c r="B15">
-        <v>17.073506849315073</v>
+        <v>17.67640138475193</v>
       </c>
       <c r="C15">
-        <v>13.275129320376655</v>
+        <v>17.597532884156788</v>
       </c>
       <c r="D15">
-        <v>21.08726781098769</v>
+        <v>13.611186784089305</v>
       </c>
       <c r="E15">
-        <v>21.315903967575696</v>
+        <v>21.290108357662437</v>
       </c>
       <c r="F15">
-        <v>13.306093921087163</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>21.508298620725142</v>
+      </c>
+      <c r="G15">
+        <v>15.065969903661699</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>1980</v>
+        <v>1981</v>
       </c>
       <c r="B16">
-        <v>17.1558752061622</v>
+        <v>17.707257207819154</v>
       </c>
       <c r="C16">
-        <v>12.878908129927828</v>
+        <v>17.69182929628554</v>
       </c>
       <c r="D16">
-        <v>20.760079866054806</v>
+        <v>13.785818742045436</v>
       </c>
       <c r="E16">
-        <v>21.202827692834525</v>
+        <v>20.462812538834058</v>
       </c>
       <c r="F16">
-        <v>14.528544499142253</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>21.936867125757793</v>
+      </c>
+      <c r="G16">
+        <v>15.157281212418191</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>1981</v>
+        <v>1982</v>
       </c>
       <c r="B17">
-        <v>17.219487084936645</v>
+        <v>17.255624341412013</v>
       </c>
       <c r="C17">
-        <v>13.106321201443643</v>
+        <v>17.481440774615585</v>
       </c>
       <c r="D17">
-        <v>19.930338844177523</v>
+        <v>13.486786874911612</v>
       </c>
       <c r="E17">
-        <v>21.540756622304652</v>
+        <v>20.432295924715817</v>
       </c>
       <c r="F17">
-        <v>14.833822454458607</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>21.825277817175465</v>
+      </c>
+      <c r="G17">
+        <v>14.025894361004543</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>1982</v>
+        <v>1983</v>
       </c>
       <c r="B18">
-        <v>16.741477495107631</v>
+        <v>17.351573355785973</v>
       </c>
       <c r="C18">
-        <v>12.804292457793816</v>
+        <v>17.303598848598995</v>
       </c>
       <c r="D18">
-        <v>19.866277276180458</v>
+        <v>11.974328461770975</v>
       </c>
       <c r="E18">
-        <v>21.450455912220569</v>
+        <v>21.769173581590291</v>
       </c>
       <c r="F18">
-        <v>13.574932852765851</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>22.021606280621473</v>
+      </c>
+      <c r="G18">
+        <v>14.27573247306657</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="B19">
-        <v>16.806863080233178</v>
+        <v>17.643818306010921</v>
       </c>
       <c r="C19">
-        <v>11.346961246726385</v>
+        <v>17.497695830898447</v>
       </c>
       <c r="D19">
-        <v>20.977541508529463</v>
+        <v>13.955349763316162</v>
       </c>
       <c r="E19">
-        <v>21.575439738176311</v>
+        <v>21.192518391006487</v>
       </c>
       <c r="F19">
-        <v>13.941621334101194</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>21.235289198702411</v>
+      </c>
+      <c r="G19">
+        <v>14.95191013557681</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>1984</v>
+        <v>1985</v>
       </c>
       <c r="B20">
-        <v>17.079262295081961</v>
+        <v>17.339965753424657</v>
       </c>
       <c r="C20">
-        <v>13.237329244469521</v>
+        <v>17.491892029717789</v>
       </c>
       <c r="D20">
-        <v>20.562390566027794</v>
+        <v>13.339781664036847</v>
       </c>
       <c r="E20">
-        <v>20.819515649328007</v>
+        <v>20.770659542758313</v>
       </c>
       <c r="F20">
-        <v>14.431321971022843</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>21.293318360855459</v>
+      </c>
+      <c r="G20">
+        <v>14.681814240604098</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>1985</v>
+        <v>1986</v>
       </c>
       <c r="B21">
-        <v>16.82145205479452</v>
+        <v>17.382438092729188</v>
       </c>
       <c r="C21">
-        <v>12.696859213827441</v>
+        <v>17.361201923076923</v>
       </c>
       <c r="D21">
-        <v>20.174861434791517</v>
+        <v>13.314469796267078</v>
       </c>
       <c r="E21">
-        <v>20.921516474449216</v>
+        <v>21.239512742228118</v>
       </c>
       <c r="F21">
-        <v>14.189905673598076</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v>21.017726286531033</v>
+      </c>
+      <c r="G21">
+        <v>14.665932217428445</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>1986</v>
+        <v>1987</v>
       </c>
       <c r="B22">
-        <v>16.878936775553214</v>
+        <v>17.879725963454526</v>
       </c>
       <c r="C22">
-        <v>12.742520657931419</v>
+        <v>17.631082028091857</v>
       </c>
       <c r="D22">
-        <v>20.629174301481228</v>
+        <v>14.095314978901309</v>
       </c>
       <c r="E22">
-        <v>20.68295126602662</v>
+        <v>21.793137113217316</v>
       </c>
       <c r="F22">
-        <v>14.14496810308531</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>21.403317677027509</v>
+      </c>
+      <c r="G22">
+        <v>14.988624263232914</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>1987</v>
+        <v>1988</v>
       </c>
       <c r="B23">
-        <v>17.353041044736223</v>
+        <v>17.87430658841588</v>
       </c>
       <c r="C23">
-        <v>13.38192914779791</v>
+        <v>17.877016275935205</v>
       </c>
       <c r="D23">
-        <v>21.075801603845264</v>
+        <v>14.369125691258812</v>
       </c>
       <c r="E23">
-        <v>21.027314687674203</v>
+        <v>21.441545462782614</v>
       </c>
       <c r="F23">
-        <v>14.652771392424839</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <v>21.542885082740721</v>
+      </c>
+      <c r="G23">
+        <v>14.951235046339491</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>1988</v>
+        <v>1989</v>
       </c>
       <c r="B24">
-        <v>17.422505380022326</v>
+        <v>17.444128695889749</v>
       </c>
       <c r="C24">
-        <v>13.734264038333169</v>
+        <v>17.659217642152814</v>
       </c>
       <c r="D24">
-        <v>20.842041775866438</v>
+        <v>13.234656952125102</v>
       </c>
       <c r="E24">
-        <v>21.108706550388799</v>
+        <v>21.111445554536068</v>
       </c>
       <c r="F24">
-        <v>14.781443167308968</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <v>21.616954781129014</v>
+      </c>
+      <c r="G24">
+        <v>14.576263573690838</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="B25">
-        <v>16.976466391614846</v>
+        <v>17.425741305258398</v>
       </c>
       <c r="C25">
-        <v>12.682825155981483</v>
+        <v>17.434935000574072</v>
       </c>
       <c r="D25">
-        <v>20.589912546987541</v>
+        <v>13.371806895074981</v>
       </c>
       <c r="E25">
-        <v>21.229636534950895</v>
+        <v>20.112584506538617</v>
       </c>
       <c r="F25">
-        <v>14.177972327759599</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+        <v>21.631564562370436</v>
+      </c>
+      <c r="G25">
+        <v>15.353798571257631</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="B26">
-        <v>16.959277975713565</v>
+        <v>17.822276306503515</v>
       </c>
       <c r="C26">
-        <v>12.73094662266311</v>
+        <v>17.624008805880955</v>
       </c>
       <c r="D26">
-        <v>19.568977012960111</v>
+        <v>14.484532995964543</v>
       </c>
       <c r="E26">
-        <v>21.264774179353385</v>
+        <v>21.046612845353</v>
       </c>
       <c r="F26">
-        <v>15.002571046884441</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+        <v>21.624875898869355</v>
+      </c>
+      <c r="G26">
+        <v>14.854552302201826</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="B27">
-        <v>17.319519675339802</v>
+        <v>17.040440247582538</v>
       </c>
       <c r="C27">
-        <v>13.819554186845002</v>
+        <v>17.431358277043024</v>
       </c>
       <c r="D27">
-        <v>20.419476093949754</v>
+        <v>12.454979887395353</v>
       </c>
       <c r="E27">
-        <v>21.244243355285231</v>
+        <v>21.621938610494002</v>
       </c>
       <c r="F27">
-        <v>14.492115017738399</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+        <v>21.662189416530566</v>
+      </c>
+      <c r="G27">
+        <v>13.466360653127618</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="B28">
-        <v>16.562296332144243</v>
+        <v>17.544440791514656</v>
       </c>
       <c r="C28">
-        <v>11.873125973543463</v>
+        <v>17.292440519548599</v>
       </c>
       <c r="D28">
-        <v>20.955458956838353</v>
+        <v>13.301418159952023</v>
       </c>
       <c r="E28">
-        <v>21.263355340293227</v>
+        <v>21.180421197448528</v>
       </c>
       <c r="F28">
-        <v>13.192745839632277</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+        <v>21.869328191511727</v>
+      </c>
+      <c r="G28">
+        <v>14.677385456667086</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="B29">
-        <v>17.032742715856354</v>
+        <v>18.026369995312169</v>
       </c>
       <c r="C29">
-        <v>12.663013884224144</v>
+        <v>17.785405393413413</v>
       </c>
       <c r="D29">
-        <v>20.448050233436216</v>
+        <v>14.246295439115078</v>
       </c>
       <c r="E29">
-        <v>21.396724817732366</v>
+        <v>21.795657271425107</v>
       </c>
       <c r="F29">
-        <v>14.437339423128559</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+        <v>21.797721442905903</v>
+      </c>
+      <c r="G29">
+        <v>15.004600446929494</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="B30">
-        <v>17.5320300621838</v>
+        <v>17.825159495124481</v>
       </c>
       <c r="C30">
-        <v>13.615946121917204</v>
+        <v>17.925764745218324</v>
       </c>
       <c r="D30">
-        <v>21.219423765222256</v>
+        <v>13.768463666719869</v>
       </c>
       <c r="E30">
-        <v>21.506322893495302</v>
+        <v>21.717090763291395</v>
       </c>
       <c r="F30">
-        <v>14.507543738606582</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+        <v>21.486054436036202</v>
+      </c>
+      <c r="G30">
+        <v>15.430149712691783</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="B31">
-        <v>17.3624289659626</v>
+        <v>17.801575749587112</v>
       </c>
       <c r="C31">
-        <v>13.178758819716176</v>
+        <v>17.813367622355798</v>
       </c>
       <c r="D31">
-        <v>21.112385774897756</v>
+        <v>13.987101610983153</v>
       </c>
       <c r="E31">
-        <v>21.111106002515598</v>
+        <v>20.990074084929745</v>
       </c>
       <c r="F31">
-        <v>15.051553067773677</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+        <v>21.516701475845885</v>
+      </c>
+      <c r="G31">
+        <v>15.556667952685025</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="B32">
-        <v>17.317799061208149</v>
+        <v>17.583547532672995</v>
       </c>
       <c r="C32">
-        <v>13.355659177647402</v>
+        <v>17.692561641130055</v>
       </c>
       <c r="D32">
-        <v>20.392933858657848</v>
+        <v>13.409388342054864</v>
       </c>
       <c r="E32">
-        <v>21.170342294303737</v>
+        <v>20.957703365601773</v>
       </c>
       <c r="F32">
-        <v>15.161460002781212</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+        <v>20.950367865771682</v>
+      </c>
+      <c r="G32">
+        <v>15.830938599326645</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="B33">
-        <v>17.037248985042506</v>
+        <v>18.513564950891286</v>
       </c>
       <c r="C33">
-        <v>12.709577094631234</v>
+        <v>18.048556241782141</v>
       </c>
       <c r="D33">
-        <v>20.259798676994759</v>
+        <v>14.943342202318167</v>
       </c>
       <c r="E33">
-        <v>20.668957130808945</v>
+        <v>21.803516152149395</v>
       </c>
       <c r="F33">
-        <v>15.281447897294285</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+        <v>22.010191057676167</v>
+      </c>
+      <c r="G33">
+        <v>16.041065225431474</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="B34">
-        <v>17.953810864822621</v>
+        <v>18.349234065354555</v>
       </c>
       <c r="C34">
-        <v>14.10114116653217</v>
+        <v>18.431399508122922</v>
       </c>
       <c r="D34">
-        <v>21.106039690780101</v>
+        <v>15.709198746649584</v>
       </c>
       <c r="E34">
-        <v>21.55955135525171</v>
+        <v>21.734983171171425</v>
       </c>
       <c r="F34">
-        <v>15.758033669669448</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+        <v>21.731830242105232</v>
+      </c>
+      <c r="G34">
+        <v>14.95922139140977</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="B35">
-        <v>17.922134505030893</v>
+        <v>17.747816883626079</v>
       </c>
       <c r="C35">
-        <v>15.075970990630651</v>
+        <v>18.048525474490319</v>
       </c>
       <c r="D35">
-        <v>21.203406611322421</v>
+        <v>13.695617269935854</v>
       </c>
       <c r="E35">
-        <v>21.358848960087563</v>
+        <v>20.705184684302104</v>
       </c>
       <c r="F35">
-        <v>14.761129085837862</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+        <v>21.838834281122441</v>
+      </c>
+      <c r="G35">
+        <v>15.526187189037062</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="B36">
-        <v>17.294592304715074</v>
+        <v>18.031925223489669</v>
       </c>
       <c r="C36">
-        <v>13.085599442248801</v>
+        <v>17.889871053557876</v>
       </c>
       <c r="D36">
-        <v>20.249372143863496</v>
+        <v>14.634956026687284</v>
       </c>
       <c r="E36">
-        <v>21.461430302793644</v>
+        <v>20.911320710816501</v>
       </c>
       <c r="F36">
-        <v>15.1397948813678</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+        <v>22.132831317167135</v>
+      </c>
+      <c r="G36">
+        <v>15.178409643359098</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="B37">
-        <v>17.603672046923606</v>
+        <v>18.044587158515597</v>
       </c>
       <c r="C37">
-        <v>13.984732661642052</v>
+        <v>18.038256191002631</v>
       </c>
       <c r="D37">
-        <v>20.438124968613881</v>
+        <v>14.596527195497531</v>
       </c>
       <c r="E37">
-        <v>21.817899432841269</v>
+        <v>21.339410117701281</v>
       </c>
       <c r="F37">
-        <v>14.875242496337147</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+        <v>21.240884671523411</v>
+      </c>
+      <c r="G37">
+        <v>15.731204821255194</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="B38">
-        <v>17.602080685716587</v>
+        <v>18.424283832605752</v>
       </c>
       <c r="C38">
-        <v>14.023630287956824</v>
+        <v>18.234435495560675</v>
       </c>
       <c r="D38">
-        <v>20.735144230424329</v>
+        <v>14.285619678842103</v>
       </c>
       <c r="E38">
-        <v>21.045008110904682</v>
+        <v>21.776806704590129</v>
       </c>
       <c r="F38">
-        <v>15.315317278543827</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+        <v>22.428705268168734</v>
+      </c>
+      <c r="G38">
+        <v>15.934306574144079</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="B39">
-        <v>17.899536655125697</v>
+        <v>17.906725328810722</v>
       </c>
       <c r="C39">
-        <v>13.63945583786878</v>
+        <v>18.165504580708237</v>
       </c>
       <c r="D39">
-        <v>21.117529057477192</v>
+        <v>14.671596949768793</v>
       </c>
       <c r="E39">
-        <v>22.066576175118531</v>
+        <v>20.807986886863628</v>
       </c>
       <c r="F39">
-        <v>15.481470839984173</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+        <v>22.019877231175744</v>
+      </c>
+      <c r="G39">
+        <v>14.904720723632002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="B40">
-        <v>17.435762776709783</v>
+        <v>18.712802030211847</v>
       </c>
       <c r="C40">
-        <v>14.115419978439155</v>
+        <v>18.309763679511285</v>
       </c>
       <c r="D40">
-        <v>20.308324495137107</v>
+        <v>14.631182896016902</v>
       </c>
       <c r="E40">
-        <v>21.600723654077374</v>
+        <v>22.38471343948412</v>
       </c>
       <c r="F40">
-        <v>14.47718990043461</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+        <v>22.468150839469303</v>
+      </c>
+      <c r="G40">
+        <v>16.018536226073159</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="B41">
-        <v>18.200955909883763</v>
+        <v>18.770669202021118</v>
       </c>
       <c r="C41">
-        <v>14.010036788131567</v>
+        <v>18.741735616116483</v>
       </c>
       <c r="D41">
-        <v>21.688671136044949</v>
+        <v>15.878124254400189</v>
       </c>
       <c r="E41">
-        <v>22.136529604935625</v>
+        <v>21.623060797661083</v>
       </c>
       <c r="F41">
-        <v>15.607503852523683</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+        <v>22.368774803952988</v>
+      </c>
+      <c r="G41">
+        <v>16.073299306805144</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="B42">
-        <v>18.221412073945661</v>
+        <v>18.024226758503929</v>
       </c>
       <c r="C42">
-        <v>15.067889297645909</v>
+        <v>18.397447980262523</v>
       </c>
       <c r="D42">
-        <v>21.006810180815215</v>
+        <v>14.42266638126474</v>
       </c>
       <c r="E42">
-        <v>22.054389505481524</v>
+        <v>20.98337098833192</v>
       </c>
       <c r="F42">
-        <v>15.573994607092649</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+        <v>21.894225813086447</v>
+      </c>
+      <c r="G42">
+        <v>15.554465209856577</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="B43">
-        <v>17.552203324611366</v>
+        <v>17.913133830551867</v>
       </c>
       <c r="C43">
-        <v>13.702859659390967</v>
+        <v>17.9686802945279</v>
       </c>
       <c r="D43">
-        <v>20.518437027398353</v>
+        <v>13.594603618501154</v>
       </c>
       <c r="E43">
-        <v>21.558634668537845</v>
+        <v>21.255149840777179</v>
       </c>
       <c r="F43">
-        <v>15.161347767468399</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+        <v>22.019702610532477</v>
+      </c>
+      <c r="G43">
+        <v>15.367612102168195</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="B44">
-        <v>17.462146408703784</v>
+        <v>18.772490147876198</v>
       </c>
       <c r="C44">
-        <v>13.025185384409486</v>
+        <v>18.342811989214034</v>
       </c>
       <c r="D44">
-        <v>20.74908405104738</v>
+        <v>15.151051151316679</v>
       </c>
       <c r="E44">
-        <v>21.656014849491946</v>
+        <v>21.761333399093338</v>
       </c>
       <c r="F44">
-        <v>15.019500286077852</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+        <v>22.80119795466382</v>
+      </c>
+      <c r="G44">
+        <v>16.15127839241487</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="B45">
-        <v>18.24434828268452</v>
+        <v>18.906764112812958</v>
       </c>
       <c r="C45">
-        <v>14.491390948715658</v>
+        <v>18.839627130344578</v>
       </c>
       <c r="D45">
-        <v>21.203406984971657</v>
+        <v>15.663900568347966</v>
       </c>
       <c r="E45">
-        <v>22.405743719829598</v>
+        <v>22.491172278747801</v>
       </c>
       <c r="F45">
-        <v>15.621951090066062</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+        <v>22.860873139021933</v>
+      </c>
+      <c r="G45">
+        <v>15.484081710129743</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B46">
-        <v>18.340370194359956</v>
+        <v>17.917209927305652</v>
       </c>
       <c r="C46">
-        <v>14.916571010541286</v>
+        <v>18.411987020059307</v>
       </c>
       <c r="D46">
-        <v>21.719029474269636</v>
+        <v>13.700615147034044</v>
       </c>
       <c r="E46">
-        <v>22.375054873783835</v>
+        <v>21.414699962640409</v>
       </c>
       <c r="F46">
-        <v>15.178362415670467</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+        <v>22.442974256543806</v>
+      </c>
+      <c r="G46">
+        <v>14.888315268889635</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B47">
-        <v>17.463302188419867</v>
+        <v>18.798069785974498</v>
       </c>
       <c r="C47">
-        <v>13.128330457136823</v>
+        <v>18.357639856640077</v>
       </c>
       <c r="D47">
-        <v>20.820618120126294</v>
+        <v>14.948692215073194</v>
       </c>
       <c r="E47">
-        <v>22.037926757002072</v>
+        <v>22.469882242871027</v>
       </c>
       <c r="F47">
-        <v>14.614903269976562</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+        <v>22.204679068005909</v>
+      </c>
+      <c r="G47">
+        <v>16.391041470314018</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B48">
-        <v>18.230368397085606</v>
+        <v>18.396572433419813</v>
       </c>
       <c r="C48">
-        <v>14.246292654910309</v>
+        <v>18.597321109697155</v>
       </c>
       <c r="D48">
-        <v>21.814025114626649</v>
+        <v>15.680957691278589</v>
       </c>
       <c r="E48">
-        <v>21.844216595184808</v>
+        <v>21.93960588010188</v>
       </c>
       <c r="F48">
-        <v>15.8091837311954</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+        <v>22.131059882703465</v>
+      </c>
+      <c r="G48">
+        <v>14.690527624677323</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B49">
-        <v>17.921257946735849</v>
+        <v>18.902505681628107</v>
       </c>
       <c r="C49">
-        <v>15.001292140610113</v>
+        <v>18.64953905752396</v>
       </c>
       <c r="D49">
-        <v>21.332543158151061</v>
+        <v>14.898139848047705</v>
       </c>
       <c r="E49">
-        <v>21.763331312040819</v>
+        <v>22.912523141539584</v>
       </c>
       <c r="F49">
-        <v>14.402817214469513</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+        <v>22.673625571993458</v>
+      </c>
+      <c r="G49">
+        <v>15.869086608286032</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B50">
-        <v>18.202004545302486</v>
+        <v>18.89051147434607</v>
       </c>
       <c r="C50">
-        <v>14.079584389411355</v>
+        <v>18.896508577987088</v>
       </c>
       <c r="D50">
-        <v>22.046071902836829</v>
+        <v>15.217761934159679</v>
       </c>
       <c r="E50">
-        <v>22.164318755484747</v>
+        <v>22.748763990566363</v>
       </c>
       <c r="F50">
-        <v>15.240382277006299</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+        <v>22.494282506719408</v>
+      </c>
+      <c r="G50">
+        <v>15.85369316635073</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B51">
-        <v>18.172080412353569</v>
+        <v>18.455904677522014</v>
       </c>
       <c r="C51">
-        <v>14.398665908560778</v>
+        <v>18.673208075934042</v>
       </c>
       <c r="D51">
-        <v>21.832154636294906</v>
+        <v>13.780187893720488</v>
       </c>
       <c r="E51">
-        <v>21.942441421656934</v>
+        <v>21.891744659236991</v>
       </c>
       <c r="F51">
-        <v>15.240401413410771</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>2016</v>
-      </c>
-      <c r="B52">
-        <v>17.886363086279903</v>
-      </c>
-      <c r="C52">
-        <v>13.177825659605324</v>
-      </c>
-      <c r="D52">
-        <v>21.119254446552688</v>
-      </c>
-      <c r="E52">
-        <v>21.97578786162941</v>
-      </c>
-      <c r="F52">
-        <v>16.039959148483604</v>
+        <v>22.416922117576416</v>
+      </c>
+      <c r="G51">
+        <v>16.532592320382626</v>
       </c>
     </row>
   </sheetData>

--- a/my_work/data1/all.xlsx
+++ b/my_work/data1/all.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TD\my_work\data1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EA9DC54-6CF6-485D-8412-47FCB4E42781}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6942E91F-30EB-430A-BD7F-3AC8BAF5200B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6060" yWindow="2472" windowWidth="17280" windowHeight="8556" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2616" yWindow="2616" windowWidth="17280" windowHeight="8556" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,28 +33,46 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Year</t>
-  </si>
-  <si>
-    <t>T_all_mean</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Temperature_anomaly</t>
   </si>
   <si>
-    <t>S1_mean</t>
+    <t>Tmean</t>
   </si>
   <si>
-    <t>S2_mean</t>
+    <t>S1</t>
   </si>
   <si>
-    <t>S3_mean</t>
+    <t>S2</t>
   </si>
   <si>
-    <t>S4_mean</t>
+    <t>S3</t>
+  </si>
+  <si>
+    <t>S4</t>
+  </si>
+  <si>
+    <t>RHmean</t>
+  </si>
+  <si>
+    <t>s1_RH</t>
+  </si>
+  <si>
+    <t>s2_RH</t>
+  </si>
+  <si>
+    <t>s3_RH</t>
+  </si>
+  <si>
+    <t>s4_RH</t>
+  </si>
+  <si>
+    <t>RH_anomaly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -92,7 +110,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -115,27 +133,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -418,42 +422,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1967</v>
       </c>
@@ -461,7 +479,7 @@
         <v>18.061942045670577</v>
       </c>
       <c r="C2">
-        <v>17.86645353262</v>
+        <v>17.600315934772667</v>
       </c>
       <c r="D2">
         <v>14.019020576131688</v>
@@ -475,8 +493,26 @@
       <c r="G2">
         <v>15.286968985645736</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2">
+        <v>78.606266294641756</v>
+      </c>
+      <c r="I2">
+        <v>76.020634276328849</v>
+      </c>
+      <c r="J2">
+        <v>73.813374485596697</v>
+      </c>
+      <c r="K2">
+        <v>75.595419232781865</v>
+      </c>
+      <c r="L2">
+        <v>86.1767831619715</v>
+      </c>
+      <c r="M2">
+        <v>82.263966499788808</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1968</v>
       </c>
@@ -498,8 +534,26 @@
       <c r="G3">
         <v>16.419061257090348</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3">
+        <v>79.089531774676502</v>
+      </c>
+      <c r="I3">
+        <v>78.847899034659122</v>
+      </c>
+      <c r="J3">
+        <v>73.27778264229029</v>
+      </c>
+      <c r="K3">
+        <v>77.860022921971961</v>
+      </c>
+      <c r="L3">
+        <v>86.834306198519698</v>
+      </c>
+      <c r="M3">
+        <v>80.423159056157118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1969</v>
       </c>
@@ -521,19 +575,37 @@
       <c r="G4">
         <v>15.775657180678769</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4">
+        <v>74.824394099051631</v>
+      </c>
+      <c r="I4">
+        <v>76.956962936864073</v>
+      </c>
+      <c r="J4">
+        <v>65.103086473803231</v>
+      </c>
+      <c r="K4">
+        <v>71.111486170370327</v>
+      </c>
+      <c r="L4">
+        <v>86.056169994911443</v>
+      </c>
+      <c r="M4">
+        <v>80.26074437551938</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1970</v>
       </c>
       <c r="B5">
-        <v>17.210612178073706</v>
+        <v>18.523093446523891</v>
       </c>
       <c r="C5">
-        <v>17.926288075087335</v>
+        <v>18.582528709312427</v>
       </c>
       <c r="D5">
-        <v>18.025003698041452</v>
+        <v>14.93180368187538</v>
       </c>
       <c r="E5">
         <v>21.703873108287382</v>
@@ -542,1065 +614,1911 @@
         <v>22.223327071432667</v>
       </c>
       <c r="G5">
-        <v>20.017888913948941</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>15.962994271665787</v>
+      </c>
+      <c r="H5">
+        <v>78.015589426972795</v>
+      </c>
+      <c r="I5">
+        <v>76.419991763012206</v>
+      </c>
+      <c r="J5">
+        <v>68.556700960820024</v>
+      </c>
+      <c r="K5">
+        <v>76.957269078795278</v>
+      </c>
+      <c r="L5">
+        <v>87.437319278528193</v>
+      </c>
+      <c r="M5">
+        <v>82.47408882619176</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1971</v>
       </c>
       <c r="B6">
-        <v>16.626829181092884</v>
+        <v>16.229869938280899</v>
       </c>
       <c r="C6">
-        <v>16.918720679583295</v>
+        <v>17.376481692402393</v>
       </c>
       <c r="D6">
-        <v>12.507083374422685</v>
+        <v>11.996478949685709</v>
       </c>
       <c r="E6">
-        <v>20.683411890099705</v>
+        <v>20.099513255901787</v>
       </c>
       <c r="F6">
-        <v>20.995934284492591</v>
+        <v>20.683228936621042</v>
       </c>
       <c r="G6">
-        <v>13.388645531673363</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>13.106889441883354</v>
+      </c>
+      <c r="H6">
+        <v>75.402851121481262</v>
+      </c>
+      <c r="I6">
+        <v>76.709220274227022</v>
+      </c>
+      <c r="J6">
+        <v>66.829862061830028</v>
+      </c>
+      <c r="K6">
+        <v>74.370196378555562</v>
+      </c>
+      <c r="L6">
+        <v>87.066771649523417</v>
+      </c>
+      <c r="M6">
+        <v>77.764572141253922</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1972</v>
       </c>
       <c r="B7">
-        <v>17.358401639344262</v>
+        <v>16.877759562841526</v>
       </c>
       <c r="C7">
-        <v>16.992615410218573</v>
+        <v>16.553814750561212</v>
       </c>
       <c r="D7">
-        <v>13.039913004114529</v>
+        <v>12.474027241205333</v>
       </c>
       <c r="E7">
-        <v>20.616438592198904</v>
+        <v>20.085379266548376</v>
       </c>
       <c r="F7">
-        <v>21.324276459614047</v>
+        <v>21.014056836267617</v>
       </c>
       <c r="G7">
-        <v>15.175963538387752</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>14.640727059150905</v>
+      </c>
+      <c r="H7">
+        <v>74.137704918032796</v>
+      </c>
+      <c r="I7">
+        <v>74.770278019757029</v>
+      </c>
+      <c r="J7">
+        <v>66.46406441826187</v>
+      </c>
+      <c r="K7">
+        <v>70.755716443720388</v>
+      </c>
+      <c r="L7">
+        <v>84.976812735320891</v>
+      </c>
+      <c r="M7">
+        <v>77.560484479796244</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1973</v>
       </c>
       <c r="B8">
-        <v>17.531721025964487</v>
+        <v>17.114911067346931</v>
       </c>
       <c r="C8">
-        <v>17.445061332654376</v>
+        <v>16.996335315094228</v>
       </c>
       <c r="D8">
-        <v>13.98361776013811</v>
+        <v>13.357139728531752</v>
       </c>
       <c r="E8">
-        <v>21.391664160353841</v>
+        <v>20.806652519412626</v>
       </c>
       <c r="F8">
-        <v>21.335318222387109</v>
+        <v>21.103848443872476</v>
       </c>
       <c r="G8">
-        <v>14.11278221237378</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>13.867181815860334</v>
+      </c>
+      <c r="H8">
+        <v>75.540116122980379</v>
+      </c>
+      <c r="I8">
+        <v>74.838910520506587</v>
+      </c>
+      <c r="J8">
+        <v>66.003517640063222</v>
+      </c>
+      <c r="K8">
+        <v>73.948963916963947</v>
+      </c>
+      <c r="L8">
+        <v>85.469313181905662</v>
+      </c>
+      <c r="M8">
+        <v>79.719135700867355</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1974</v>
       </c>
       <c r="B9">
-        <v>17.054323657405458</v>
+        <v>16.614637008116148</v>
       </c>
       <c r="C9">
-        <v>17.293022341684974</v>
+        <v>16.864774037731539</v>
       </c>
       <c r="D9">
-        <v>12.276901308445979</v>
+        <v>11.724968219205909</v>
       </c>
       <c r="E9">
-        <v>20.220691032428164</v>
+        <v>19.736259652218685</v>
       </c>
       <c r="F9">
-        <v>21.141526943847204</v>
+        <v>20.730782357968661</v>
       </c>
       <c r="G9">
-        <v>16.520299070893081</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>15.939032257214043</v>
+      </c>
+      <c r="H9">
+        <v>75.858786003593949</v>
+      </c>
+      <c r="I9">
+        <v>75.699451063287171</v>
+      </c>
+      <c r="J9">
+        <v>65.148927973778484</v>
+      </c>
+      <c r="K9">
+        <v>76.384583616491426</v>
+      </c>
+      <c r="L9">
+        <v>86.790451441150282</v>
+      </c>
+      <c r="M9">
+        <v>81.518079217749033</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1975</v>
       </c>
       <c r="B10">
-        <v>17.368801750235566</v>
+        <v>17.802544230125672</v>
       </c>
       <c r="C10">
-        <v>17.211562703820512</v>
+        <v>17.208590619120912</v>
       </c>
       <c r="D10">
-        <v>15.7156713458472</v>
+        <v>14.572294196968858</v>
       </c>
       <c r="E10">
-        <v>21.354276493389595</v>
+        <v>21.337169826248257</v>
       </c>
       <c r="F10">
-        <v>20.069603223170379</v>
+        <v>21.69105906283869</v>
       </c>
       <c r="G10">
-        <v>12.687079852039226</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>14.227824301153301</v>
+      </c>
+      <c r="H10">
+        <v>75.857792948073239</v>
+      </c>
+      <c r="I10">
+        <v>75.858289475833601</v>
+      </c>
+      <c r="J10">
+        <v>67.30005896635312</v>
+      </c>
+      <c r="K10">
+        <v>74.12371089793146</v>
+      </c>
+      <c r="L10">
+        <v>84.608326756962441</v>
+      </c>
+      <c r="M10">
+        <v>79.924395673185742</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1976</v>
       </c>
       <c r="B11">
-        <v>15.963231463592802</v>
+        <v>17.155906962887308</v>
       </c>
       <c r="C11">
-        <v>16.666016606914184</v>
+        <v>17.479225596506488</v>
       </c>
       <c r="D11">
-        <v>14.879424763040207</v>
+        <v>12.75483346727602</v>
       </c>
       <c r="E11">
-        <v>20.555170925757338</v>
+        <v>20.611016304308393</v>
       </c>
       <c r="F11">
-        <v>20.224980157482147</v>
+        <v>21.572224242695938</v>
       </c>
       <c r="G11">
-        <v>13.183686456074041</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>14.827574781317745</v>
+      </c>
+      <c r="H11">
+        <v>77.672234967095903</v>
+      </c>
+      <c r="I11">
+        <v>76.765013957584571</v>
+      </c>
+      <c r="J11">
+        <v>71.97094676204604</v>
+      </c>
+      <c r="K11">
+        <v>77.301262681718683</v>
+      </c>
+      <c r="L11">
+        <v>85.422771512719322</v>
+      </c>
+      <c r="M11">
+        <v>79.83447377619342</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1977</v>
       </c>
       <c r="B12">
-        <v>17.172483356290172</v>
+        <v>17.474830709020466</v>
       </c>
       <c r="C12">
-        <v>16.567857409941489</v>
+        <v>17.315368835953887</v>
       </c>
       <c r="D12">
-        <v>14.216484663423254</v>
+        <v>13.158272848117589</v>
       </c>
       <c r="E12">
-        <v>21.815908392650996</v>
+        <v>21.130052288936309</v>
       </c>
       <c r="F12">
-        <v>22.258520625044323</v>
+        <v>21.569358293257981</v>
       </c>
       <c r="G12">
-        <v>15.604567227786776</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>14.64065298675345</v>
+      </c>
+      <c r="H12">
+        <v>77.211699576713585</v>
+      </c>
+      <c r="I12">
+        <v>77.441967271904744</v>
+      </c>
+      <c r="J12">
+        <v>70.745364110051526</v>
+      </c>
+      <c r="K12">
+        <v>73.840871873384714</v>
+      </c>
+      <c r="L12">
+        <v>85.713364484591651</v>
+      </c>
+      <c r="M12">
+        <v>81.696570367132537</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1978</v>
       </c>
       <c r="B13">
-        <v>16.975170478131254</v>
+        <v>16.592081587984456</v>
       </c>
       <c r="C13">
-        <v>17.073826917210713</v>
+        <v>17.033456148502459</v>
       </c>
       <c r="D13">
-        <v>12.712330097653066</v>
+        <v>12.151638833898801</v>
       </c>
       <c r="E13">
-        <v>20.124809802636658</v>
+        <v>19.731370799879681</v>
       </c>
       <c r="F13">
-        <v>21.051491899598631</v>
+        <v>20.843165016963869</v>
       </c>
       <c r="G13">
-        <v>14.781764592596256</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>14.370640740018592</v>
+      </c>
+      <c r="H13">
+        <v>74.030007170081888</v>
+      </c>
+      <c r="I13">
+        <v>75.620853373397736</v>
+      </c>
+      <c r="J13">
+        <v>64.552598328434229</v>
+      </c>
+      <c r="K13">
+        <v>76.093868131808335</v>
+      </c>
+      <c r="L13">
+        <v>85.07638750151736</v>
+      </c>
+      <c r="M13">
+        <v>73.80323134885306</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1979</v>
       </c>
       <c r="B14">
-        <v>17.518664383561646</v>
+        <v>17.073506849315073</v>
       </c>
       <c r="C14">
-        <v>17.246917430846452</v>
+        <v>16.832794218649767</v>
       </c>
       <c r="D14">
-        <v>13.961109223307261</v>
+        <v>13.275129320376655</v>
       </c>
       <c r="E14">
-        <v>21.62486054728172</v>
+        <v>21.08726781098769</v>
       </c>
       <c r="F14">
-        <v>21.68316839021303</v>
+        <v>21.315903967575696</v>
       </c>
       <c r="G14">
-        <v>13.519231136876048</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>13.306093921087163</v>
+      </c>
+      <c r="H14">
+        <v>71.241095890410961</v>
+      </c>
+      <c r="I14">
+        <v>72.635551530246431</v>
+      </c>
+      <c r="J14">
+        <v>57.866139981427047</v>
+      </c>
+      <c r="K14">
+        <v>67.598833715734159</v>
+      </c>
+      <c r="L14">
+        <v>85.192134646755619</v>
+      </c>
+      <c r="M14">
+        <v>77.232643819009269</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1980</v>
       </c>
       <c r="B15">
-        <v>17.67640138475193</v>
+        <v>17.1558752061622</v>
       </c>
       <c r="C15">
-        <v>17.597532884156788</v>
+        <v>17.114691027738637</v>
       </c>
       <c r="D15">
-        <v>13.611186784089305</v>
+        <v>12.878908129927828</v>
       </c>
       <c r="E15">
-        <v>21.290108357662437</v>
+        <v>20.760079866054806</v>
       </c>
       <c r="F15">
-        <v>21.508298620725142</v>
+        <v>21.202827692834525</v>
       </c>
       <c r="G15">
-        <v>15.065969903661699</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>14.528544499142253</v>
+      </c>
+      <c r="H15">
+        <v>71.683573900461397</v>
+      </c>
+      <c r="I15">
+        <v>71.462334895436186</v>
+      </c>
+      <c r="J15">
+        <v>60.793914235542047</v>
+      </c>
+      <c r="K15">
+        <v>68.465921249623449</v>
+      </c>
+      <c r="L15">
+        <v>84.512628522990127</v>
+      </c>
+      <c r="M15">
+        <v>75.950354824119671</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1981</v>
       </c>
       <c r="B16">
-        <v>17.707257207819154</v>
+        <v>17.219487084936645</v>
       </c>
       <c r="C16">
-        <v>17.69182929628554</v>
+        <v>17.187681145549423</v>
       </c>
       <c r="D16">
-        <v>13.785818742045436</v>
+        <v>13.106321201443643</v>
       </c>
       <c r="E16">
-        <v>20.462812538834058</v>
+        <v>19.930338844177523</v>
       </c>
       <c r="F16">
-        <v>21.936867125757793</v>
+        <v>21.540756622304652</v>
       </c>
       <c r="G16">
-        <v>15.157281212418191</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>14.833822454458607</v>
+      </c>
+      <c r="H16">
+        <v>73.683384390619764</v>
+      </c>
+      <c r="I16">
+        <v>72.683479145540588</v>
+      </c>
+      <c r="J16">
+        <v>64.491043491506019</v>
+      </c>
+      <c r="K16">
+        <v>73.488699264684968</v>
+      </c>
+      <c r="L16">
+        <v>83.964397281453202</v>
+      </c>
+      <c r="M16">
+        <v>76.19161154323551</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1982</v>
       </c>
       <c r="B17">
-        <v>17.255624341412013</v>
+        <v>16.741477495107631</v>
       </c>
       <c r="C17">
-        <v>17.481440774615585</v>
+        <v>16.980482290022138</v>
       </c>
       <c r="D17">
-        <v>13.486786874911612</v>
+        <v>12.804292457793816</v>
       </c>
       <c r="E17">
-        <v>20.432295924715817</v>
+        <v>19.866277276180458</v>
       </c>
       <c r="F17">
-        <v>21.825277817175465</v>
+        <v>21.450455912220569</v>
       </c>
       <c r="G17">
-        <v>14.025894361004543</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>13.574932852765851</v>
+      </c>
+      <c r="H17">
+        <v>73.873847659190119</v>
+      </c>
+      <c r="I17">
+        <v>73.778616024904949</v>
+      </c>
+      <c r="J17">
+        <v>64.545456038794512</v>
+      </c>
+      <c r="K17">
+        <v>71.510115306584893</v>
+      </c>
+      <c r="L17">
+        <v>84.283667546149132</v>
+      </c>
+      <c r="M17">
+        <v>78.199908821122136</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1983</v>
       </c>
       <c r="B18">
-        <v>17.351573355785973</v>
+        <v>16.806863080233178</v>
       </c>
       <c r="C18">
-        <v>17.303598848598995</v>
+        <v>16.774170287670405</v>
       </c>
       <c r="D18">
-        <v>11.974328461770975</v>
+        <v>11.346961246726385</v>
       </c>
       <c r="E18">
-        <v>21.769173581590291</v>
+        <v>20.977541508529463</v>
       </c>
       <c r="F18">
-        <v>22.021606280621473</v>
+        <v>21.575439738176311</v>
       </c>
       <c r="G18">
-        <v>14.27573247306657</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>13.941621334101194</v>
+      </c>
+      <c r="H18">
+        <v>72.98112061630944</v>
+      </c>
+      <c r="I18">
+        <v>73.427484137749786</v>
+      </c>
+      <c r="J18">
+        <v>67.823506396596557</v>
+      </c>
+      <c r="K18">
+        <v>65.55725401435808</v>
+      </c>
+      <c r="L18">
+        <v>83.568300734197265</v>
+      </c>
+      <c r="M18">
+        <v>78.015898629035021</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1984</v>
       </c>
       <c r="B19">
-        <v>17.643818306010921</v>
+        <v>17.079262295081961</v>
       </c>
       <c r="C19">
-        <v>17.497695830898447</v>
+        <v>16.943062687657569</v>
       </c>
       <c r="D19">
-        <v>13.955349763316162</v>
+        <v>13.237329244469521</v>
       </c>
       <c r="E19">
-        <v>21.192518391006487</v>
+        <v>20.562390566027794</v>
       </c>
       <c r="F19">
-        <v>21.235289198702411</v>
+        <v>20.819515649328007</v>
       </c>
       <c r="G19">
-        <v>14.95191013557681</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <v>14.431321971022843</v>
+      </c>
+      <c r="H19">
+        <v>71.684153005464481</v>
+      </c>
+      <c r="I19">
+        <v>72.332636810886953</v>
+      </c>
+      <c r="J19">
+        <v>60.417840729632928</v>
+      </c>
+      <c r="K19">
+        <v>71.740189604553379</v>
+      </c>
+      <c r="L19">
+        <v>84.038785877545621</v>
+      </c>
+      <c r="M19">
+        <v>73.624085854663434</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1985</v>
       </c>
       <c r="B20">
-        <v>17.339965753424657</v>
+        <v>16.82145205479452</v>
       </c>
       <c r="C20">
-        <v>17.491892029717789</v>
+        <v>16.95035717493824</v>
       </c>
       <c r="D20">
-        <v>13.339781664036847</v>
+        <v>12.696859213827441</v>
       </c>
       <c r="E20">
-        <v>20.770659542758313</v>
+        <v>20.174861434791517</v>
       </c>
       <c r="F20">
-        <v>21.293318360855459</v>
+        <v>20.921516474449216</v>
       </c>
       <c r="G20">
-        <v>14.681814240604098</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <v>14.189905673598076</v>
+      </c>
+      <c r="H20">
+        <v>73.778630136986294</v>
+      </c>
+      <c r="I20">
+        <v>72.731391571225387</v>
+      </c>
+      <c r="J20">
+        <v>62.77575378588481</v>
+      </c>
+      <c r="K20">
+        <v>74.430111973676418</v>
+      </c>
+      <c r="L20">
+        <v>85.337378107364628</v>
+      </c>
+      <c r="M20">
+        <v>75.489392237550689</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1986</v>
       </c>
       <c r="B21">
-        <v>17.382438092729188</v>
+        <v>16.878936775553214</v>
       </c>
       <c r="C21">
-        <v>17.361201923076923</v>
+        <v>16.850194415173867</v>
       </c>
       <c r="D21">
-        <v>13.314469796267078</v>
+        <v>12.742520657931419</v>
       </c>
       <c r="E21">
-        <v>21.239512742228118</v>
+        <v>20.629174301481228</v>
       </c>
       <c r="F21">
-        <v>21.017726286531033</v>
+        <v>20.68295126602662</v>
       </c>
       <c r="G21">
-        <v>14.665932217428445</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+        <v>14.14496810308531</v>
+      </c>
+      <c r="H21">
+        <v>72.555738371217814</v>
+      </c>
+      <c r="I21">
+        <v>73.167184254102054</v>
+      </c>
+      <c r="J21">
+        <v>60.513063930954274</v>
+      </c>
+      <c r="K21">
+        <v>70.877253977732693</v>
+      </c>
+      <c r="L21">
+        <v>84.851493240297444</v>
+      </c>
+      <c r="M21">
+        <v>76.952310486773584</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1987</v>
       </c>
       <c r="B22">
-        <v>17.879725963454526</v>
+        <v>17.353041044736223</v>
       </c>
       <c r="C22">
-        <v>17.631082028091857</v>
+        <v>17.115988910144718</v>
       </c>
       <c r="D22">
-        <v>14.095314978901309</v>
+        <v>13.38192914779791</v>
       </c>
       <c r="E22">
-        <v>21.793137113217316</v>
+        <v>21.075801603845264</v>
       </c>
       <c r="F22">
-        <v>21.403317677027509</v>
+        <v>21.027314687674203</v>
       </c>
       <c r="G22">
-        <v>14.988624263232914</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+        <v>14.652771392424839</v>
+      </c>
+      <c r="H22">
+        <v>71.893193499309106</v>
+      </c>
+      <c r="I22">
+        <v>72.224465935263453</v>
+      </c>
+      <c r="J22">
+        <v>63.22275252402752</v>
+      </c>
+      <c r="K22">
+        <v>66.999106450235047</v>
+      </c>
+      <c r="L22">
+        <v>84.598385796090184</v>
+      </c>
+      <c r="M22">
+        <v>75.59295989659536</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1988</v>
       </c>
       <c r="B23">
-        <v>17.87430658841588</v>
+        <v>17.422505380022326</v>
       </c>
       <c r="C23">
-        <v>17.877016275935205</v>
+        <v>17.387773212379273</v>
       </c>
       <c r="D23">
-        <v>14.369125691258812</v>
+        <v>13.734264038333169</v>
       </c>
       <c r="E23">
-        <v>21.441545462782614</v>
+        <v>20.842041775866438</v>
       </c>
       <c r="F23">
-        <v>21.542885082740721</v>
+        <v>21.108706550388799</v>
       </c>
       <c r="G23">
-        <v>14.951235046339491</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+        <v>14.781443167308968</v>
+      </c>
+      <c r="H23">
+        <v>72.539461556138235</v>
+      </c>
+      <c r="I23">
+        <v>72.216327527723678</v>
+      </c>
+      <c r="J23">
+        <v>61.191009517602609</v>
+      </c>
+      <c r="K23">
+        <v>69.720869301650936</v>
+      </c>
+      <c r="L23">
+        <v>84.525965386204078</v>
+      </c>
+      <c r="M23">
+        <v>77.771662607571699</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1989</v>
       </c>
       <c r="B24">
-        <v>17.444128695889749</v>
+        <v>16.976466391614846</v>
       </c>
       <c r="C24">
-        <v>17.659217642152814</v>
+        <v>17.199485885818586</v>
       </c>
       <c r="D24">
-        <v>13.234656952125102</v>
+        <v>12.682825155981483</v>
       </c>
       <c r="E24">
-        <v>21.111445554536068</v>
+        <v>20.589912546987541</v>
       </c>
       <c r="F24">
-        <v>21.616954781129014</v>
+        <v>21.229636534950895</v>
       </c>
       <c r="G24">
-        <v>14.576263573690838</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+        <v>14.177972327759599</v>
+      </c>
+      <c r="H24">
+        <v>72.120072448327306</v>
+      </c>
+      <c r="I24">
+        <v>72.329767002232771</v>
+      </c>
+      <c r="J24">
+        <v>63.097677883528924</v>
+      </c>
+      <c r="K24">
+        <v>68.482646915402768</v>
+      </c>
+      <c r="L24">
+        <v>83.5944413479437</v>
+      </c>
+      <c r="M24">
+        <v>76.490411874510457</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1990</v>
       </c>
       <c r="B25">
-        <v>17.425741305258398</v>
+        <v>16.959277975713565</v>
       </c>
       <c r="C25">
-        <v>17.434935000574072</v>
+        <v>16.967872183664205</v>
       </c>
       <c r="D25">
-        <v>13.371806895074981</v>
+        <v>12.73094662266311</v>
       </c>
       <c r="E25">
-        <v>20.112584506538617</v>
+        <v>19.568977012960111</v>
       </c>
       <c r="F25">
-        <v>21.631564562370436</v>
+        <v>21.264774179353385</v>
       </c>
       <c r="G25">
-        <v>15.353798571257631</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+        <v>15.002571046884441</v>
+      </c>
+      <c r="H25">
+        <v>74.303428495016391</v>
+      </c>
+      <c r="I25">
+        <v>73.211750471671849</v>
+      </c>
+      <c r="J25">
+        <v>66.921375582089325</v>
+      </c>
+      <c r="K25">
+        <v>74.06555459425087</v>
+      </c>
+      <c r="L25">
+        <v>83.355145740798292</v>
+      </c>
+      <c r="M25">
+        <v>75.977525756237171</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1991</v>
       </c>
       <c r="B26">
-        <v>17.822276306503515</v>
+        <v>17.319519675339802</v>
       </c>
       <c r="C26">
-        <v>17.624008805880955</v>
+        <v>17.139398825526683</v>
       </c>
       <c r="D26">
-        <v>14.484532995964543</v>
+        <v>13.819554186845002</v>
       </c>
       <c r="E26">
-        <v>21.046612845353</v>
+        <v>20.419476093949754</v>
       </c>
       <c r="F26">
-        <v>21.624875898869355</v>
+        <v>21.244243355285231</v>
       </c>
       <c r="G26">
-        <v>14.854552302201826</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+        <v>14.492115017738399</v>
+      </c>
+      <c r="H26">
+        <v>74.067799852545974</v>
+      </c>
+      <c r="I26">
+        <v>74.185614173781175</v>
+      </c>
+      <c r="J26">
+        <v>62.759472425291527</v>
+      </c>
+      <c r="K26">
+        <v>72.485128292627763</v>
+      </c>
+      <c r="L26">
+        <v>86.387243301598403</v>
+      </c>
+      <c r="M26">
+        <v>77.891456956824896</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1992</v>
       </c>
       <c r="B27">
-        <v>17.040440247582538</v>
+        <v>16.562296332144243</v>
       </c>
       <c r="C27">
-        <v>17.431358277043024</v>
+        <v>16.940908003742024</v>
       </c>
       <c r="D27">
-        <v>12.454979887395353</v>
+        <v>11.873125973543463</v>
       </c>
       <c r="E27">
-        <v>21.621938610494002</v>
+        <v>20.955458956838353</v>
       </c>
       <c r="F27">
-        <v>21.662189416530566</v>
+        <v>21.263355340293227</v>
       </c>
       <c r="G27">
-        <v>13.466360653127618</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+        <v>13.192745839632277</v>
+      </c>
+      <c r="H27">
+        <v>72.82743340634417</v>
+      </c>
+      <c r="I27">
+        <v>73.447616629445065</v>
+      </c>
+      <c r="J27">
+        <v>68.853683678886327</v>
+      </c>
+      <c r="K27">
+        <v>66.665742209918761</v>
+      </c>
+      <c r="L27">
+        <v>82.992688187997686</v>
+      </c>
+      <c r="M27">
+        <v>76.455121977582252</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1993</v>
       </c>
       <c r="B28">
-        <v>17.544440791514656</v>
+        <v>17.032742715856354</v>
       </c>
       <c r="C28">
-        <v>17.292440519548599</v>
+        <v>16.7975195240003</v>
       </c>
       <c r="D28">
-        <v>13.301418159952023</v>
+        <v>12.663013884224144</v>
       </c>
       <c r="E28">
-        <v>21.180421197448528</v>
+        <v>20.448050233436216</v>
       </c>
       <c r="F28">
-        <v>21.869328191511727</v>
+        <v>21.396724817732366</v>
       </c>
       <c r="G28">
-        <v>14.677385456667086</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+        <v>14.437339423128559</v>
+      </c>
+      <c r="H28">
+        <v>73.825976596431147</v>
+      </c>
+      <c r="I28">
+        <v>73.326705001387666</v>
+      </c>
+      <c r="J28">
+        <v>67.105641232635108</v>
+      </c>
+      <c r="K28">
+        <v>69.944076875663683</v>
+      </c>
+      <c r="L28">
+        <v>84.628850581856199</v>
+      </c>
+      <c r="M28">
+        <v>76.657783465151624</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1994</v>
       </c>
       <c r="B29">
-        <v>18.026369995312169</v>
+        <v>17.5320300621838</v>
       </c>
       <c r="C29">
-        <v>17.785405393413413</v>
+        <v>17.282386389020076</v>
       </c>
       <c r="D29">
-        <v>14.246295439115078</v>
+        <v>13.615946121917204</v>
       </c>
       <c r="E29">
-        <v>21.795657271425107</v>
+        <v>21.219423765222256</v>
       </c>
       <c r="F29">
-        <v>21.797721442905903</v>
+        <v>21.506322893495302</v>
       </c>
       <c r="G29">
-        <v>15.004600446929494</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+        <v>14.507543738606582</v>
+      </c>
+      <c r="H29">
+        <v>72.311600142281947</v>
+      </c>
+      <c r="I29">
+        <v>73.068788369356554</v>
+      </c>
+      <c r="J29">
+        <v>62.422389729957061</v>
+      </c>
+      <c r="K29">
+        <v>70.693390631909281</v>
+      </c>
+      <c r="L29">
+        <v>83.672300362960996</v>
+      </c>
+      <c r="M29">
+        <v>75.537157037739348</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1995</v>
       </c>
       <c r="B30">
-        <v>17.825159495124481</v>
+        <v>17.3624289659626</v>
       </c>
       <c r="C30">
-        <v>17.925764745218324</v>
+        <v>17.4472295140732</v>
       </c>
       <c r="D30">
-        <v>13.768463666719869</v>
+        <v>13.178758819716176</v>
       </c>
       <c r="E30">
-        <v>21.717090763291395</v>
+        <v>21.112385774897756</v>
       </c>
       <c r="F30">
-        <v>21.486054436036202</v>
+        <v>21.111106002515598</v>
       </c>
       <c r="G30">
-        <v>15.430149712691783</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+        <v>15.051553067773677</v>
+      </c>
+      <c r="H30">
+        <v>72.817704566223796</v>
+      </c>
+      <c r="I30">
+        <v>72.564652354252871</v>
+      </c>
+      <c r="J30">
+        <v>63.368159928209352</v>
+      </c>
+      <c r="K30">
+        <v>69.66869354016481</v>
+      </c>
+      <c r="L30">
+        <v>84.935229608075744</v>
+      </c>
+      <c r="M30">
+        <v>76.858151852250487</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1996</v>
       </c>
       <c r="B31">
-        <v>17.801575749587112</v>
+        <v>17.317799061208149</v>
       </c>
       <c r="C31">
-        <v>17.813367622355798</v>
+        <v>17.340114013585374</v>
       </c>
       <c r="D31">
-        <v>13.987101610983153</v>
+        <v>13.355659177647402</v>
       </c>
       <c r="E31">
-        <v>20.990074084929745</v>
+        <v>20.392933858657848</v>
       </c>
       <c r="F31">
-        <v>21.516701475845885</v>
+        <v>21.170342294303737</v>
       </c>
       <c r="G31">
-        <v>15.556667952685025</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+        <v>15.161460002781212</v>
+      </c>
+      <c r="H31">
+        <v>72.041778928142563</v>
+      </c>
+      <c r="I31">
+        <v>72.429741747183186</v>
+      </c>
+      <c r="J31">
+        <v>62.694913049454271</v>
+      </c>
+      <c r="K31">
+        <v>70.336110351628278</v>
+      </c>
+      <c r="L31">
+        <v>82.868838352792849</v>
+      </c>
+      <c r="M31">
+        <v>75.321558770532619</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1997</v>
       </c>
       <c r="B32">
-        <v>17.583547532672995</v>
+        <v>17.037248985042506</v>
       </c>
       <c r="C32">
-        <v>17.692561641130055</v>
+        <v>17.177524023125329</v>
       </c>
       <c r="D32">
-        <v>13.409388342054864</v>
+        <v>12.709577094631234</v>
       </c>
       <c r="E32">
-        <v>20.957703365601773</v>
+        <v>20.259798676994759</v>
       </c>
       <c r="F32">
-        <v>20.950367865771682</v>
+        <v>20.668957130808945</v>
       </c>
       <c r="G32">
-        <v>15.830938599326645</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+        <v>15.281447897294285</v>
+      </c>
+      <c r="H32">
+        <v>71.313895835389715</v>
+      </c>
+      <c r="I32">
+        <v>71.677837381766139</v>
+      </c>
+      <c r="J32">
+        <v>63.518093804160671</v>
+      </c>
+      <c r="K32">
+        <v>67.592541366814132</v>
+      </c>
+      <c r="L32">
+        <v>83.48962420623343</v>
+      </c>
+      <c r="M32">
+        <v>73.60969828135481</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1998</v>
       </c>
       <c r="B33">
-        <v>18.513564950891286</v>
+        <v>17.953810864822621</v>
       </c>
       <c r="C33">
-        <v>18.048556241782141</v>
+        <v>17.495529924932562</v>
       </c>
       <c r="D33">
-        <v>14.943342202318167</v>
+        <v>14.10114116653217</v>
       </c>
       <c r="E33">
-        <v>21.803516152149395</v>
+        <v>21.106039690780101</v>
       </c>
       <c r="F33">
-        <v>22.010191057676167</v>
+        <v>21.55955135525171</v>
       </c>
       <c r="G33">
-        <v>16.041065225431474</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+        <v>15.758033669669448</v>
+      </c>
+      <c r="H33">
+        <v>71.274736138295978</v>
+      </c>
+      <c r="I33">
+        <v>71.294315986842847</v>
+      </c>
+      <c r="J33">
+        <v>59.44787565470331</v>
+      </c>
+      <c r="K33">
+        <v>71.793052982659702</v>
+      </c>
+      <c r="L33">
+        <v>82.841721896782474</v>
+      </c>
+      <c r="M33">
+        <v>73.913854567709024</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1999</v>
       </c>
       <c r="B34">
-        <v>18.349234065354555</v>
+        <v>17.922134505030893</v>
       </c>
       <c r="C34">
-        <v>18.431399508122922</v>
+        <v>17.937972684926756</v>
       </c>
       <c r="D34">
-        <v>15.709198746649584</v>
+        <v>15.075970990630651</v>
       </c>
       <c r="E34">
-        <v>21.734983171171425</v>
+        <v>21.203406611322421</v>
       </c>
       <c r="F34">
-        <v>21.731830242105232</v>
+        <v>21.358848960087563</v>
       </c>
       <c r="G34">
-        <v>14.95922139140977</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+        <v>14.761129085837862</v>
+      </c>
+      <c r="H34">
+        <v>71.906861680412433</v>
+      </c>
+      <c r="I34">
+        <v>71.590798909354206</v>
+      </c>
+      <c r="J34">
+        <v>57.720787788898562</v>
+      </c>
+      <c r="K34">
+        <v>71.349664793436517</v>
+      </c>
+      <c r="L34">
+        <v>84.698708183696638</v>
+      </c>
+      <c r="M34">
+        <v>76.646162247794038</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2000</v>
       </c>
       <c r="B35">
-        <v>17.747816883626079</v>
+        <v>17.294592304715074</v>
       </c>
       <c r="C35">
-        <v>18.048525474490319</v>
+        <v>17.608363404872982</v>
       </c>
       <c r="D35">
-        <v>13.695617269935854</v>
+        <v>13.085599442248801</v>
       </c>
       <c r="E35">
-        <v>20.705184684302104</v>
+        <v>20.249372143863496</v>
       </c>
       <c r="F35">
-        <v>21.838834281122441</v>
+        <v>21.461430302793644</v>
       </c>
       <c r="G35">
-        <v>15.526187189037062</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+        <v>15.1397948813678</v>
+      </c>
+      <c r="H35">
+        <v>73.006216756197659</v>
+      </c>
+      <c r="I35">
+        <v>72.456539218305039</v>
+      </c>
+      <c r="J35">
+        <v>62.737026432667413</v>
+      </c>
+      <c r="K35">
+        <v>74.332748525377042</v>
+      </c>
+      <c r="L35">
+        <v>82.794994776405787</v>
+      </c>
+      <c r="M35">
+        <v>75.150501763562971</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2001</v>
       </c>
       <c r="B36">
-        <v>18.031925223489669</v>
+        <v>17.603672046923606</v>
       </c>
       <c r="C36">
-        <v>17.889871053557876</v>
+        <v>17.44913217581934</v>
       </c>
       <c r="D36">
-        <v>14.634956026687284</v>
+        <v>13.984732661642052</v>
       </c>
       <c r="E36">
-        <v>20.911320710816501</v>
+        <v>20.438124968613881</v>
       </c>
       <c r="F36">
-        <v>22.132831317167135</v>
+        <v>21.817899432841269</v>
       </c>
       <c r="G36">
-        <v>15.178409643359098</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+        <v>14.875242496337147</v>
+      </c>
+      <c r="H36">
+        <v>72.391052310080937</v>
+      </c>
+      <c r="I36">
+        <v>72.698634533139298</v>
+      </c>
+      <c r="J36">
+        <v>61.60553792702234</v>
+      </c>
+      <c r="K36">
+        <v>71.460799434344807</v>
+      </c>
+      <c r="L36">
+        <v>82.623842405976532</v>
+      </c>
+      <c r="M36">
+        <v>76.817418992263754</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2002</v>
       </c>
       <c r="B37">
-        <v>18.044587158515597</v>
+        <v>17.602080685716587</v>
       </c>
       <c r="C37">
-        <v>18.038256191002631</v>
+        <v>17.602876366320096</v>
       </c>
       <c r="D37">
-        <v>14.596527195497531</v>
+        <v>14.023630287956824</v>
       </c>
       <c r="E37">
-        <v>21.339410117701281</v>
+        <v>20.735144230424329</v>
       </c>
       <c r="F37">
-        <v>21.240884671523411</v>
+        <v>21.045008110904682</v>
       </c>
       <c r="G37">
-        <v>15.731204821255194</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+        <v>15.315317278543827</v>
+      </c>
+      <c r="H37">
+        <v>71.772863516161152</v>
+      </c>
+      <c r="I37">
+        <v>72.081957913121045</v>
+      </c>
+      <c r="J37">
+        <v>63.495126536942827</v>
+      </c>
+      <c r="K37">
+        <v>70.875393400377419</v>
+      </c>
+      <c r="L37">
+        <v>82.534351484697751</v>
+      </c>
+      <c r="M37">
+        <v>73.204685450035498</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2003</v>
       </c>
       <c r="B38">
-        <v>18.424283832605752</v>
+        <v>17.899536655125697</v>
       </c>
       <c r="C38">
-        <v>18.234435495560675</v>
+        <v>17.750808670421144</v>
       </c>
       <c r="D38">
-        <v>14.285619678842103</v>
+        <v>13.63945583786878</v>
       </c>
       <c r="E38">
-        <v>21.776806704590129</v>
+        <v>21.117529057477192</v>
       </c>
       <c r="F38">
-        <v>22.428705268168734</v>
+        <v>22.066576175118531</v>
       </c>
       <c r="G38">
-        <v>15.934306574144079</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+        <v>15.481470839984173</v>
+      </c>
+      <c r="H38">
+        <v>70.760407948216155</v>
+      </c>
+      <c r="I38">
+        <v>71.266635732188661</v>
+      </c>
+      <c r="J38">
+        <v>63.090509896607344</v>
+      </c>
+      <c r="K38">
+        <v>68.816213114289866</v>
+      </c>
+      <c r="L38">
+        <v>80.775373385703233</v>
+      </c>
+      <c r="M38">
+        <v>73.317442233152548</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2004</v>
       </c>
       <c r="B39">
-        <v>17.906725328810722</v>
+        <v>17.435762776709783</v>
       </c>
       <c r="C39">
-        <v>18.165504580708237</v>
+        <v>17.66764971591774</v>
       </c>
       <c r="D39">
-        <v>14.671596949768793</v>
+        <v>14.115419978439155</v>
       </c>
       <c r="E39">
-        <v>20.807986886863628</v>
+        <v>20.308324495137107</v>
       </c>
       <c r="F39">
-        <v>22.019877231175744</v>
+        <v>21.600723654077374</v>
       </c>
       <c r="G39">
-        <v>14.904720723632002</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+        <v>14.47718990043461</v>
+      </c>
+      <c r="H39">
+        <v>70.351350112571751</v>
+      </c>
+      <c r="I39">
+        <v>70.555879030393953</v>
+      </c>
+      <c r="J39">
+        <v>59.679196476122591</v>
+      </c>
+      <c r="K39">
+        <v>72.1188594847724</v>
+      </c>
+      <c r="L39">
+        <v>80.414949710714154</v>
+      </c>
+      <c r="M39">
+        <v>72.151276546012525</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2005</v>
       </c>
       <c r="B40">
-        <v>18.712802030211847</v>
+        <v>18.200955909883763</v>
       </c>
       <c r="C40">
-        <v>18.309763679511285</v>
+        <v>17.818359343296773</v>
       </c>
       <c r="D40">
-        <v>14.631182896016902</v>
+        <v>14.010036788131567</v>
       </c>
       <c r="E40">
-        <v>22.38471343948412</v>
+        <v>21.688671136044949</v>
       </c>
       <c r="F40">
-        <v>22.468150839469303</v>
+        <v>22.136529604935625</v>
       </c>
       <c r="G40">
-        <v>16.018536226073159</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+        <v>15.607503852523683</v>
+      </c>
+      <c r="H40">
+        <v>67.686981921177107</v>
+      </c>
+      <c r="I40">
+        <v>69.019166016874436</v>
+      </c>
+      <c r="J40">
+        <v>60.261607529579919</v>
+      </c>
+      <c r="K40">
+        <v>62.307513092332691</v>
+      </c>
+      <c r="L40">
+        <v>78.215379888159944</v>
+      </c>
+      <c r="M40">
+        <v>72.884378065498822</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2006</v>
       </c>
       <c r="B41">
-        <v>18.770669202021118</v>
+        <v>18.221412073945661</v>
       </c>
       <c r="C41">
-        <v>18.741735616116483</v>
+        <v>18.211183991914712</v>
       </c>
       <c r="D41">
-        <v>15.878124254400189</v>
+        <v>15.067889297645909</v>
       </c>
       <c r="E41">
-        <v>21.623060797661083</v>
+        <v>21.006810180815215</v>
       </c>
       <c r="F41">
-        <v>22.368774803952988</v>
+        <v>22.054389505481524</v>
       </c>
       <c r="G41">
-        <v>16.073299306805144</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+        <v>15.573994607092649</v>
+      </c>
+      <c r="H41">
+        <v>69.75402817140143</v>
+      </c>
+      <c r="I41">
+        <v>68.720505046289276</v>
+      </c>
+      <c r="J41">
+        <v>59.985128972550889</v>
+      </c>
+      <c r="K41">
+        <v>69.068467882828401</v>
+      </c>
+      <c r="L41">
+        <v>79.75242671071166</v>
+      </c>
+      <c r="M41">
+        <v>73.055264978972815</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2007</v>
       </c>
       <c r="B42">
-        <v>18.024226758503929</v>
+        <v>17.552203324611366</v>
       </c>
       <c r="C42">
-        <v>18.397447980262523</v>
+        <v>17.886807699278513</v>
       </c>
       <c r="D42">
-        <v>14.42266638126474</v>
+        <v>13.702859659390967</v>
       </c>
       <c r="E42">
-        <v>20.98337098833192</v>
+        <v>20.518437027398353</v>
       </c>
       <c r="F42">
-        <v>21.894225813086447</v>
+        <v>21.558634668537845</v>
       </c>
       <c r="G42">
-        <v>15.554465209856577</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+        <v>15.161347767468399</v>
+      </c>
+      <c r="H42">
+        <v>72.10095736493767</v>
+      </c>
+      <c r="I42">
+        <v>70.927492768169543</v>
+      </c>
+      <c r="J42">
+        <v>60.733393708774862</v>
+      </c>
+      <c r="K42">
+        <v>72.009722102485128</v>
+      </c>
+      <c r="L42">
+        <v>83.162526377290334</v>
+      </c>
+      <c r="M42">
+        <v>75.167992010641015</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2008</v>
       </c>
       <c r="B43">
-        <v>17.913133830551867</v>
+        <v>17.462146408703784</v>
       </c>
       <c r="C43">
-        <v>17.9686802945279</v>
+        <v>17.507174866657575</v>
       </c>
       <c r="D43">
-        <v>13.594603618501154</v>
+        <v>13.025185384409486</v>
       </c>
       <c r="E43">
-        <v>21.255149840777179</v>
+        <v>20.74908405104738</v>
       </c>
       <c r="F43">
-        <v>22.019702610532477</v>
+        <v>21.656014849491946</v>
       </c>
       <c r="G43">
-        <v>15.367612102168195</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+        <v>15.019500286077852</v>
+      </c>
+      <c r="H43">
+        <v>71.305720474572936</v>
+      </c>
+      <c r="I43">
+        <v>71.703338919755311</v>
+      </c>
+      <c r="J43">
+        <v>64.052297102580198</v>
+      </c>
+      <c r="K43">
+        <v>69.139241810007391</v>
+      </c>
+      <c r="L43">
+        <v>80.722588878840952</v>
+      </c>
+      <c r="M43">
+        <v>74.018721248811815</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2009</v>
       </c>
       <c r="B44">
-        <v>18.772490147876198</v>
+        <v>18.24434828268452</v>
       </c>
       <c r="C44">
-        <v>18.342811989214034</v>
+        <v>17.85324734569415</v>
       </c>
       <c r="D44">
-        <v>15.151051151316679</v>
+        <v>14.491390948715658</v>
       </c>
       <c r="E44">
-        <v>21.761333399093338</v>
+        <v>21.203406984971657</v>
       </c>
       <c r="F44">
-        <v>22.80119795466382</v>
+        <v>22.405743719829598</v>
       </c>
       <c r="G44">
-        <v>16.15127839241487</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+        <v>15.621951090066062</v>
+      </c>
+      <c r="H44">
+        <v>66.476674052390109</v>
+      </c>
+      <c r="I44">
+        <v>68.89119726348153</v>
+      </c>
+      <c r="J44">
+        <v>57.607247745584218</v>
+      </c>
+      <c r="K44">
+        <v>67.373790478561929</v>
+      </c>
+      <c r="L44">
+        <v>77.155250588882126</v>
+      </c>
+      <c r="M44">
+        <v>66.7610730570523</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2010</v>
       </c>
       <c r="B45">
-        <v>18.906764112812958</v>
+        <v>18.340370194359956</v>
       </c>
       <c r="C45">
-        <v>18.839627130344578</v>
+        <v>18.292359238522238</v>
       </c>
       <c r="D45">
-        <v>15.663900568347966</v>
+        <v>14.916571010541286</v>
       </c>
       <c r="E45">
-        <v>22.491172278747801</v>
+        <v>21.719029474269636</v>
       </c>
       <c r="F45">
-        <v>22.860873139021933</v>
+        <v>22.375054873783835</v>
       </c>
       <c r="G45">
-        <v>15.484081710129743</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+        <v>15.178362415670467</v>
+      </c>
+      <c r="H45">
+        <v>66.773394247880248</v>
+      </c>
+      <c r="I45">
+        <v>66.625034150135178</v>
+      </c>
+      <c r="J45">
+        <v>51.497858308284279</v>
+      </c>
+      <c r="K45">
+        <v>64.446841603443346</v>
+      </c>
+      <c r="L45">
+        <v>78.561644387662199</v>
+      </c>
+      <c r="M45">
+        <v>75.145954396744088</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2011</v>
       </c>
       <c r="B46">
-        <v>17.917209927305652</v>
+        <v>17.463302188419867</v>
       </c>
       <c r="C46">
-        <v>18.411987020059307</v>
+        <v>17.901836191389911</v>
       </c>
       <c r="D46">
-        <v>13.700615147034044</v>
+        <v>13.128330457136823</v>
       </c>
       <c r="E46">
-        <v>21.414699962640409</v>
+        <v>20.820618120126294</v>
       </c>
       <c r="F46">
-        <v>22.442974256543806</v>
+        <v>22.037926757002072</v>
       </c>
       <c r="G46">
-        <v>14.888315268889635</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+        <v>14.614903269976562</v>
+      </c>
+      <c r="H46">
+        <v>70.628011486483388</v>
+      </c>
+      <c r="I46">
+        <v>68.700702867181818</v>
+      </c>
+      <c r="J46">
+        <v>61.901520273216157</v>
+      </c>
+      <c r="K46">
+        <v>69.429224360332384</v>
+      </c>
+      <c r="L46">
+        <v>78.978403389014687</v>
+      </c>
+      <c r="M46">
+        <v>74.923300628504606</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2012</v>
       </c>
       <c r="B47">
-        <v>18.798069785974498</v>
+        <v>18.230368397085606</v>
       </c>
       <c r="C47">
-        <v>18.357639856640077</v>
+        <v>17.846835292752736</v>
       </c>
       <c r="D47">
-        <v>14.948692215073194</v>
+        <v>14.246292654910309</v>
       </c>
       <c r="E47">
-        <v>22.469882242871027</v>
+        <v>21.814025114626649</v>
       </c>
       <c r="F47">
-        <v>22.204679068005909</v>
+        <v>21.844216595184808</v>
       </c>
       <c r="G47">
-        <v>16.391041470314018</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+        <v>15.8091837311954</v>
+      </c>
+      <c r="H47">
+        <v>66.137340619307821</v>
+      </c>
+      <c r="I47">
+        <v>68.382676052895604</v>
+      </c>
+      <c r="J47">
+        <v>57.08867700886411</v>
+      </c>
+      <c r="K47">
+        <v>62.998686952912792</v>
+      </c>
+      <c r="L47">
+        <v>79.401939167271905</v>
+      </c>
+      <c r="M47">
+        <v>67.973079354657656</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2013</v>
       </c>
       <c r="B48">
-        <v>18.396572433419813</v>
+        <v>17.921257946735849</v>
       </c>
       <c r="C48">
-        <v>18.597321109697155</v>
+        <v>18.075813171910728</v>
       </c>
       <c r="D48">
-        <v>15.680957691278589</v>
+        <v>15.001292140610113</v>
       </c>
       <c r="E48">
-        <v>21.93960588010188</v>
+        <v>21.332543158151061</v>
       </c>
       <c r="F48">
-        <v>22.131059882703465</v>
+        <v>21.763331312040819</v>
       </c>
       <c r="G48">
-        <v>14.690527624677323</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+        <v>14.402817214469513</v>
+      </c>
+      <c r="H48">
+        <v>67.231743751258804</v>
+      </c>
+      <c r="I48">
+        <v>66.684542185283306</v>
+      </c>
+      <c r="J48">
+        <v>55.812096411209595</v>
+      </c>
+      <c r="K48">
+        <v>64.386028374733911</v>
+      </c>
+      <c r="L48">
+        <v>79.121185993391478</v>
+      </c>
+      <c r="M48">
+        <v>72.23666390602888</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2014</v>
       </c>
       <c r="B49">
-        <v>18.902505681628107</v>
+        <v>18.202004545302486</v>
       </c>
       <c r="C49">
-        <v>18.64953905752396</v>
+        <v>18.061631246019168</v>
       </c>
       <c r="D49">
-        <v>14.898139848047705</v>
+        <v>14.079584389411355</v>
       </c>
       <c r="E49">
-        <v>22.912523141539584</v>
+        <v>22.046071902836829</v>
       </c>
       <c r="F49">
-        <v>22.673625571993458</v>
+        <v>22.164318755484747</v>
       </c>
       <c r="G49">
-        <v>15.869086608286032</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+        <v>15.240382277006299</v>
+      </c>
+      <c r="H49">
+        <v>67.411911619582867</v>
+      </c>
+      <c r="I49">
+        <v>67.321827685420828</v>
+      </c>
+      <c r="J49">
+        <v>57.17347881766797</v>
+      </c>
+      <c r="K49">
+        <v>63.0855607513707</v>
+      </c>
+      <c r="L49">
+        <v>80.019657589852187</v>
+      </c>
+      <c r="M49">
+        <v>72.148863236275048</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2015</v>
       </c>
       <c r="B50">
-        <v>18.89051147434607</v>
+        <v>18.172080412353569</v>
       </c>
       <c r="C50">
-        <v>18.896508577987088</v>
+        <v>18.187042478828026</v>
       </c>
       <c r="D50">
-        <v>15.217761934159679</v>
+        <v>14.398665908560778</v>
       </c>
       <c r="E50">
-        <v>22.748763990566363</v>
+        <v>21.832154636294906</v>
       </c>
       <c r="F50">
-        <v>22.494282506719408</v>
+        <v>21.942441421656934</v>
       </c>
       <c r="G50">
-        <v>15.85369316635073</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+        <v>15.240401413410771</v>
+      </c>
+      <c r="H50">
+        <v>69.502009026609116</v>
+      </c>
+      <c r="I50">
+        <v>68.456960323095984</v>
+      </c>
+      <c r="J50">
+        <v>59.541819785445888</v>
+      </c>
+      <c r="K50">
+        <v>64.776764403861222</v>
+      </c>
+      <c r="L50">
+        <v>80.77923552685715</v>
+      </c>
+      <c r="M50">
+        <v>75.737908596578706</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2016</v>
       </c>
       <c r="B51">
-        <v>18.455904677522014</v>
+        <v>17.886363086279903</v>
       </c>
       <c r="C51">
-        <v>18.673208075934042</v>
+        <v>18.029221749316736</v>
       </c>
       <c r="D51">
-        <v>13.780187893720488</v>
+        <v>13.177825659605324</v>
       </c>
       <c r="E51">
-        <v>21.891744659236991</v>
+        <v>21.119254446552688</v>
       </c>
       <c r="F51">
-        <v>22.416922117576416</v>
+        <v>21.97578786162941</v>
       </c>
       <c r="G51">
-        <v>16.532592320382626</v>
+        <v>16.039959148483604</v>
+      </c>
+      <c r="H51">
+        <v>73.532553525071961</v>
+      </c>
+      <c r="I51">
+        <v>71.517281275840531</v>
+      </c>
+      <c r="J51">
+        <v>65.380125395803674</v>
+      </c>
+      <c r="K51">
+        <v>71.061283125317146</v>
+      </c>
+      <c r="L51">
+        <v>83.189209747149761</v>
+      </c>
+      <c r="M51">
+        <v>77.467047564816539</v>
       </c>
     </row>
   </sheetData>

--- a/my_work/data1/all.xlsx
+++ b/my_work/data1/all.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TD\my_work\data1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6942E91F-30EB-430A-BD7F-3AC8BAF5200B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0732EB0-5D72-4385-95FC-B3C0000B1F15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2616" yWindow="2616" windowWidth="17280" windowHeight="8556" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8280" yWindow="4275" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,22 +38,10 @@
     <t>Year</t>
   </si>
   <si>
-    <t>Temperature_anomaly</t>
-  </si>
-  <si>
     <t>Tmean</t>
   </si>
   <si>
     <t>S1</t>
-  </si>
-  <si>
-    <t>S2</t>
-  </si>
-  <si>
-    <t>S3</t>
-  </si>
-  <si>
-    <t>S4</t>
   </si>
   <si>
     <t>RHmean</t>
@@ -71,7 +59,23 @@
     <t>s4_RH</t>
   </si>
   <si>
-    <t>RH_anomaly</t>
+    <t>S2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>annual_Team</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>annual_RH</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -79,7 +83,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,6 +101,20 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -137,9 +155,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -422,220 +446,225 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M51"/>
+  <dimension ref="A1:R51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="K1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="L1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="M1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1967</v>
       </c>
       <c r="B2">
-        <v>18.061942045670577</v>
+        <v>16.519323204860449</v>
       </c>
       <c r="C2">
-        <v>17.600315934772667</v>
+        <v>-0.77023679513955301</v>
       </c>
       <c r="D2">
-        <v>14.019020576131688</v>
+        <v>12.260156852546805</v>
       </c>
       <c r="E2">
-        <v>21.397725717505946</v>
+        <v>20.022909756905808</v>
       </c>
       <c r="F2">
-        <v>22.430287530545439</v>
+        <v>21.037303407936314</v>
       </c>
       <c r="G2">
-        <v>15.286968985645736</v>
+        <v>13.648856643605495</v>
       </c>
       <c r="H2">
-        <v>78.606266294641756</v>
+        <v>75.257682115398524</v>
       </c>
       <c r="I2">
-        <v>76.020634276328849</v>
+        <v>3.1162821153985192</v>
       </c>
       <c r="J2">
-        <v>73.813374485596697</v>
+        <v>67.792396298765624</v>
       </c>
       <c r="K2">
-        <v>75.595419232781865</v>
+        <v>72.617479458689758</v>
       </c>
       <c r="L2">
-        <v>86.1767831619715</v>
+        <v>85.901782049711088</v>
       </c>
       <c r="M2">
-        <v>82.263966499788808</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+        <v>78.536224121717012</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1968</v>
       </c>
       <c r="B3">
-        <v>18.366977739557939</v>
+        <v>16.69422387472428</v>
       </c>
       <c r="C3">
-        <v>18.214459892614258</v>
+        <v>-0.59533612527572188</v>
       </c>
       <c r="D3">
-        <v>13.743156523909841</v>
+        <v>12.081326968177153</v>
       </c>
       <c r="E3">
-        <v>21.036238744148417</v>
+        <v>19.795788876388485</v>
       </c>
       <c r="F3">
-        <v>22.458023198231231</v>
+        <v>21.057510356803267</v>
       </c>
       <c r="G3">
-        <v>16.419061257090348</v>
+        <v>14.320077152263035</v>
       </c>
       <c r="H3">
-        <v>79.089531774676502</v>
+        <v>75.573305997179247</v>
       </c>
       <c r="I3">
-        <v>78.847899034659122</v>
+        <v>3.4319059971792427</v>
       </c>
       <c r="J3">
-        <v>73.27778264229029</v>
+        <v>67.4365666304207</v>
       </c>
       <c r="K3">
-        <v>77.860022921971961</v>
+        <v>73.895216291109847</v>
       </c>
       <c r="L3">
-        <v>86.834306198519698</v>
+        <v>86.307834794032559</v>
       </c>
       <c r="M3">
-        <v>80.423159056157118</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+        <v>77.655973861539863</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1969</v>
       </c>
       <c r="B4">
-        <v>18.641963972100967</v>
+        <v>16.905163788872386</v>
       </c>
       <c r="C4">
-        <v>18.504470855829453</v>
+        <v>-0.38439621112761557</v>
       </c>
       <c r="D4">
-        <v>14.762331368784187</v>
+        <v>12.758636111177953</v>
       </c>
       <c r="E4">
-        <v>22.552452854151493</v>
+        <v>20.717747133147398</v>
       </c>
       <c r="F4">
-        <v>22.240123440560485</v>
+        <v>20.933890232344702</v>
       </c>
       <c r="G4">
-        <v>15.775657180678769</v>
+        <v>13.999671438409399</v>
       </c>
       <c r="H4">
-        <v>74.824394099051631</v>
+        <v>72.876079562123564</v>
       </c>
       <c r="I4">
-        <v>76.956962936864073</v>
+        <v>0.73467956212356</v>
       </c>
       <c r="J4">
-        <v>65.103086473803231</v>
+        <v>62.342335551744974</v>
       </c>
       <c r="K4">
-        <v>71.111486170370327</v>
+        <v>69.83060106210317</v>
       </c>
       <c r="L4">
-        <v>86.056169994911443</v>
+        <v>85.6899621300186</v>
       </c>
       <c r="M4">
-        <v>80.26074437551938</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+        <v>77.213246133691442</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1970</v>
       </c>
       <c r="B5">
-        <v>18.523093446523891</v>
+        <v>16.845478788407586</v>
       </c>
       <c r="C5">
-        <v>18.582528709312427</v>
+        <v>-0.44408121159241531</v>
       </c>
       <c r="D5">
-        <v>14.93180368187538</v>
+        <v>12.856598454492888</v>
       </c>
       <c r="E5">
-        <v>21.703873108287382</v>
+        <v>20.207962167486379</v>
       </c>
       <c r="F5">
-        <v>22.223327071432667</v>
+        <v>20.905170779935276</v>
       </c>
       <c r="G5">
-        <v>15.962994271665787</v>
+        <v>14.160077632919435</v>
       </c>
       <c r="H5">
-        <v>78.015589426972795</v>
+        <v>74.898446709153021</v>
       </c>
       <c r="I5">
-        <v>76.419991763012206</v>
+        <v>2.7570467091530162</v>
       </c>
       <c r="J5">
-        <v>68.556700960820024</v>
+        <v>64.466179560044054</v>
       </c>
       <c r="K5">
-        <v>76.957269078795278</v>
+        <v>73.425490173645187</v>
       </c>
       <c r="L5">
-        <v>87.437319278528193</v>
+        <v>86.503314218191548</v>
       </c>
       <c r="M5">
-        <v>82.47408882619176</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+        <v>78.724183351760814</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1971</v>
       </c>
@@ -643,7 +672,7 @@
         <v>16.229869938280899</v>
       </c>
       <c r="C6">
-        <v>17.376481692402393</v>
+        <v>-1.0596900617191025</v>
       </c>
       <c r="D6">
         <v>11.996478949685709</v>
@@ -661,7 +690,7 @@
         <v>75.402851121481262</v>
       </c>
       <c r="I6">
-        <v>76.709220274227022</v>
+        <v>3.261451121481258</v>
       </c>
       <c r="J6">
         <v>66.829862061830028</v>
@@ -676,7 +705,7 @@
         <v>77.764572141253922</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1972</v>
       </c>
@@ -684,7 +713,7 @@
         <v>16.877759562841526</v>
       </c>
       <c r="C7">
-        <v>16.553814750561212</v>
+        <v>-0.41180043715847603</v>
       </c>
       <c r="D7">
         <v>12.474027241205333</v>
@@ -693,7 +722,7 @@
         <v>20.085379266548376</v>
       </c>
       <c r="F7">
-        <v>21.014056836267617</v>
+        <v>21.014056836267621</v>
       </c>
       <c r="G7">
         <v>14.640727059150905</v>
@@ -702,7 +731,7 @@
         <v>74.137704918032796</v>
       </c>
       <c r="I7">
-        <v>74.770278019757029</v>
+        <v>1.9963049180327914</v>
       </c>
       <c r="J7">
         <v>66.46406441826187</v>
@@ -717,7 +746,7 @@
         <v>77.560484479796244</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1973</v>
       </c>
@@ -725,7 +754,7 @@
         <v>17.114911067346931</v>
       </c>
       <c r="C8">
-        <v>16.996335315094228</v>
+        <v>-0.17464893265307069</v>
       </c>
       <c r="D8">
         <v>13.357139728531752</v>
@@ -734,7 +763,7 @@
         <v>20.806652519412626</v>
       </c>
       <c r="F8">
-        <v>21.103848443872476</v>
+        <v>21.103848443872472</v>
       </c>
       <c r="G8">
         <v>13.867181815860334</v>
@@ -743,7 +772,7 @@
         <v>75.540116122980379</v>
       </c>
       <c r="I8">
-        <v>74.838910520506587</v>
+        <v>3.3987161229803746</v>
       </c>
       <c r="J8">
         <v>66.003517640063222</v>
@@ -758,171 +787,171 @@
         <v>79.719135700867355</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1974</v>
       </c>
       <c r="B9">
-        <v>16.614637008116148</v>
+        <v>16.452722002176095</v>
       </c>
       <c r="C9">
-        <v>16.864774037731539</v>
+        <v>-0.83683799782390622</v>
       </c>
       <c r="D9">
-        <v>11.724968219205909</v>
+        <v>11.713346596622307</v>
       </c>
       <c r="E9">
-        <v>19.736259652218685</v>
+        <v>19.725423183420446</v>
       </c>
       <c r="F9">
-        <v>20.730782357968661</v>
+        <v>20.888860349115145</v>
       </c>
       <c r="G9">
-        <v>15.939032257214043</v>
+        <v>14.890670189307802</v>
       </c>
       <c r="H9">
-        <v>75.858786003593949</v>
+        <v>75.034028300078518</v>
       </c>
       <c r="I9">
-        <v>75.699451063287171</v>
+        <v>2.8926283000785133</v>
       </c>
       <c r="J9">
-        <v>65.148927973778484</v>
+        <v>64.442067371234998</v>
       </c>
       <c r="K9">
-        <v>76.384583616491426</v>
+        <v>75.832681591387882</v>
       </c>
       <c r="L9">
-        <v>86.790451441150282</v>
+        <v>86.677546508507248</v>
       </c>
       <c r="M9">
-        <v>81.518079217749033</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+        <v>77.340708411532887</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1975</v>
       </c>
       <c r="B10">
-        <v>17.802544230125672</v>
+        <v>16.916831641539343</v>
       </c>
       <c r="C10">
-        <v>17.208590619120912</v>
+        <v>-0.37272835846065888</v>
       </c>
       <c r="D10">
-        <v>14.572294196968858</v>
+        <v>13.355701043542847</v>
       </c>
       <c r="E10">
-        <v>21.337169826248257</v>
+        <v>20.421128439108326</v>
       </c>
       <c r="F10">
-        <v>21.69105906283869</v>
+        <v>21.018147227238973</v>
       </c>
       <c r="G10">
-        <v>14.227824301153301</v>
+        <v>13.494980334642321</v>
       </c>
       <c r="H10">
-        <v>75.857792948073239</v>
+        <v>73.418151043839231</v>
       </c>
       <c r="I10">
-        <v>75.858289475833601</v>
+        <v>1.2767510438392264</v>
       </c>
       <c r="J10">
-        <v>67.30005896635312</v>
+        <v>62.908389792744877</v>
       </c>
       <c r="K10">
-        <v>74.12371089793146</v>
+        <v>72.246744857080401</v>
       </c>
       <c r="L10">
-        <v>84.608326756962441</v>
+        <v>84.400851055359936</v>
       </c>
       <c r="M10">
-        <v>79.924395673185742</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+        <v>76.751174065281774</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1976</v>
       </c>
       <c r="B11">
-        <v>17.155906962887308</v>
+        <v>16.398327603583294</v>
       </c>
       <c r="C11">
-        <v>17.479225596506488</v>
+        <v>-0.89123239641670793</v>
       </c>
       <c r="D11">
-        <v>12.75483346727602</v>
+        <v>11.893444063525745</v>
       </c>
       <c r="E11">
-        <v>20.611016304308393</v>
+        <v>19.827015369867407</v>
       </c>
       <c r="F11">
-        <v>21.572224242695938</v>
+        <v>20.928112479258697</v>
       </c>
       <c r="G11">
-        <v>14.827574781317745</v>
+        <v>13.983959144314502</v>
       </c>
       <c r="H11">
-        <v>77.672234967095903</v>
+        <v>74.888348644385601</v>
       </c>
       <c r="I11">
-        <v>76.765013957584571</v>
+        <v>2.746948644385597</v>
       </c>
       <c r="J11">
-        <v>71.97094676204604</v>
+        <v>66.694004545856743</v>
       </c>
       <c r="K11">
-        <v>77.301262681718683</v>
+        <v>74.861913210878768</v>
       </c>
       <c r="L11">
-        <v>85.422771512719322</v>
+        <v>85.00900802166791</v>
       </c>
       <c r="M11">
-        <v>79.83447377619342</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+        <v>76.655247520979145</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1977</v>
       </c>
       <c r="B12">
-        <v>17.474830709020466</v>
+        <v>16.670598248629652</v>
       </c>
       <c r="C12">
-        <v>17.315368835953887</v>
+        <v>-0.61896175137034959</v>
       </c>
       <c r="D12">
-        <v>13.158272848117589</v>
+        <v>12.233805496268355</v>
       </c>
       <c r="E12">
-        <v>21.130052288936309</v>
+        <v>20.226681585295854</v>
       </c>
       <c r="F12">
-        <v>21.569358293257981</v>
+        <v>20.943384549465421</v>
       </c>
       <c r="G12">
-        <v>14.64065298675345</v>
+        <v>13.878495351379314</v>
       </c>
       <c r="H12">
-        <v>77.211699576713585</v>
+        <v>74.465369841773594</v>
       </c>
       <c r="I12">
-        <v>77.441967271904744</v>
+        <v>2.3239698417735895</v>
       </c>
       <c r="J12">
-        <v>70.745364110051526</v>
+        <v>65.915673141911483</v>
       </c>
       <c r="K12">
-        <v>73.840871873384714</v>
+        <v>72.167910963797823</v>
       </c>
       <c r="L12">
-        <v>85.713364484591651</v>
+        <v>85.152318140037522</v>
       </c>
       <c r="M12">
-        <v>81.696570367132537</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+        <v>77.724981772841176</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1978</v>
       </c>
@@ -930,7 +959,7 @@
         <v>16.592081587984456</v>
       </c>
       <c r="C13">
-        <v>17.033456148502459</v>
+        <v>-0.6974784120155455</v>
       </c>
       <c r="D13">
         <v>12.151638833898801</v>
@@ -945,10 +974,10 @@
         <v>14.370640740018592</v>
       </c>
       <c r="H13">
-        <v>74.030007170081888</v>
+        <v>74.030007170081873</v>
       </c>
       <c r="I13">
-        <v>75.620853373397736</v>
+        <v>1.888607170081869</v>
       </c>
       <c r="J13">
         <v>64.552598328434229</v>
@@ -963,7 +992,7 @@
         <v>73.80323134885306</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1979</v>
       </c>
@@ -971,7 +1000,7 @@
         <v>17.073506849315073</v>
       </c>
       <c r="C14">
-        <v>16.832794218649767</v>
+        <v>-0.21605315068492814</v>
       </c>
       <c r="D14">
         <v>13.275129320376655</v>
@@ -986,10 +1015,10 @@
         <v>13.306093921087163</v>
       </c>
       <c r="H14">
-        <v>71.241095890410961</v>
+        <v>71.241095890410946</v>
       </c>
       <c r="I14">
-        <v>72.635551530246431</v>
+        <v>-0.90030410958905804</v>
       </c>
       <c r="J14">
         <v>57.866139981427047</v>
@@ -1004,7 +1033,7 @@
         <v>77.232643819009269</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1980</v>
       </c>
@@ -1012,7 +1041,7 @@
         <v>17.1558752061622</v>
       </c>
       <c r="C15">
-        <v>17.114691027738637</v>
+        <v>-0.13368479383780141</v>
       </c>
       <c r="D15">
         <v>12.878908129927828</v>
@@ -1021,7 +1050,7 @@
         <v>20.760079866054806</v>
       </c>
       <c r="F15">
-        <v>21.202827692834525</v>
+        <v>21.202827692834521</v>
       </c>
       <c r="G15">
         <v>14.528544499142253</v>
@@ -1030,7 +1059,7 @@
         <v>71.683573900461397</v>
       </c>
       <c r="I15">
-        <v>71.462334895436186</v>
+        <v>-0.45782609953860742</v>
       </c>
       <c r="J15">
         <v>60.793914235542047</v>
@@ -1045,7 +1074,7 @@
         <v>75.950354824119671</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1981</v>
       </c>
@@ -1053,7 +1082,7 @@
         <v>17.219487084936645</v>
       </c>
       <c r="C16">
-        <v>17.187681145549423</v>
+        <v>-7.0072915063356334E-2</v>
       </c>
       <c r="D16">
         <v>13.106321201443643</v>
@@ -1068,10 +1097,10 @@
         <v>14.833822454458607</v>
       </c>
       <c r="H16">
-        <v>73.683384390619764</v>
+        <v>73.68338439061975</v>
       </c>
       <c r="I16">
-        <v>72.683479145540588</v>
+        <v>1.5419843906197457</v>
       </c>
       <c r="J16">
         <v>64.491043491506019</v>
@@ -1086,7 +1115,7 @@
         <v>76.19161154323551</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1982</v>
       </c>
@@ -1094,7 +1123,7 @@
         <v>16.741477495107631</v>
       </c>
       <c r="C17">
-        <v>16.980482290022138</v>
+        <v>-0.54808250489237054</v>
       </c>
       <c r="D17">
         <v>12.804292457793816</v>
@@ -1112,7 +1141,7 @@
         <v>73.873847659190119</v>
       </c>
       <c r="I17">
-        <v>73.778616024904949</v>
+        <v>1.7324476591901146</v>
       </c>
       <c r="J17">
         <v>64.545456038794512</v>
@@ -1127,7 +1156,7 @@
         <v>78.199908821122136</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1983</v>
       </c>
@@ -1135,7 +1164,7 @@
         <v>16.806863080233178</v>
       </c>
       <c r="C18">
-        <v>16.774170287670405</v>
+        <v>-0.48269691976682338</v>
       </c>
       <c r="D18">
         <v>11.346961246726385</v>
@@ -1150,10 +1179,10 @@
         <v>13.941621334101194</v>
       </c>
       <c r="H18">
-        <v>72.98112061630944</v>
+        <v>72.981120616309454</v>
       </c>
       <c r="I18">
-        <v>73.427484137749786</v>
+        <v>0.8397206163094495</v>
       </c>
       <c r="J18">
         <v>67.823506396596557</v>
@@ -1168,7 +1197,7 @@
         <v>78.015898629035021</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1984</v>
       </c>
@@ -1176,7 +1205,7 @@
         <v>17.079262295081961</v>
       </c>
       <c r="C19">
-        <v>16.943062687657569</v>
+        <v>-0.21029770491804101</v>
       </c>
       <c r="D19">
         <v>13.237329244469521</v>
@@ -1194,7 +1223,7 @@
         <v>71.684153005464481</v>
       </c>
       <c r="I19">
-        <v>72.332636810886953</v>
+        <v>-0.45724699453552375</v>
       </c>
       <c r="J19">
         <v>60.417840729632928</v>
@@ -1209,7 +1238,7 @@
         <v>73.624085854663434</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1985</v>
       </c>
@@ -1217,7 +1246,7 @@
         <v>16.82145205479452</v>
       </c>
       <c r="C20">
-        <v>16.95035717493824</v>
+        <v>-0.46810794520548171</v>
       </c>
       <c r="D20">
         <v>12.696859213827441</v>
@@ -1235,7 +1264,7 @@
         <v>73.778630136986294</v>
       </c>
       <c r="I20">
-        <v>72.731391571225387</v>
+        <v>1.6372301369862896</v>
       </c>
       <c r="J20">
         <v>62.77575378588481</v>
@@ -1250,7 +1279,7 @@
         <v>75.489392237550689</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1986</v>
       </c>
@@ -1258,7 +1287,7 @@
         <v>16.878936775553214</v>
       </c>
       <c r="C21">
-        <v>16.850194415173867</v>
+        <v>-0.41062322444678756</v>
       </c>
       <c r="D21">
         <v>12.742520657931419</v>
@@ -1276,7 +1305,7 @@
         <v>72.555738371217814</v>
       </c>
       <c r="I21">
-        <v>73.167184254102054</v>
+        <v>0.41433837121780925</v>
       </c>
       <c r="J21">
         <v>60.513063930954274</v>
@@ -1291,7 +1320,7 @@
         <v>76.952310486773584</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1987</v>
       </c>
@@ -1299,7 +1328,7 @@
         <v>17.353041044736223</v>
       </c>
       <c r="C22">
-        <v>17.115988910144718</v>
+        <v>6.3481044736221293E-2</v>
       </c>
       <c r="D22">
         <v>13.38192914779791</v>
@@ -1317,7 +1346,7 @@
         <v>71.893193499309106</v>
       </c>
       <c r="I22">
-        <v>72.224465935263453</v>
+        <v>-0.24820650069089822</v>
       </c>
       <c r="J22">
         <v>63.22275252402752</v>
@@ -1332,7 +1361,7 @@
         <v>75.59295989659536</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1988</v>
       </c>
@@ -1340,7 +1369,7 @@
         <v>17.422505380022326</v>
       </c>
       <c r="C23">
-        <v>17.387773212379273</v>
+        <v>0.13294538002232414</v>
       </c>
       <c r="D23">
         <v>13.734264038333169</v>
@@ -1358,7 +1387,7 @@
         <v>72.539461556138235</v>
       </c>
       <c r="I23">
-        <v>72.216327527723678</v>
+        <v>0.3980615561382308</v>
       </c>
       <c r="J23">
         <v>61.191009517602609</v>
@@ -1373,7 +1402,7 @@
         <v>77.771662607571699</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1989</v>
       </c>
@@ -1381,7 +1410,7 @@
         <v>16.976466391614846</v>
       </c>
       <c r="C24">
-        <v>17.199485885818586</v>
+        <v>-0.31309360838515587</v>
       </c>
       <c r="D24">
         <v>12.682825155981483</v>
@@ -1399,7 +1428,7 @@
         <v>72.120072448327306</v>
       </c>
       <c r="I24">
-        <v>72.329767002232771</v>
+        <v>-2.1327551672698064E-2</v>
       </c>
       <c r="J24">
         <v>63.097677883528924</v>
@@ -1414,7 +1443,7 @@
         <v>76.490411874510457</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1990</v>
       </c>
@@ -1422,7 +1451,7 @@
         <v>16.959277975713565</v>
       </c>
       <c r="C25">
-        <v>16.967872183664205</v>
+        <v>-0.33028202428643638</v>
       </c>
       <c r="D25">
         <v>12.73094662266311</v>
@@ -1440,7 +1469,7 @@
         <v>74.303428495016391</v>
       </c>
       <c r="I25">
-        <v>73.211750471671849</v>
+        <v>2.1620284950163864</v>
       </c>
       <c r="J25">
         <v>66.921375582089325</v>
@@ -1455,7 +1484,7 @@
         <v>75.977525756237171</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1991</v>
       </c>
@@ -1463,7 +1492,7 @@
         <v>17.319519675339802</v>
       </c>
       <c r="C26">
-        <v>17.139398825526683</v>
+        <v>2.9959675339799929E-2</v>
       </c>
       <c r="D26">
         <v>13.819554186845002</v>
@@ -1481,7 +1510,7 @@
         <v>74.067799852545974</v>
       </c>
       <c r="I26">
-        <v>74.185614173781175</v>
+        <v>1.9263998525459698</v>
       </c>
       <c r="J26">
         <v>62.759472425291527</v>
@@ -1496,7 +1525,7 @@
         <v>77.891456956824896</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1992</v>
       </c>
@@ -1504,7 +1533,7 @@
         <v>16.562296332144243</v>
       </c>
       <c r="C27">
-        <v>16.940908003742024</v>
+        <v>-0.72726366785575891</v>
       </c>
       <c r="D27">
         <v>11.873125973543463</v>
@@ -1513,7 +1542,7 @@
         <v>20.955458956838353</v>
       </c>
       <c r="F27">
-        <v>21.263355340293227</v>
+        <v>21.263355340293224</v>
       </c>
       <c r="G27">
         <v>13.192745839632277</v>
@@ -1522,7 +1551,7 @@
         <v>72.82743340634417</v>
       </c>
       <c r="I27">
-        <v>73.447616629445065</v>
+        <v>0.68603340634416554</v>
       </c>
       <c r="J27">
         <v>68.853683678886327</v>
@@ -1537,7 +1566,7 @@
         <v>76.455121977582252</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1993</v>
       </c>
@@ -1545,7 +1574,7 @@
         <v>17.032742715856354</v>
       </c>
       <c r="C28">
-        <v>16.7975195240003</v>
+        <v>-0.25681728414364713</v>
       </c>
       <c r="D28">
         <v>12.663013884224144</v>
@@ -1563,7 +1592,7 @@
         <v>73.825976596431147</v>
       </c>
       <c r="I28">
-        <v>73.326705001387666</v>
+        <v>1.6845765964311425</v>
       </c>
       <c r="J28">
         <v>67.105641232635108</v>
@@ -1578,7 +1607,7 @@
         <v>76.657783465151624</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1994</v>
       </c>
@@ -1586,7 +1615,7 @@
         <v>17.5320300621838</v>
       </c>
       <c r="C29">
-        <v>17.282386389020076</v>
+        <v>0.24247006218379852</v>
       </c>
       <c r="D29">
         <v>13.615946121917204</v>
@@ -1604,7 +1633,7 @@
         <v>72.311600142281947</v>
       </c>
       <c r="I29">
-        <v>73.068788369356554</v>
+        <v>0.17020014228194214</v>
       </c>
       <c r="J29">
         <v>62.422389729957061</v>
@@ -1619,7 +1648,7 @@
         <v>75.537157037739348</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1995</v>
       </c>
@@ -1627,7 +1656,7 @@
         <v>17.3624289659626</v>
       </c>
       <c r="C30">
-        <v>17.4472295140732</v>
+        <v>7.2868965962598509E-2</v>
       </c>
       <c r="D30">
         <v>13.178758819716176</v>
@@ -1636,7 +1665,7 @@
         <v>21.112385774897756</v>
       </c>
       <c r="F30">
-        <v>21.111106002515598</v>
+        <v>21.111106002515601</v>
       </c>
       <c r="G30">
         <v>15.051553067773677</v>
@@ -1645,7 +1674,7 @@
         <v>72.817704566223796</v>
       </c>
       <c r="I30">
-        <v>72.564652354252871</v>
+        <v>0.67630456622379143</v>
       </c>
       <c r="J30">
         <v>63.368159928209352</v>
@@ -1660,7 +1689,7 @@
         <v>76.858151852250487</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1996</v>
       </c>
@@ -1668,7 +1697,7 @@
         <v>17.317799061208149</v>
       </c>
       <c r="C31">
-        <v>17.340114013585374</v>
+        <v>2.823906120814712E-2</v>
       </c>
       <c r="D31">
         <v>13.355659177647402</v>
@@ -1686,7 +1715,7 @@
         <v>72.041778928142563</v>
       </c>
       <c r="I31">
-        <v>72.429741747183186</v>
+        <v>-9.9621071857441734E-2</v>
       </c>
       <c r="J31">
         <v>62.694913049454271</v>
@@ -1701,7 +1730,7 @@
         <v>75.321558770532619</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1997</v>
       </c>
@@ -1709,7 +1738,7 @@
         <v>17.037248985042506</v>
       </c>
       <c r="C32">
-        <v>17.177524023125329</v>
+        <v>-0.25231101495749542</v>
       </c>
       <c r="D32">
         <v>12.709577094631234</v>
@@ -1718,7 +1747,7 @@
         <v>20.259798676994759</v>
       </c>
       <c r="F32">
-        <v>20.668957130808945</v>
+        <v>20.668957130808941</v>
       </c>
       <c r="G32">
         <v>15.281447897294285</v>
@@ -1727,7 +1756,7 @@
         <v>71.313895835389715</v>
       </c>
       <c r="I32">
-        <v>71.677837381766139</v>
+        <v>-0.82750416461028919</v>
       </c>
       <c r="J32">
         <v>63.518093804160671</v>
@@ -1742,7 +1771,7 @@
         <v>73.60969828135481</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1998</v>
       </c>
@@ -1750,7 +1779,7 @@
         <v>17.953810864822621</v>
       </c>
       <c r="C33">
-        <v>17.495529924932562</v>
+        <v>0.66425086482261975</v>
       </c>
       <c r="D33">
         <v>14.10114116653217</v>
@@ -1759,7 +1788,7 @@
         <v>21.106039690780101</v>
       </c>
       <c r="F33">
-        <v>21.55955135525171</v>
+        <v>21.559551355251713</v>
       </c>
       <c r="G33">
         <v>15.758033669669448</v>
@@ -1768,7 +1797,7 @@
         <v>71.274736138295978</v>
       </c>
       <c r="I33">
-        <v>71.294315986842847</v>
+        <v>-0.86666386170402632</v>
       </c>
       <c r="J33">
         <v>59.44787565470331</v>
@@ -1783,7 +1812,7 @@
         <v>73.913854567709024</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1999</v>
       </c>
@@ -1791,7 +1820,7 @@
         <v>17.922134505030893</v>
       </c>
       <c r="C34">
-        <v>17.937972684926756</v>
+        <v>0.63257450503089174</v>
       </c>
       <c r="D34">
         <v>15.075970990630651</v>
@@ -1806,10 +1835,10 @@
         <v>14.761129085837862</v>
       </c>
       <c r="H34">
-        <v>71.906861680412433</v>
+        <v>71.906861680412447</v>
       </c>
       <c r="I34">
-        <v>71.590798909354206</v>
+        <v>-0.234538319587557</v>
       </c>
       <c r="J34">
         <v>57.720787788898562</v>
@@ -1824,7 +1853,7 @@
         <v>76.646162247794038</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>2000</v>
       </c>
@@ -1832,7 +1861,7 @@
         <v>17.294592304715074</v>
       </c>
       <c r="C35">
-        <v>17.608363404872982</v>
+        <v>5.0323047150726552E-3</v>
       </c>
       <c r="D35">
         <v>13.085599442248801</v>
@@ -1850,7 +1879,7 @@
         <v>73.006216756197659</v>
       </c>
       <c r="I35">
-        <v>72.456539218305039</v>
+        <v>0.86481675619765497</v>
       </c>
       <c r="J35">
         <v>62.737026432667413</v>
@@ -1865,7 +1894,7 @@
         <v>75.150501763562971</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>2001</v>
       </c>
@@ -1873,7 +1902,7 @@
         <v>17.603672046923606</v>
       </c>
       <c r="C36">
-        <v>17.44913217581934</v>
+        <v>0.31411204692360428</v>
       </c>
       <c r="D36">
         <v>13.984732661642052</v>
@@ -1891,7 +1920,7 @@
         <v>72.391052310080937</v>
       </c>
       <c r="I36">
-        <v>72.698634533139298</v>
+        <v>0.24965231008093269</v>
       </c>
       <c r="J36">
         <v>61.60553792702234</v>
@@ -1906,7 +1935,7 @@
         <v>76.817418992263754</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>2002</v>
       </c>
@@ -1914,7 +1943,7 @@
         <v>17.602080685716587</v>
       </c>
       <c r="C37">
-        <v>17.602876366320096</v>
+        <v>0.31252068571658498</v>
       </c>
       <c r="D37">
         <v>14.023630287956824</v>
@@ -1932,7 +1961,7 @@
         <v>71.772863516161152</v>
       </c>
       <c r="I37">
-        <v>72.081957913121045</v>
+        <v>-0.36853648383885229</v>
       </c>
       <c r="J37">
         <v>63.495126536942827</v>
@@ -1947,7 +1976,7 @@
         <v>73.204685450035498</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>2003</v>
       </c>
@@ -1955,7 +1984,7 @@
         <v>17.899536655125697</v>
       </c>
       <c r="C38">
-        <v>17.750808670421144</v>
+        <v>0.60997665512569554</v>
       </c>
       <c r="D38">
         <v>13.63945583786878</v>
@@ -1970,10 +1999,10 @@
         <v>15.481470839984173</v>
       </c>
       <c r="H38">
-        <v>70.760407948216155</v>
+        <v>70.760407948216169</v>
       </c>
       <c r="I38">
-        <v>71.266635732188661</v>
+        <v>-1.380992051783835</v>
       </c>
       <c r="J38">
         <v>63.090509896607344</v>
@@ -1988,7 +2017,7 @@
         <v>73.317442233152548</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>2004</v>
       </c>
@@ -1996,7 +2025,7 @@
         <v>17.435762776709783</v>
       </c>
       <c r="C39">
-        <v>17.66764971591774</v>
+        <v>0.14620277670978155</v>
       </c>
       <c r="D39">
         <v>14.115419978439155</v>
@@ -2005,16 +2034,16 @@
         <v>20.308324495137107</v>
       </c>
       <c r="F39">
-        <v>21.600723654077374</v>
+        <v>21.60072365407737</v>
       </c>
       <c r="G39">
         <v>14.47718990043461</v>
       </c>
       <c r="H39">
-        <v>70.351350112571751</v>
+        <v>70.351350112571765</v>
       </c>
       <c r="I39">
-        <v>70.555879030393953</v>
+        <v>-1.7900498874282391</v>
       </c>
       <c r="J39">
         <v>59.679196476122591</v>
@@ -2029,7 +2058,7 @@
         <v>72.151276546012525</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>2005</v>
       </c>
@@ -2037,7 +2066,7 @@
         <v>18.200955909883763</v>
       </c>
       <c r="C40">
-        <v>17.818359343296773</v>
+        <v>0.91139590988376185</v>
       </c>
       <c r="D40">
         <v>14.010036788131567</v>
@@ -2055,7 +2084,7 @@
         <v>67.686981921177107</v>
       </c>
       <c r="I40">
-        <v>69.019166016874436</v>
+        <v>-4.4544180788228971</v>
       </c>
       <c r="J40">
         <v>60.261607529579919</v>
@@ -2070,7 +2099,7 @@
         <v>72.884378065498822</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>2006</v>
       </c>
@@ -2078,7 +2107,7 @@
         <v>18.221412073945661</v>
       </c>
       <c r="C41">
-        <v>18.211183991914712</v>
+        <v>0.9318520739456595</v>
       </c>
       <c r="D41">
         <v>15.067889297645909</v>
@@ -2096,7 +2125,7 @@
         <v>69.75402817140143</v>
       </c>
       <c r="I41">
-        <v>68.720505046289276</v>
+        <v>-2.3873718285985746</v>
       </c>
       <c r="J41">
         <v>59.985128972550889</v>
@@ -2111,7 +2140,7 @@
         <v>73.055264978972815</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>2007</v>
       </c>
@@ -2119,7 +2148,7 @@
         <v>17.552203324611366</v>
       </c>
       <c r="C42">
-        <v>17.886807699278513</v>
+        <v>0.26264332461136419</v>
       </c>
       <c r="D42">
         <v>13.702859659390967</v>
@@ -2134,10 +2163,10 @@
         <v>15.161347767468399</v>
       </c>
       <c r="H42">
-        <v>72.10095736493767</v>
+        <v>72.100957364937656</v>
       </c>
       <c r="I42">
-        <v>70.927492768169543</v>
+        <v>-4.0442635062348131E-2</v>
       </c>
       <c r="J42">
         <v>60.733393708774862</v>
@@ -2152,7 +2181,7 @@
         <v>75.167992010641015</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>2008</v>
       </c>
@@ -2160,7 +2189,7 @@
         <v>17.462146408703784</v>
       </c>
       <c r="C43">
-        <v>17.507174866657575</v>
+        <v>0.17258640870378272</v>
       </c>
       <c r="D43">
         <v>13.025185384409486</v>
@@ -2175,10 +2204,10 @@
         <v>15.019500286077852</v>
       </c>
       <c r="H43">
-        <v>71.305720474572936</v>
+        <v>71.305720474572951</v>
       </c>
       <c r="I43">
-        <v>71.703338919755311</v>
+        <v>-0.8356795254270537</v>
       </c>
       <c r="J43">
         <v>64.052297102580198</v>
@@ -2193,7 +2222,7 @@
         <v>74.018721248811815</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>2009</v>
       </c>
@@ -2201,7 +2230,7 @@
         <v>18.24434828268452</v>
       </c>
       <c r="C44">
-        <v>17.85324734569415</v>
+        <v>0.95478828268451821</v>
       </c>
       <c r="D44">
         <v>14.491390948715658</v>
@@ -2219,7 +2248,7 @@
         <v>66.476674052390109</v>
       </c>
       <c r="I44">
-        <v>68.89119726348153</v>
+        <v>-5.6647259476098952</v>
       </c>
       <c r="J44">
         <v>57.607247745584218</v>
@@ -2234,7 +2263,7 @@
         <v>66.7610730570523</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>2010</v>
       </c>
@@ -2242,7 +2271,7 @@
         <v>18.340370194359956</v>
       </c>
       <c r="C45">
-        <v>18.292359238522238</v>
+        <v>1.0508101943599542</v>
       </c>
       <c r="D45">
         <v>14.916571010541286</v>
@@ -2257,10 +2286,10 @@
         <v>15.178362415670467</v>
       </c>
       <c r="H45">
-        <v>66.773394247880248</v>
+        <v>66.773394247880262</v>
       </c>
       <c r="I45">
-        <v>66.625034150135178</v>
+        <v>-5.3680057521197426</v>
       </c>
       <c r="J45">
         <v>51.497858308284279</v>
@@ -2275,7 +2304,7 @@
         <v>75.145954396744088</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>2011</v>
       </c>
@@ -2283,7 +2312,7 @@
         <v>17.463302188419867</v>
       </c>
       <c r="C46">
-        <v>17.901836191389911</v>
+        <v>0.17374218841986533</v>
       </c>
       <c r="D46">
         <v>13.128330457136823</v>
@@ -2301,7 +2330,7 @@
         <v>70.628011486483388</v>
       </c>
       <c r="I46">
-        <v>68.700702867181818</v>
+        <v>-1.5133885135166167</v>
       </c>
       <c r="J46">
         <v>61.901520273216157</v>
@@ -2316,7 +2345,7 @@
         <v>74.923300628504606</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>2012</v>
       </c>
@@ -2324,7 +2353,7 @@
         <v>18.230368397085606</v>
       </c>
       <c r="C47">
-        <v>17.846835292752736</v>
+        <v>0.94080839708560404</v>
       </c>
       <c r="D47">
         <v>14.246292654910309</v>
@@ -2333,7 +2362,7 @@
         <v>21.814025114626649</v>
       </c>
       <c r="F47">
-        <v>21.844216595184808</v>
+        <v>21.844216595184804</v>
       </c>
       <c r="G47">
         <v>15.8091837311954</v>
@@ -2342,7 +2371,7 @@
         <v>66.137340619307821</v>
       </c>
       <c r="I47">
-        <v>68.382676052895604</v>
+        <v>-6.0040593806921834</v>
       </c>
       <c r="J47">
         <v>57.08867700886411</v>
@@ -2357,7 +2386,7 @@
         <v>67.973079354657656</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>2013</v>
       </c>
@@ -2365,7 +2394,7 @@
         <v>17.921257946735849</v>
       </c>
       <c r="C48">
-        <v>18.075813171910728</v>
+        <v>0.63169794673584789</v>
       </c>
       <c r="D48">
         <v>15.001292140610113</v>
@@ -2380,10 +2409,10 @@
         <v>14.402817214469513</v>
       </c>
       <c r="H48">
-        <v>67.231743751258804</v>
+        <v>67.23174375125879</v>
       </c>
       <c r="I48">
-        <v>66.684542185283306</v>
+        <v>-4.9096562487412143</v>
       </c>
       <c r="J48">
         <v>55.812096411209595</v>
@@ -2398,7 +2427,7 @@
         <v>72.23666390602888</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>2014</v>
       </c>
@@ -2406,7 +2435,7 @@
         <v>18.202004545302486</v>
       </c>
       <c r="C49">
-        <v>18.061631246019168</v>
+        <v>0.91244454530248476</v>
       </c>
       <c r="D49">
         <v>14.079584389411355</v>
@@ -2415,16 +2444,16 @@
         <v>22.046071902836829</v>
       </c>
       <c r="F49">
-        <v>22.164318755484747</v>
+        <v>22.16431875548475</v>
       </c>
       <c r="G49">
         <v>15.240382277006299</v>
       </c>
       <c r="H49">
-        <v>67.411911619582867</v>
+        <v>67.411911619582838</v>
       </c>
       <c r="I49">
-        <v>67.321827685420828</v>
+        <v>-4.7294883804171661</v>
       </c>
       <c r="J49">
         <v>57.17347881766797</v>
@@ -2439,7 +2468,7 @@
         <v>72.148863236275048</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>2015</v>
       </c>
@@ -2447,7 +2476,7 @@
         <v>18.172080412353569</v>
       </c>
       <c r="C50">
-        <v>18.187042478828026</v>
+        <v>0.88252041235356771</v>
       </c>
       <c r="D50">
         <v>14.398665908560778</v>
@@ -2465,7 +2494,7 @@
         <v>69.502009026609116</v>
       </c>
       <c r="I50">
-        <v>68.456960323095984</v>
+        <v>-2.6393909733908885</v>
       </c>
       <c r="J50">
         <v>59.541819785445888</v>
@@ -2480,7 +2509,7 @@
         <v>75.737908596578706</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>2016</v>
       </c>
@@ -2488,7 +2517,7 @@
         <v>17.886363086279903</v>
       </c>
       <c r="C51">
-        <v>18.029221749316736</v>
+        <v>0.59680308627990186</v>
       </c>
       <c r="D51">
         <v>13.177825659605324</v>
@@ -2497,7 +2526,7 @@
         <v>21.119254446552688</v>
       </c>
       <c r="F51">
-        <v>21.97578786162941</v>
+        <v>21.975787861629414</v>
       </c>
       <c r="G51">
         <v>16.039959148483604</v>
@@ -2506,7 +2535,7 @@
         <v>73.532553525071961</v>
       </c>
       <c r="I51">
-        <v>71.517281275840531</v>
+        <v>1.3911535250719567</v>
       </c>
       <c r="J51">
         <v>65.380125395803674</v>
@@ -2524,5 +2553,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/my_work/data1/all.xlsx
+++ b/my_work/data1/all.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TD\my_work\data1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0732EB0-5D72-4385-95FC-B3C0000B1F15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC90E0F7-BF5F-4417-9F9A-66BB2FEF8B79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8280" yWindow="4275" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27210" yWindow="3015" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Year</t>
   </si>
@@ -77,6 +77,12 @@
   <si>
     <t>annual_RH</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ETOmean</t>
+  </si>
+  <si>
+    <t>s1_ET0</t>
   </si>
 </sst>
 </file>
@@ -446,15 +452,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R51"/>
+  <dimension ref="A1:T51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -494,13 +500,19 @@
       <c r="M1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1967</v>
       </c>
@@ -540,8 +552,14 @@
       <c r="M2">
         <v>78.536224121717012</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N2">
+        <v>3.1479099744042367</v>
+      </c>
+      <c r="O2">
+        <v>5.4538239132222923</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1968</v>
       </c>
@@ -581,8 +599,14 @@
       <c r="M3">
         <v>77.655973861539863</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N3">
+        <v>3.1410626472632361</v>
+      </c>
+      <c r="O3">
+        <v>5.2254821005453085</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1969</v>
       </c>
@@ -622,8 +646,14 @@
       <c r="M4">
         <v>77.213246133691442</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N4">
+        <v>3.3016946561198863</v>
+      </c>
+      <c r="O4">
+        <v>5.2682418507422168</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1970</v>
       </c>
@@ -663,8 +693,14 @@
       <c r="M5">
         <v>78.724183351760814</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N5">
+        <v>3.194402691664076</v>
+      </c>
+      <c r="O5">
+        <v>5.0793401347518508</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1971</v>
       </c>
@@ -704,8 +740,14 @@
       <c r="M6">
         <v>77.764572141253922</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N6">
+        <v>3.1168101446490653</v>
+      </c>
+      <c r="O6">
+        <v>4.2921420684256262</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1972</v>
       </c>
@@ -745,8 +787,14 @@
       <c r="M7">
         <v>77.560484479796244</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N7">
+        <v>3.3141250265027851</v>
+      </c>
+      <c r="O7">
+        <v>4.2986139883382473</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1973</v>
       </c>
@@ -786,8 +834,14 @@
       <c r="M8">
         <v>79.719135700867355</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N8">
+        <v>3.1894851357227587</v>
+      </c>
+      <c r="O8">
+        <v>4.319591474130867</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1974</v>
       </c>
@@ -827,8 +881,14 @@
       <c r="M9">
         <v>77.340708411532887</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N9">
+        <v>3.1288526220965336</v>
+      </c>
+      <c r="O9">
+        <v>4.0322175671603357</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1975</v>
       </c>
@@ -868,8 +928,14 @@
       <c r="M10">
         <v>76.751174065281774</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N10">
+        <v>3.2892696841020004</v>
+      </c>
+      <c r="O10">
+        <v>4.2500990626345798</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1976</v>
       </c>
@@ -909,8 +975,14 @@
       <c r="M11">
         <v>76.655247520979145</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N11">
+        <v>3.1055311265634722</v>
+      </c>
+      <c r="O11">
+        <v>3.9830282048164505</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1977</v>
       </c>
@@ -950,8 +1022,14 @@
       <c r="M12">
         <v>77.724981772841176</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N12">
+        <v>3.0874838263818516</v>
+      </c>
+      <c r="O12">
+        <v>3.8779711515447417</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1978</v>
       </c>
@@ -991,8 +1069,14 @@
       <c r="M13">
         <v>73.80323134885306</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N13">
+        <v>3.1451745613441697</v>
+      </c>
+      <c r="O13">
+        <v>4.0213011621606372</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1979</v>
       </c>
@@ -1032,8 +1116,14 @@
       <c r="M14">
         <v>77.232643819009269</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N14">
+        <v>3.3039302580147933</v>
+      </c>
+      <c r="O14">
+        <v>4.6504026649102883</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1980</v>
       </c>
@@ -1073,8 +1163,14 @@
       <c r="M15">
         <v>75.950354824119671</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N15">
+        <v>3.2831562692961191</v>
+      </c>
+      <c r="O15">
+        <v>4.5099202662894751</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1981</v>
       </c>
@@ -1114,8 +1210,14 @@
       <c r="M16">
         <v>76.19161154323551</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N16">
+        <v>3.2541561030271131</v>
+      </c>
+      <c r="O16">
+        <v>4.0404277729102152</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1982</v>
       </c>
@@ -1155,8 +1257,14 @@
       <c r="M17">
         <v>78.199908821122136</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N17">
+        <v>3.2524018370334886</v>
+      </c>
+      <c r="O17">
+        <v>4.3815625499493311</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1983</v>
       </c>
@@ -1196,8 +1304,14 @@
       <c r="M18">
         <v>78.015898629035021</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N18">
+        <v>3.2710455451778273</v>
+      </c>
+      <c r="O18">
+        <v>4.3897126320641249</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1984</v>
       </c>
@@ -1237,8 +1351,14 @@
       <c r="M19">
         <v>73.624085854663434</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N19">
+        <v>3.3167871884501663</v>
+      </c>
+      <c r="O19">
+        <v>4.3045855877198749</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1985</v>
       </c>
@@ -1278,8 +1398,14 @@
       <c r="M20">
         <v>75.489392237550689</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N20">
+        <v>3.1125301095794606</v>
+      </c>
+      <c r="O20">
+        <v>3.9261188616092242</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1986</v>
       </c>
@@ -1319,8 +1445,14 @@
       <c r="M21">
         <v>76.952310486773584</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N21">
+        <v>3.2153121060134966</v>
+      </c>
+      <c r="O21">
+        <v>4.212078529877421</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1987</v>
       </c>
@@ -1360,8 +1492,14 @@
       <c r="M22">
         <v>75.59295989659536</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N22">
+        <v>3.1722042592572817</v>
+      </c>
+      <c r="O22">
+        <v>4.5733200338201643</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1988</v>
       </c>
@@ -1401,8 +1539,14 @@
       <c r="M23">
         <v>77.771662607571699</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N23">
+        <v>3.1141582060263842</v>
+      </c>
+      <c r="O23">
+        <v>4.0581365494627404</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1989</v>
       </c>
@@ -1442,8 +1586,14 @@
       <c r="M24">
         <v>76.490411874510457</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N24">
+        <v>3.1341178493683448</v>
+      </c>
+      <c r="O24">
+        <v>4.1190551141460379</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1990</v>
       </c>
@@ -1483,8 +1633,14 @@
       <c r="M25">
         <v>75.977525756237171</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N25">
+        <v>3.0254265281338837</v>
+      </c>
+      <c r="O25">
+        <v>3.6181407454013006</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1991</v>
       </c>
@@ -1524,8 +1680,14 @@
       <c r="M26">
         <v>77.891456956824896</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N26">
+        <v>3.1861359372115023</v>
+      </c>
+      <c r="O26">
+        <v>4.4268903494545908</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1992</v>
       </c>
@@ -1565,8 +1727,14 @@
       <c r="M27">
         <v>76.455121977582252</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N27">
+        <v>3.2636033062409893</v>
+      </c>
+      <c r="O27">
+        <v>4.4606099799019088</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1993</v>
       </c>
@@ -1606,8 +1774,14 @@
       <c r="M28">
         <v>76.657783465151624</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N28">
+        <v>3.240900421933957</v>
+      </c>
+      <c r="O28">
+        <v>4.3821400916304745</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1994</v>
       </c>
@@ -1647,8 +1821,14 @@
       <c r="M29">
         <v>75.537157037739348</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N29">
+        <v>3.3343453043526154</v>
+      </c>
+      <c r="O29">
+        <v>4.3361153534367967</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1995</v>
       </c>
@@ -1688,8 +1868,14 @@
       <c r="M30">
         <v>76.858151852250487</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N30">
+        <v>3.1312935808298787</v>
+      </c>
+      <c r="O30">
+        <v>4.3267684620781548</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1996</v>
       </c>
@@ -1729,8 +1915,14 @@
       <c r="M31">
         <v>75.321558770532619</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N31">
+        <v>3.138712649579781</v>
+      </c>
+      <c r="O31">
+        <v>4.1266365269141962</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1997</v>
       </c>
@@ -1770,8 +1962,14 @@
       <c r="M32">
         <v>73.60969828135481</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N32">
+        <v>3.1037070744304041</v>
+      </c>
+      <c r="O32">
+        <v>4.1001382021258976</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1998</v>
       </c>
@@ -1811,8 +2009,14 @@
       <c r="M33">
         <v>73.913854567709024</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N33">
+        <v>3.1146387658631047</v>
+      </c>
+      <c r="O33">
+        <v>4.0753703856662282</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1999</v>
       </c>
@@ -1852,8 +2056,14 @@
       <c r="M34">
         <v>76.646162247794038</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N34">
+        <v>3.1431968641467294</v>
+      </c>
+      <c r="O34">
+        <v>4.0476862262022646</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>2000</v>
       </c>
@@ -1893,8 +2103,14 @@
       <c r="M35">
         <v>75.150501763562971</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N35">
+        <v>3.0373664192730345</v>
+      </c>
+      <c r="O35">
+        <v>3.6355471190127604</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>2001</v>
       </c>
@@ -1934,8 +2150,14 @@
       <c r="M36">
         <v>76.817418992263754</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N36">
+        <v>3.1020370797124883</v>
+      </c>
+      <c r="O36">
+        <v>3.8987831764017953</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>2002</v>
       </c>
@@ -1975,8 +2197,14 @@
       <c r="M37">
         <v>73.204685450035498</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N37">
+        <v>3.147517223003014</v>
+      </c>
+      <c r="O37">
+        <v>3.9297722817728213</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>2003</v>
       </c>
@@ -2016,8 +2244,14 @@
       <c r="M38">
         <v>73.317442233152548</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N38">
+        <v>3.2541511449561424</v>
+      </c>
+      <c r="O38">
+        <v>4.1741112322103078</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>2004</v>
       </c>
@@ -2057,8 +2291,14 @@
       <c r="M39">
         <v>72.151276546012525</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N39">
+        <v>3.206875031823599</v>
+      </c>
+      <c r="O39">
+        <v>4.0499463582647461</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>2005</v>
       </c>
@@ -2098,8 +2338,14 @@
       <c r="M40">
         <v>72.884378065498822</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N40">
+        <v>3.4433284827286768</v>
+      </c>
+      <c r="O40">
+        <v>4.4371584073111965</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>2006</v>
       </c>
@@ -2139,8 +2385,14 @@
       <c r="M41">
         <v>73.055264978972815</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N41">
+        <v>3.4917058330314994</v>
+      </c>
+      <c r="O41">
+        <v>4.4230505000332538</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>2007</v>
       </c>
@@ -2180,8 +2432,14 @@
       <c r="M42">
         <v>75.167992010641015</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N42">
+        <v>3.1466021094621861</v>
+      </c>
+      <c r="O42">
+        <v>4.068814120542271</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>2008</v>
       </c>
@@ -2221,8 +2479,14 @@
       <c r="M43">
         <v>74.018721248811815</v>
       </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N43">
+        <v>3.0897749827347383</v>
+      </c>
+      <c r="O43">
+        <v>3.9223541077502988</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>2009</v>
       </c>
@@ -2262,8 +2526,14 @@
       <c r="M44">
         <v>66.7610730570523</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N44">
+        <v>3.4995110157752274</v>
+      </c>
+      <c r="O44">
+        <v>4.2645878636749401</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>2010</v>
       </c>
@@ -2303,8 +2573,14 @@
       <c r="M45">
         <v>75.145954396744088</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N45">
+        <v>3.4050347535822167</v>
+      </c>
+      <c r="O45">
+        <v>4.4678124048666135</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>2011</v>
       </c>
@@ -2344,8 +2620,14 @@
       <c r="M46">
         <v>74.923300628504606</v>
       </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N46">
+        <v>3.2783070307632975</v>
+      </c>
+      <c r="O46">
+        <v>3.8985967579395178</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>2012</v>
       </c>
@@ -2385,8 +2667,14 @@
       <c r="M47">
         <v>67.973079354657656</v>
       </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N47">
+        <v>3.5115355058668078</v>
+      </c>
+      <c r="O47">
+        <v>4.5314218084095668</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>2013</v>
       </c>
@@ -2426,8 +2714,14 @@
       <c r="M48">
         <v>72.23666390602888</v>
       </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N48">
+        <v>3.4378035015876991</v>
+      </c>
+      <c r="O48">
+        <v>4.4057687336024758</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>2014</v>
       </c>
@@ -2467,8 +2761,14 @@
       <c r="M49">
         <v>72.148863236275048</v>
       </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N49">
+        <v>3.5879339237987589</v>
+      </c>
+      <c r="O49">
+        <v>4.8138906576777485</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>2015</v>
       </c>
@@ -2508,8 +2808,14 @@
       <c r="M50">
         <v>75.737908596578706</v>
       </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N50">
+        <v>3.4728639276626829</v>
+      </c>
+      <c r="O50">
+        <v>4.705233206172208</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>2016</v>
       </c>
@@ -2548,6 +2854,12 @@
       </c>
       <c r="M51">
         <v>77.467047564816539</v>
+      </c>
+      <c r="N51">
+        <v>3.2330812399050908</v>
+      </c>
+      <c r="O51">
+        <v>4.3836731183765085</v>
       </c>
     </row>
   </sheetData>

--- a/my_work/data1/all.xlsx
+++ b/my_work/data1/all.xlsx
@@ -8,13 +8,39 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TD\my_work\data1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC90E0F7-BF5F-4417-9F9A-66BB2FEF8B79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{538E278A-B4FA-49CC-87FC-57002BA342FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27210" yWindow="3015" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$U$1:$U$51</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$V$1:$V$51</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$W$1:$W$51</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$X$1:$X$51</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$U$1:$U$51</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$V$1:$V$51</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$W$1:$W$51</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$X$1:$X$51</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$O$1</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$O$2:$O$51</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">Sheet1!$P$1</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">Sheet1!$P$2:$P$51</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$W$1:$W$51</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">Sheet1!$Q$1</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">Sheet1!$Q$2:$Q$51</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">Sheet1!$R$1</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">Sheet1!$R$2:$R$51</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$X$1:$X$51</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$U$1:$U$51</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$V$1:$V$51</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$W$1:$W$51</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$X$1:$X$51</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$U$1:$U$51</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$V$1:$V$51</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -33,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Year</t>
   </si>
@@ -83,6 +109,21 @@
   </si>
   <si>
     <t>s1_ET0</t>
+  </si>
+  <si>
+    <t>s2_ET0</t>
+  </si>
+  <si>
+    <t>s3_ET0</t>
+  </si>
+  <si>
+    <t>s4_ET0</t>
+  </si>
+  <si>
+    <t>ET0_PMT_G</t>
+  </si>
+  <si>
+    <t>ET0_ET0_PMT_CF</t>
   </si>
 </sst>
 </file>
@@ -452,15 +493,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T51"/>
+  <dimension ref="A1:Y51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -506,13 +547,28 @@
       <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="P1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1967</v>
       </c>
@@ -553,13 +609,28 @@
         <v>78.536224121717012</v>
       </c>
       <c r="N2">
-        <v>3.1479099744042367</v>
+        <v>3.1515263336065873</v>
       </c>
       <c r="O2">
-        <v>5.4538239132222923</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+        <v>4.1279499572814142</v>
+      </c>
+      <c r="P2">
+        <v>3.5098912431924965</v>
+      </c>
+      <c r="Q2">
+        <v>2.6719160397360566</v>
+      </c>
+      <c r="R2">
+        <v>2.3728963230131228</v>
+      </c>
+      <c r="S2">
+        <v>2.0508228883029491</v>
+      </c>
+      <c r="T2">
+        <v>2.0732547468233942</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1968</v>
       </c>
@@ -600,13 +671,28 @@
         <v>77.655973861539863</v>
       </c>
       <c r="N3">
-        <v>3.1410626472632361</v>
+        <v>3.1501057367554504</v>
       </c>
       <c r="O3">
-        <v>5.2254821005453085</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+        <v>4.1352953935856744</v>
+      </c>
+      <c r="P3">
+        <v>3.2827542741593527</v>
+      </c>
+      <c r="Q3">
+        <v>2.8029219461683468</v>
+      </c>
+      <c r="R3">
+        <v>2.5106612744260759</v>
+      </c>
+      <c r="S3">
+        <v>2.0896491137721553</v>
+      </c>
+      <c r="T3">
+        <v>2.1112825821147476</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1969</v>
       </c>
@@ -647,13 +733,28 @@
         <v>77.213246133691442</v>
       </c>
       <c r="N4">
-        <v>3.3016946561198863</v>
+        <v>3.3068896186283134</v>
       </c>
       <c r="O4">
-        <v>5.2682418507422168</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+        <v>4.4403820334128046</v>
+      </c>
+      <c r="P4">
+        <v>3.3602476294058525</v>
+      </c>
+      <c r="Q4">
+        <v>2.8520749721187979</v>
+      </c>
+      <c r="R4">
+        <v>2.7123696366017369</v>
+      </c>
+      <c r="S4">
+        <v>2.2196841797876257</v>
+      </c>
+      <c r="T4">
+        <v>2.2493428384678555</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1970</v>
       </c>
@@ -694,13 +795,28 @@
         <v>78.724183351760814</v>
       </c>
       <c r="N5">
-        <v>3.194402691664076</v>
+        <v>3.1742145796151058</v>
       </c>
       <c r="O5">
-        <v>5.0793401347518508</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+        <v>4.2239338245052629</v>
+      </c>
+      <c r="P5">
+        <v>3.2325193068464535</v>
+      </c>
+      <c r="Q5">
+        <v>2.7407307067053233</v>
+      </c>
+      <c r="R5">
+        <v>2.6325878607018121</v>
+      </c>
+      <c r="S5">
+        <v>2.1049032819372497</v>
+      </c>
+      <c r="T5">
+        <v>2.1268427246395372</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1971</v>
       </c>
@@ -746,8 +862,23 @@
       <c r="O6">
         <v>4.2921420684256262</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="P6">
+        <v>3.1867358645927206</v>
+      </c>
+      <c r="Q6">
+        <v>2.7328996007596436</v>
+      </c>
+      <c r="R6">
+        <v>2.4360688407531237</v>
+      </c>
+      <c r="S6">
+        <v>2.0105511835126011</v>
+      </c>
+      <c r="T6">
+        <v>2.0335012812230056</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1972</v>
       </c>
@@ -793,8 +924,23 @@
       <c r="O7">
         <v>4.2986139883382473</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="P7">
+        <v>3.6585388710237012</v>
+      </c>
+      <c r="Q7">
+        <v>2.8584085893195472</v>
+      </c>
+      <c r="R7">
+        <v>2.5653226525843111</v>
+      </c>
+      <c r="S7">
+        <v>2.0746577547528169</v>
+      </c>
+      <c r="T7">
+        <v>2.1037945216070706</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1973</v>
       </c>
@@ -840,8 +986,23 @@
       <c r="O8">
         <v>4.319591474130867</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="P8">
+        <v>3.3796314374755951</v>
+      </c>
+      <c r="Q8">
+        <v>2.529625055979301</v>
+      </c>
+      <c r="R8">
+        <v>2.6523354389317304</v>
+      </c>
+      <c r="S8">
+        <v>2.0580094232512041</v>
+      </c>
+      <c r="T8">
+        <v>2.0832105585495468</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1974</v>
       </c>
@@ -887,8 +1048,23 @@
       <c r="O9">
         <v>4.0322175671603357</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="P9">
+        <v>3.0496467736921051</v>
+      </c>
+      <c r="Q9">
+        <v>2.7231360560031681</v>
+      </c>
+      <c r="R9">
+        <v>2.8158223556079904</v>
+      </c>
+      <c r="S9">
+        <v>2.0532813422091212</v>
+      </c>
+      <c r="T9">
+        <v>2.0691642036105744</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1975</v>
       </c>
@@ -929,13 +1105,28 @@
         <v>76.751174065281774</v>
       </c>
       <c r="N10">
-        <v>3.2892696841020004</v>
+        <v>3.299284748139153</v>
       </c>
       <c r="O10">
-        <v>4.2500990626345798</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+        <v>4.3991966987211413</v>
+      </c>
+      <c r="P10">
+        <v>3.4184695676879171</v>
+      </c>
+      <c r="Q10">
+        <v>2.7645774730988397</v>
+      </c>
+      <c r="R10">
+        <v>2.6774303971780089</v>
+      </c>
+      <c r="S10">
+        <v>2.1166999352034268</v>
+      </c>
+      <c r="T10">
+        <v>2.1481224810495192</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1976</v>
       </c>
@@ -976,13 +1167,28 @@
         <v>76.655247520979145</v>
       </c>
       <c r="N11">
-        <v>3.1055311265634722</v>
+        <v>3.1129423935175082</v>
       </c>
       <c r="O11">
-        <v>3.9830282048164505</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+        <v>4.1751539494012953</v>
+      </c>
+      <c r="P11">
+        <v>3.3527775149995862</v>
+      </c>
+      <c r="Q11">
+        <v>2.5942491226719726</v>
+      </c>
+      <c r="R11">
+        <v>2.5946402512808864</v>
+      </c>
+      <c r="S11">
+        <v>1.9916618837785791</v>
+      </c>
+      <c r="T11">
+        <v>2.0164702258233809</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1977</v>
       </c>
@@ -1023,13 +1229,28 @@
         <v>77.724981772841176</v>
       </c>
       <c r="N12">
-        <v>3.0874838263818516</v>
+        <v>3.1025799793752586</v>
       </c>
       <c r="O12">
-        <v>3.8779711515447417</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+        <v>4.1050384347960254</v>
+      </c>
+      <c r="P12">
+        <v>3.3643128449768369</v>
+      </c>
+      <c r="Q12">
+        <v>2.5777949121149364</v>
+      </c>
+      <c r="R12">
+        <v>2.4551449635832201</v>
+      </c>
+      <c r="S12">
+        <v>2.0490803342830226</v>
+      </c>
+      <c r="T12">
+        <v>2.0758136339032394</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1978</v>
       </c>
@@ -1075,8 +1296,23 @@
       <c r="O13">
         <v>4.0213011621606372</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="P13">
+        <v>3.3814905574649385</v>
+      </c>
+      <c r="Q13">
+        <v>2.7433539233145661</v>
+      </c>
+      <c r="R13">
+        <v>2.5700820010762961</v>
+      </c>
+      <c r="S13">
+        <v>2.0859706500497652</v>
+      </c>
+      <c r="T13">
+        <v>2.1117344000269909</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1979</v>
       </c>
@@ -1122,8 +1358,23 @@
       <c r="O14">
         <v>4.6504026649102883</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="P14">
+        <v>3.3321849827272181</v>
+      </c>
+      <c r="Q14">
+        <v>2.4998795275797505</v>
+      </c>
+      <c r="R14">
+        <v>2.8529296803001012</v>
+      </c>
+      <c r="S14">
+        <v>2.1768514978973768</v>
+      </c>
+      <c r="T14">
+        <v>2.2210059031537837</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1980</v>
       </c>
@@ -1169,8 +1420,23 @@
       <c r="O15">
         <v>4.5099202662894751</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="P15">
+        <v>3.3180893761998407</v>
+      </c>
+      <c r="Q15">
+        <v>2.6826110869440325</v>
+      </c>
+      <c r="R15">
+        <v>2.7540815127198037</v>
+      </c>
+      <c r="S15">
+        <v>2.1900139571237176</v>
+      </c>
+      <c r="T15">
+        <v>2.2254975289861161</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1981</v>
       </c>
@@ -1216,8 +1482,23 @@
       <c r="O16">
         <v>4.0404277729102152</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P16">
+        <v>3.4310883305424844</v>
+      </c>
+      <c r="Q16">
+        <v>3.0584227466247</v>
+      </c>
+      <c r="R16">
+        <v>2.6133513918027069</v>
+      </c>
+      <c r="S16">
+        <v>2.0922137743301974</v>
+      </c>
+      <c r="T16">
+        <v>2.1230948277258705</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1982</v>
       </c>
@@ -1263,8 +1544,23 @@
       <c r="O17">
         <v>4.3815625499493311</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P17">
+        <v>3.5352436089108181</v>
+      </c>
+      <c r="Q17">
+        <v>2.7992348596112251</v>
+      </c>
+      <c r="R17">
+        <v>2.4148684598550938</v>
+      </c>
+      <c r="S17">
+        <v>2.0687326672320596</v>
+      </c>
+      <c r="T17">
+        <v>2.100984667498687</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1983</v>
       </c>
@@ -1310,8 +1606,23 @@
       <c r="O18">
         <v>4.3897126320641249</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P18">
+        <v>3.7990567604017635</v>
+      </c>
+      <c r="Q18">
+        <v>2.6532025936871393</v>
+      </c>
+      <c r="R18">
+        <v>2.3443117930416193</v>
+      </c>
+      <c r="S18">
+        <v>2.1177287095533384</v>
+      </c>
+      <c r="T18">
+        <v>2.1517740421740363</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1984</v>
       </c>
@@ -1357,8 +1668,23 @@
       <c r="O19">
         <v>4.3045855877198749</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P19">
+        <v>3.400313478067214</v>
+      </c>
+      <c r="Q19">
+        <v>2.8178677135512493</v>
+      </c>
+      <c r="R19">
+        <v>2.8775133930371419</v>
+      </c>
+      <c r="S19">
+        <v>2.1253833871652303</v>
+      </c>
+      <c r="T19">
+        <v>2.1640562977895925</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1985</v>
       </c>
@@ -1404,8 +1730,23 @@
       <c r="O20">
         <v>3.9261188616092242</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P20">
+        <v>3.2680590447970501</v>
+      </c>
+      <c r="Q20">
+        <v>2.6909283101784531</v>
+      </c>
+      <c r="R20">
+        <v>2.6970547394806887</v>
+      </c>
+      <c r="S20">
+        <v>2.0568087210943053</v>
+      </c>
+      <c r="T20">
+        <v>2.0821483707852404</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1986</v>
       </c>
@@ -1451,8 +1792,23 @@
       <c r="O21">
         <v>4.212078529877421</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P21">
+        <v>3.4776520568632137</v>
+      </c>
+      <c r="Q21">
+        <v>2.5655349897146302</v>
+      </c>
+      <c r="R21">
+        <v>2.7232547971136527</v>
+      </c>
+      <c r="S21">
+        <v>2.0967683802202708</v>
+      </c>
+      <c r="T21">
+        <v>2.1347008660888656</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1987</v>
       </c>
@@ -1498,8 +1854,23 @@
       <c r="O22">
         <v>4.5733200338201643</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P22">
+        <v>3.0872037542541007</v>
+      </c>
+      <c r="Q22">
+        <v>2.6837378364311459</v>
+      </c>
+      <c r="R22">
+        <v>2.4630714721348399</v>
+      </c>
+      <c r="S22">
+        <v>2.1251826751838374</v>
+      </c>
+      <c r="T22">
+        <v>2.1668602322287702</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1988</v>
       </c>
@@ -1545,8 +1916,23 @@
       <c r="O23">
         <v>4.0581365494627404</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P23">
+        <v>3.42603124459096</v>
+      </c>
+      <c r="Q23">
+        <v>2.3929054121817006</v>
+      </c>
+      <c r="R23">
+        <v>2.7113234418970444</v>
+      </c>
+      <c r="S23">
+        <v>2.1208082535786001</v>
+      </c>
+      <c r="T23">
+        <v>2.1567027842404141</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1989</v>
       </c>
@@ -1592,8 +1978,23 @@
       <c r="O24">
         <v>4.1190551141460379</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P24">
+        <v>3.466520485069478</v>
+      </c>
+      <c r="Q24">
+        <v>2.5321241604321956</v>
+      </c>
+      <c r="R24">
+        <v>2.525872105884035</v>
+      </c>
+      <c r="S24">
+        <v>2.1024479624306034</v>
+      </c>
+      <c r="T24">
+        <v>2.1374088624904202</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1990</v>
       </c>
@@ -1639,8 +2040,23 @@
       <c r="O25">
         <v>3.6181407454013006</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P25">
+        <v>3.4035884908413259</v>
+      </c>
+      <c r="Q25">
+        <v>2.7047134325524653</v>
+      </c>
+      <c r="R25">
+        <v>2.5120097437541444</v>
+      </c>
+      <c r="S25">
+        <v>2.0681207792207821</v>
+      </c>
+      <c r="T25">
+        <v>2.0885148866556635</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1991</v>
       </c>
@@ -1686,8 +2102,23 @@
       <c r="O26">
         <v>4.4268903494545908</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P26">
+        <v>3.1612266414239301</v>
+      </c>
+      <c r="Q26">
+        <v>2.6367335902044946</v>
+      </c>
+      <c r="R26">
+        <v>2.628108123973103</v>
+      </c>
+      <c r="S26">
+        <v>2.0835942458428134</v>
+      </c>
+      <c r="T26">
+        <v>2.1121277132715348</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1992</v>
       </c>
@@ -1733,8 +2164,23 @@
       <c r="O27">
         <v>4.4606099799019088</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P27">
+        <v>3.8083237531254541</v>
+      </c>
+      <c r="Q27">
+        <v>2.7023874348131605</v>
+      </c>
+      <c r="R27">
+        <v>2.1990305449082244</v>
+      </c>
+      <c r="S27">
+        <v>2.1181189973986712</v>
+      </c>
+      <c r="T27">
+        <v>2.1525247106477394</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1993</v>
       </c>
@@ -1780,8 +2226,23 @@
       <c r="O28">
         <v>4.3821400916304745</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P28">
+        <v>3.6483946722345415</v>
+      </c>
+      <c r="Q28">
+        <v>2.6980267166429166</v>
+      </c>
+      <c r="R28">
+        <v>2.3719359050963491</v>
+      </c>
+      <c r="S28">
+        <v>2.0868278786058312</v>
+      </c>
+      <c r="T28">
+        <v>2.1156555498093716</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1994</v>
       </c>
@@ -1827,8 +2288,23 @@
       <c r="O29">
         <v>4.3361153534367967</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P29">
+        <v>3.5698155340552504</v>
+      </c>
+      <c r="Q29">
+        <v>2.8299131458468918</v>
+      </c>
+      <c r="R29">
+        <v>2.7584602133897094</v>
+      </c>
+      <c r="S29">
+        <v>2.1266774713839967</v>
+      </c>
+      <c r="T29">
+        <v>2.1651339894740222</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1995</v>
       </c>
@@ -1874,8 +2350,23 @@
       <c r="O30">
         <v>4.3267684620781548</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P30">
+        <v>3.340615673367636</v>
+      </c>
+      <c r="Q30">
+        <v>2.6514032176817786</v>
+      </c>
+      <c r="R30">
+        <v>2.3672197363984866</v>
+      </c>
+      <c r="S30">
+        <v>2.0809063077787076</v>
+      </c>
+      <c r="T30">
+        <v>2.1178737296276093</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1996</v>
       </c>
@@ -1921,8 +2412,23 @@
       <c r="O31">
         <v>4.1266365269141962</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P31">
+        <v>3.3362101743762453</v>
+      </c>
+      <c r="Q31">
+        <v>2.7654904818954322</v>
+      </c>
+      <c r="R31">
+        <v>2.4734904366746853</v>
+      </c>
+      <c r="S31">
+        <v>2.0632647922508598</v>
+      </c>
+      <c r="T31">
+        <v>2.1023941750326705</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1997</v>
       </c>
@@ -1968,8 +2474,23 @@
       <c r="O32">
         <v>4.1001382021258976</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P32">
+        <v>3.3918896439657331</v>
+      </c>
+      <c r="Q32">
+        <v>2.7507641634458948</v>
+      </c>
+      <c r="R32">
+        <v>2.3105799966613265</v>
+      </c>
+      <c r="S32">
+        <v>2.0771841665036317</v>
+      </c>
+      <c r="T32">
+        <v>2.1195571239622764</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1998</v>
       </c>
@@ -2015,8 +2536,23 @@
       <c r="O33">
         <v>4.0753703856662282</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P33">
+        <v>3.0625424835542412</v>
+      </c>
+      <c r="Q33">
+        <v>2.8849809278374372</v>
+      </c>
+      <c r="R33">
+        <v>2.5680479266163858</v>
+      </c>
+      <c r="S33">
+        <v>2.1344136257914545</v>
+      </c>
+      <c r="T33">
+        <v>2.1752752556115471</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1999</v>
       </c>
@@ -2062,8 +2598,23 @@
       <c r="O34">
         <v>4.0476862262022646</v>
       </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P34">
+        <v>3.3780522358091076</v>
+      </c>
+      <c r="Q34">
+        <v>2.7530593971847122</v>
+      </c>
+      <c r="R34">
+        <v>2.5107268520239385</v>
+      </c>
+      <c r="S34">
+        <v>2.0901010453758229</v>
+      </c>
+      <c r="T34">
+        <v>2.1364300646013392</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>2000</v>
       </c>
@@ -2109,8 +2660,23 @@
       <c r="O35">
         <v>3.6355471190127604</v>
       </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P35">
+        <v>3.3905598494234064</v>
+      </c>
+      <c r="Q35">
+        <v>2.7745537667061568</v>
+      </c>
+      <c r="R35">
+        <v>2.4764991467199029</v>
+      </c>
+      <c r="S35">
+        <v>2.0271220164660475</v>
+      </c>
+      <c r="T35">
+        <v>2.0588428400582068</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>2001</v>
       </c>
@@ -2156,8 +2722,23 @@
       <c r="O36">
         <v>3.8987831764017953</v>
       </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P36">
+        <v>3.5535112113595657</v>
+      </c>
+      <c r="Q36">
+        <v>2.5340233638765906</v>
+      </c>
+      <c r="R36">
+        <v>2.5369804882743452</v>
+      </c>
+      <c r="S36">
+        <v>2.0481882457968084</v>
+      </c>
+      <c r="T36">
+        <v>2.0874268481154448</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>2002</v>
       </c>
@@ -2203,8 +2784,23 @@
       <c r="O37">
         <v>3.9297722817728213</v>
       </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P37">
+        <v>3.4477808101731329</v>
+      </c>
+      <c r="Q37">
+        <v>2.8462016255763958</v>
+      </c>
+      <c r="R37">
+        <v>2.4847556743068364</v>
+      </c>
+      <c r="S37">
+        <v>2.0848253294876899</v>
+      </c>
+      <c r="T37">
+        <v>2.1273586980739214</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>2003</v>
       </c>
@@ -2250,8 +2846,23 @@
       <c r="O38">
         <v>4.1741112322103078</v>
       </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P38">
+        <v>3.5694081293185982</v>
+      </c>
+      <c r="Q38">
+        <v>2.9012156981667281</v>
+      </c>
+      <c r="R38">
+        <v>2.4875380148458479</v>
+      </c>
+      <c r="S38">
+        <v>2.1051256945058392</v>
+      </c>
+      <c r="T38">
+        <v>2.1517242759556554</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>2004</v>
       </c>
@@ -2297,8 +2908,23 @@
       <c r="O39">
         <v>4.0499463582647461</v>
       </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P39">
+        <v>3.5781334169591927</v>
+      </c>
+      <c r="Q39">
+        <v>2.7702358783251286</v>
+      </c>
+      <c r="R39">
+        <v>2.5557408408631623</v>
+      </c>
+      <c r="S39">
+        <v>2.1043564306342719</v>
+      </c>
+      <c r="T39">
+        <v>2.1498568520592731</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>2005</v>
       </c>
@@ -2344,8 +2970,23 @@
       <c r="O40">
         <v>4.4371584073111965</v>
       </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P40">
+        <v>3.7226749506249144</v>
+      </c>
+      <c r="Q40">
+        <v>2.9665355140520782</v>
+      </c>
+      <c r="R40">
+        <v>2.7549783549031361</v>
+      </c>
+      <c r="S40">
+        <v>2.1979843757446855</v>
+      </c>
+      <c r="T40">
+        <v>2.2633623130462959</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>2006</v>
       </c>
@@ -2391,8 +3032,23 @@
       <c r="O41">
         <v>4.4230505000332538</v>
       </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P41">
+        <v>3.9736350719657012</v>
+      </c>
+      <c r="Q41">
+        <v>2.924752601121785</v>
+      </c>
+      <c r="R41">
+        <v>2.7880451741530918</v>
+      </c>
+      <c r="S41">
+        <v>2.2002247676267759</v>
+      </c>
+      <c r="T41">
+        <v>2.2516576910571335</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>2007</v>
       </c>
@@ -2438,8 +3094,23 @@
       <c r="O42">
         <v>4.068814120542271</v>
       </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P42">
+        <v>3.5773943190921571</v>
+      </c>
+      <c r="Q42">
+        <v>2.558773642529832</v>
+      </c>
+      <c r="R42">
+        <v>2.5165141017365871</v>
+      </c>
+      <c r="S42">
+        <v>2.1094302517223698</v>
+      </c>
+      <c r="T42">
+        <v>2.1460276412078505</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>2008</v>
       </c>
@@ -2485,8 +3156,23 @@
       <c r="O43">
         <v>3.9223541077502988</v>
       </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P43">
+        <v>3.2792193248649895</v>
+      </c>
+      <c r="Q43">
+        <v>2.881636425661191</v>
+      </c>
+      <c r="R43">
+        <v>2.4302503618499762</v>
+      </c>
+      <c r="S43">
+        <v>2.0687492578242428</v>
+      </c>
+      <c r="T43">
+        <v>2.10995694587066</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>2009</v>
       </c>
@@ -2532,8 +3218,23 @@
       <c r="O44">
         <v>4.2645878636749401</v>
       </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P44">
+        <v>3.7172766534171613</v>
+      </c>
+      <c r="Q44">
+        <v>3.3210167600160658</v>
+      </c>
+      <c r="R44">
+        <v>2.8166709018623819</v>
+      </c>
+      <c r="S44">
+        <v>2.2459895587144332</v>
+      </c>
+      <c r="T44">
+        <v>2.3112181487037584</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>2010</v>
       </c>
@@ -2579,8 +3280,23 @@
       <c r="O45">
         <v>4.4678124048666135</v>
       </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P45">
+        <v>3.6338547043737544</v>
+      </c>
+      <c r="Q45">
+        <v>2.6901436783168458</v>
+      </c>
+      <c r="R45">
+        <v>2.988036047269945</v>
+      </c>
+      <c r="S45">
+        <v>2.261243225107811</v>
+      </c>
+      <c r="T45">
+        <v>2.3236719067659251</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>2011</v>
       </c>
@@ -2626,8 +3342,23 @@
       <c r="O46">
         <v>3.8985967579395178</v>
       </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P46">
+        <v>3.8644967206844263</v>
+      </c>
+      <c r="Q46">
+        <v>2.830066587530736</v>
+      </c>
+      <c r="R46">
+        <v>2.6480761515487949</v>
+      </c>
+      <c r="S46">
+        <v>2.0866008930804982</v>
+      </c>
+      <c r="T46">
+        <v>2.1333860685692581</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>2012</v>
       </c>
@@ -2673,8 +3404,23 @@
       <c r="O47">
         <v>4.5314218084095668</v>
       </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P47">
+        <v>3.6133838138257333</v>
+      </c>
+      <c r="Q47">
+        <v>3.0351506715968011</v>
+      </c>
+      <c r="R47">
+        <v>3.0010057663800569</v>
+      </c>
+      <c r="S47">
+        <v>2.2456959589562215</v>
+      </c>
+      <c r="T47">
+        <v>2.3114098448190843</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>2013</v>
       </c>
@@ -2720,8 +3466,23 @@
       <c r="O48">
         <v>4.4057687336024758</v>
       </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P48">
+        <v>3.8184518428349259</v>
+      </c>
+      <c r="Q48">
+        <v>2.8472776686013876</v>
+      </c>
+      <c r="R48">
+        <v>2.8247384085174572</v>
+      </c>
+      <c r="S48">
+        <v>2.2035492835883517</v>
+      </c>
+      <c r="T48">
+        <v>2.2671884355604188</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>2014</v>
       </c>
@@ -2767,8 +3528,23 @@
       <c r="O49">
         <v>4.8138906576777485</v>
       </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P49">
+        <v>3.7023627198545954</v>
+      </c>
+      <c r="Q49">
+        <v>3.1169189863254512</v>
+      </c>
+      <c r="R49">
+        <v>2.844286793357822</v>
+      </c>
+      <c r="S49">
+        <v>2.2444028019506579</v>
+      </c>
+      <c r="T49">
+        <v>2.3075025429023923</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>2015</v>
       </c>
@@ -2814,8 +3590,23 @@
       <c r="O50">
         <v>4.705233206172208</v>
       </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P50">
+        <v>3.7695481722976063</v>
+      </c>
+      <c r="Q50">
+        <v>2.9545676609919385</v>
+      </c>
+      <c r="R50">
+        <v>2.5828614265669705</v>
+      </c>
+      <c r="S50">
+        <v>2.2012982741109122</v>
+      </c>
+      <c r="T50">
+        <v>2.2546322854825265</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>2016</v>
       </c>
@@ -2860,6 +3651,21 @@
       </c>
       <c r="O51">
         <v>4.3836731183765085</v>
+      </c>
+      <c r="P51">
+        <v>3.7719528972360892</v>
+      </c>
+      <c r="Q51">
+        <v>2.9026396401262291</v>
+      </c>
+      <c r="R51">
+        <v>2.3999856928461698</v>
+      </c>
+      <c r="S51">
+        <v>2.1641438518842775</v>
+      </c>
+      <c r="T51">
+        <v>2.1916208293278219</v>
       </c>
     </row>
   </sheetData>

--- a/my_work/data1/all.xlsx
+++ b/my_work/data1/all.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TD\my_work\data1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{538E278A-B4FA-49CC-87FC-57002BA342FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AFC6582-AB25-44AD-A0B4-7A3EAF1D8F09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,28 +18,20 @@
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$U$1:$U$51</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$V$1:$V$51</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$W$1:$W$51</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$X$1:$X$51</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$U$1:$U$51</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$V$1:$V$51</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$W$1:$W$51</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$X$1:$X$51</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$O$1</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$O$2:$O$51</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Sheet1!$P$1</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Sheet1!$P$2:$P$51</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$P$1</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$P$2:$P$51</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$Q$1</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$Q$2:$Q$51</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$R$1</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$R$2:$R$51</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$W$1:$W$51</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Sheet1!$Q$1</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">Sheet1!$Q$2:$Q$51</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">Sheet1!$R$1</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">Sheet1!$R$2:$R$51</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$X$1:$X$51</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$U$1:$U$51</definedName>
     <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$V$1:$V$51</definedName>
     <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$W$1:$W$51</definedName>
     <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$X$1:$X$51</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$U$1:$U$51</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$V$1:$V$51</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$O$1</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$O$2:$O$51</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -496,7 +488,7 @@
   <dimension ref="A1:Y51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+      <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/my_work/data1/all.xlsx
+++ b/my_work/data1/all.xlsx
@@ -8,31 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TD\my_work\data1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AFC6582-AB25-44AD-A0B4-7A3EAF1D8F09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79964B06-9292-4D95-B43E-FDE5E58F0C7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$U$1:$U$51</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$V$1:$V$51</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$P$1</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$P$2:$P$51</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$Q$1</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$Q$2:$Q$51</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$R$1</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$R$2:$R$51</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$W$1:$W$51</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$X$1:$X$51</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$U$1:$U$51</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$V$1:$V$51</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$W$1:$W$51</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$X$1:$X$51</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$O$1</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$O$2:$O$51</definedName>
-  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -51,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Year</t>
   </si>
@@ -116,6 +98,10 @@
   </si>
   <si>
     <t>ET0_ET0_PMT_CF</t>
+  </si>
+  <si>
+    <t>annual_ET0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -485,15 +471,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y51"/>
+  <dimension ref="A1:Z51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P24" sqref="P24"/>
+      <selection activeCell="V8" sqref="V8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -537,30 +523,33 @@
         <v>13</v>
       </c>
       <c r="O1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="2"/>
       <c r="V1" s="2"/>
       <c r="W1" s="2"/>
       <c r="X1" s="2"/>
       <c r="Y1" s="2"/>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z1" s="2"/>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1967</v>
       </c>
@@ -604,25 +593,28 @@
         <v>3.1515263336065873</v>
       </c>
       <c r="O2">
+        <v>-8.1453666393412671E-2</v>
+      </c>
+      <c r="P2">
         <v>4.1279499572814142</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>3.5098912431924965</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>2.6719160397360566</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>2.3728963230131228</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>2.0508228883029491</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>2.0732547468233942</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1968</v>
       </c>
@@ -666,25 +658,28 @@
         <v>3.1501057367554504</v>
       </c>
       <c r="O3">
+        <v>-8.2874263244549606E-2</v>
+      </c>
+      <c r="P3">
         <v>4.1352953935856744</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>3.2827542741593527</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>2.8029219461683468</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>2.5106612744260759</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>2.0896491137721553</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>2.1112825821147476</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1969</v>
       </c>
@@ -728,25 +723,28 @@
         <v>3.3068896186283134</v>
       </c>
       <c r="O4">
+        <v>7.3909618628313467E-2</v>
+      </c>
+      <c r="P4">
         <v>4.4403820334128046</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>3.3602476294058525</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>2.8520749721187979</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>2.7123696366017369</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>2.2196841797876257</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>2.2493428384678555</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1970</v>
       </c>
@@ -790,25 +788,28 @@
         <v>3.1742145796151058</v>
       </c>
       <c r="O5">
+        <v>-5.8765420384894185E-2</v>
+      </c>
+      <c r="P5">
         <v>4.2239338245052629</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>3.2325193068464535</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>2.7407307067053233</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>2.6325878607018121</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>2.1049032819372497</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>2.1268427246395372</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1971</v>
       </c>
@@ -852,25 +853,28 @@
         <v>3.1168101446490653</v>
       </c>
       <c r="O6">
+        <v>-0.11616985535093471</v>
+      </c>
+      <c r="P6">
         <v>4.2921420684256262</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>3.1867358645927206</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>2.7328996007596436</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>2.4360688407531237</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>2.0105511835126011</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>2.0335012812230056</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1972</v>
       </c>
@@ -914,25 +918,28 @@
         <v>3.3141250265027851</v>
       </c>
       <c r="O7">
+        <v>8.11450265027851E-2</v>
+      </c>
+      <c r="P7">
         <v>4.2986139883382473</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>3.6585388710237012</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>2.8584085893195472</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>2.5653226525843111</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>2.0746577547528169</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>2.1037945216070706</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1973</v>
       </c>
@@ -976,25 +983,28 @@
         <v>3.1894851357227587</v>
       </c>
       <c r="O8">
+        <v>-4.3494864277241252E-2</v>
+      </c>
+      <c r="P8">
         <v>4.319591474130867</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>3.3796314374755951</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>2.529625055979301</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>2.6523354389317304</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>2.0580094232512041</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>2.0832105585495468</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1974</v>
       </c>
@@ -1038,25 +1048,28 @@
         <v>3.1288526220965336</v>
       </c>
       <c r="O9">
+        <v>-0.10412737790346638</v>
+      </c>
+      <c r="P9">
         <v>4.0322175671603357</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>3.0496467736921051</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>2.7231360560031681</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>2.8158223556079904</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>2.0532813422091212</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>2.0691642036105744</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1975</v>
       </c>
@@ -1100,25 +1113,28 @@
         <v>3.299284748139153</v>
       </c>
       <c r="O10">
+        <v>6.6304748139152991E-2</v>
+      </c>
+      <c r="P10">
         <v>4.3991966987211413</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>3.4184695676879171</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>2.7645774730988397</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>2.6774303971780089</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>2.1166999352034268</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>2.1481224810495192</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1976</v>
       </c>
@@ -1162,25 +1178,28 @@
         <v>3.1129423935175082</v>
       </c>
       <c r="O11">
+        <v>-0.12003760648249173</v>
+      </c>
+      <c r="P11">
         <v>4.1751539494012953</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>3.3527775149995862</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>2.5942491226719726</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>2.5946402512808864</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>1.9916618837785791</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>2.0164702258233809</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1977</v>
       </c>
@@ -1224,25 +1243,28 @@
         <v>3.1025799793752586</v>
       </c>
       <c r="O12">
+        <v>-0.13040002062474132</v>
+      </c>
+      <c r="P12">
         <v>4.1050384347960254</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>3.3643128449768369</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>2.5777949121149364</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>2.4551449635832201</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>2.0490803342830226</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>2.0758136339032394</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1978</v>
       </c>
@@ -1286,25 +1308,28 @@
         <v>3.1451745613441697</v>
       </c>
       <c r="O13">
+        <v>-8.7805438655830237E-2</v>
+      </c>
+      <c r="P13">
         <v>4.0213011621606372</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>3.3814905574649385</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>2.7433539233145661</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>2.5700820010762961</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>2.0859706500497652</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>2.1117344000269909</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1979</v>
       </c>
@@ -1348,25 +1373,28 @@
         <v>3.3039302580147933</v>
       </c>
       <c r="O14">
+        <v>7.0950258014793377E-2</v>
+      </c>
+      <c r="P14">
         <v>4.6504026649102883</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>3.3321849827272181</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>2.4998795275797505</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>2.8529296803001012</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>2.1768514978973768</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>2.2210059031537837</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1980</v>
       </c>
@@ -1410,25 +1438,28 @@
         <v>3.2831562692961191</v>
       </c>
       <c r="O15">
+        <v>5.017626929611918E-2</v>
+      </c>
+      <c r="P15">
         <v>4.5099202662894751</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>3.3180893761998407</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>2.6826110869440325</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>2.7540815127198037</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>2.1900139571237176</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>2.2254975289861161</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1981</v>
       </c>
@@ -1472,25 +1503,28 @@
         <v>3.2541561030271131</v>
       </c>
       <c r="O16">
+        <v>2.1176103027113147E-2</v>
+      </c>
+      <c r="P16">
         <v>4.0404277729102152</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>3.4310883305424844</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>3.0584227466247</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>2.6133513918027069</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>2.0922137743301974</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>2.1230948277258705</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1982</v>
       </c>
@@ -1534,25 +1568,28 @@
         <v>3.2524018370334886</v>
       </c>
       <c r="O17">
+        <v>1.9421837033488654E-2</v>
+      </c>
+      <c r="P17">
         <v>4.3815625499493311</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>3.5352436089108181</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>2.7992348596112251</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>2.4148684598550938</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>2.0687326672320596</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>2.100984667498687</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1983</v>
       </c>
@@ -1596,25 +1633,28 @@
         <v>3.2710455451778273</v>
       </c>
       <c r="O18">
+        <v>3.8065545177827342E-2</v>
+      </c>
+      <c r="P18">
         <v>4.3897126320641249</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>3.7990567604017635</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>2.6532025936871393</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>2.3443117930416193</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>2.1177287095533384</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>2.1517740421740363</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1984</v>
       </c>
@@ -1658,25 +1698,28 @@
         <v>3.3167871884501663</v>
       </c>
       <c r="O19">
+        <v>8.3807188450166326E-2</v>
+      </c>
+      <c r="P19">
         <v>4.3045855877198749</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>3.400313478067214</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>2.8178677135512493</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>2.8775133930371419</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>2.1253833871652303</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>2.1640562977895925</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1985</v>
       </c>
@@ -1720,25 +1763,28 @@
         <v>3.1125301095794606</v>
       </c>
       <c r="O20">
+        <v>-0.12044989042053933</v>
+      </c>
+      <c r="P20">
         <v>3.9261188616092242</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>3.2680590447970501</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>2.6909283101784531</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>2.6970547394806887</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>2.0568087210943053</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>2.0821483707852404</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1986</v>
       </c>
@@ -1782,25 +1828,28 @@
         <v>3.2153121060134966</v>
       </c>
       <c r="O21">
+        <v>-1.7667893986503369E-2</v>
+      </c>
+      <c r="P21">
         <v>4.212078529877421</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>3.4776520568632137</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>2.5655349897146302</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>2.7232547971136527</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>2.0967683802202708</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>2.1347008660888656</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1987</v>
       </c>
@@ -1844,25 +1893,28 @@
         <v>3.1722042592572817</v>
       </c>
       <c r="O22">
+        <v>-6.0775740742718298E-2</v>
+      </c>
+      <c r="P22">
         <v>4.5733200338201643</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>3.0872037542541007</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>2.6837378364311459</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>2.4630714721348399</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>2.1251826751838374</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>2.1668602322287702</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1988</v>
       </c>
@@ -1906,25 +1958,28 @@
         <v>3.1141582060263842</v>
       </c>
       <c r="O23">
+        <v>-0.11882179397361581</v>
+      </c>
+      <c r="P23">
         <v>4.0581365494627404</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>3.42603124459096</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>2.3929054121817006</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>2.7113234418970444</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>2.1208082535786001</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>2.1567027842404141</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1989</v>
       </c>
@@ -1968,25 +2023,28 @@
         <v>3.1341178493683448</v>
       </c>
       <c r="O24">
+        <v>-9.8862150631655155E-2</v>
+      </c>
+      <c r="P24">
         <v>4.1190551141460379</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>3.466520485069478</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>2.5321241604321956</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>2.525872105884035</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>2.1024479624306034</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>2.1374088624904202</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1990</v>
       </c>
@@ -2030,25 +2088,28 @@
         <v>3.0254265281338837</v>
       </c>
       <c r="O25">
+        <v>-0.20755347186611628</v>
+      </c>
+      <c r="P25">
         <v>3.6181407454013006</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>3.4035884908413259</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>2.7047134325524653</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>2.5120097437541444</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>2.0681207792207821</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>2.0885148866556635</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1991</v>
       </c>
@@ -2092,25 +2153,28 @@
         <v>3.1861359372115023</v>
       </c>
       <c r="O26">
+        <v>-4.684406278849762E-2</v>
+      </c>
+      <c r="P26">
         <v>4.4268903494545908</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>3.1612266414239301</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>2.6367335902044946</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>2.628108123973103</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>2.0835942458428134</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>2.1121277132715348</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1992</v>
       </c>
@@ -2154,25 +2218,28 @@
         <v>3.2636033062409893</v>
       </c>
       <c r="O27">
+        <v>3.0623306240989301E-2</v>
+      </c>
+      <c r="P27">
         <v>4.4606099799019088</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>3.8083237531254541</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>2.7023874348131605</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>2.1990305449082244</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>2.1181189973986712</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>2.1525247106477394</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1993</v>
       </c>
@@ -2216,25 +2283,28 @@
         <v>3.240900421933957</v>
       </c>
       <c r="O28">
+        <v>7.9204219339570336E-3</v>
+      </c>
+      <c r="P28">
         <v>4.3821400916304745</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>3.6483946722345415</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>2.6980267166429166</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>2.3719359050963491</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>2.0868278786058312</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>2.1156555498093716</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1994</v>
       </c>
@@ -2278,25 +2348,28 @@
         <v>3.3343453043526154</v>
       </c>
       <c r="O29">
+        <v>0.10136530435261548</v>
+      </c>
+      <c r="P29">
         <v>4.3361153534367967</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>3.5698155340552504</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>2.8299131458468918</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>2.7584602133897094</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>2.1266774713839967</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>2.1651339894740222</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1995</v>
       </c>
@@ -2340,25 +2413,28 @@
         <v>3.1312935808298787</v>
       </c>
       <c r="O30">
+        <v>-0.10168641917012122</v>
+      </c>
+      <c r="P30">
         <v>4.3267684620781548</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>3.340615673367636</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>2.6514032176817786</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>2.3672197363984866</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>2.0809063077787076</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>2.1178737296276093</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1996</v>
       </c>
@@ -2402,25 +2478,28 @@
         <v>3.138712649579781</v>
       </c>
       <c r="O31">
+        <v>-9.4267350420218943E-2</v>
+      </c>
+      <c r="P31">
         <v>4.1266365269141962</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>3.3362101743762453</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>2.7654904818954322</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <v>2.4734904366746853</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>2.0632647922508598</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>2.1023941750326705</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1997</v>
       </c>
@@ -2464,25 +2543,28 @@
         <v>3.1037070744304041</v>
       </c>
       <c r="O32">
+        <v>-0.12927292556959591</v>
+      </c>
+      <c r="P32">
         <v>4.1001382021258976</v>
       </c>
-      <c r="P32">
+      <c r="Q32">
         <v>3.3918896439657331</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <v>2.7507641634458948</v>
       </c>
-      <c r="R32">
+      <c r="S32">
         <v>2.3105799966613265</v>
       </c>
-      <c r="S32">
+      <c r="T32">
         <v>2.0771841665036317</v>
       </c>
-      <c r="T32">
+      <c r="U32">
         <v>2.1195571239622764</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1998</v>
       </c>
@@ -2526,25 +2608,28 @@
         <v>3.1146387658631047</v>
       </c>
       <c r="O33">
+        <v>-0.11834123413689523</v>
+      </c>
+      <c r="P33">
         <v>4.0753703856662282</v>
       </c>
-      <c r="P33">
+      <c r="Q33">
         <v>3.0625424835542412</v>
       </c>
-      <c r="Q33">
+      <c r="R33">
         <v>2.8849809278374372</v>
       </c>
-      <c r="R33">
+      <c r="S33">
         <v>2.5680479266163858</v>
       </c>
-      <c r="S33">
+      <c r="T33">
         <v>2.1344136257914545</v>
       </c>
-      <c r="T33">
+      <c r="U33">
         <v>2.1752752556115471</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1999</v>
       </c>
@@ -2588,25 +2673,28 @@
         <v>3.1431968641467294</v>
       </c>
       <c r="O34">
+        <v>-8.9783135853270579E-2</v>
+      </c>
+      <c r="P34">
         <v>4.0476862262022646</v>
       </c>
-      <c r="P34">
+      <c r="Q34">
         <v>3.3780522358091076</v>
       </c>
-      <c r="Q34">
+      <c r="R34">
         <v>2.7530593971847122</v>
       </c>
-      <c r="R34">
+      <c r="S34">
         <v>2.5107268520239385</v>
       </c>
-      <c r="S34">
+      <c r="T34">
         <v>2.0901010453758229</v>
       </c>
-      <c r="T34">
+      <c r="U34">
         <v>2.1364300646013392</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>2000</v>
       </c>
@@ -2650,25 +2738,28 @@
         <v>3.0373664192730345</v>
       </c>
       <c r="O35">
+        <v>-0.19561358072696544</v>
+      </c>
+      <c r="P35">
         <v>3.6355471190127604</v>
       </c>
-      <c r="P35">
+      <c r="Q35">
         <v>3.3905598494234064</v>
       </c>
-      <c r="Q35">
+      <c r="R35">
         <v>2.7745537667061568</v>
       </c>
-      <c r="R35">
+      <c r="S35">
         <v>2.4764991467199029</v>
       </c>
-      <c r="S35">
+      <c r="T35">
         <v>2.0271220164660475</v>
       </c>
-      <c r="T35">
+      <c r="U35">
         <v>2.0588428400582068</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>2001</v>
       </c>
@@ -2712,25 +2803,28 @@
         <v>3.1020370797124883</v>
       </c>
       <c r="O36">
+        <v>-0.13094292028751164</v>
+      </c>
+      <c r="P36">
         <v>3.8987831764017953</v>
       </c>
-      <c r="P36">
+      <c r="Q36">
         <v>3.5535112113595657</v>
       </c>
-      <c r="Q36">
+      <c r="R36">
         <v>2.5340233638765906</v>
       </c>
-      <c r="R36">
+      <c r="S36">
         <v>2.5369804882743452</v>
       </c>
-      <c r="S36">
+      <c r="T36">
         <v>2.0481882457968084</v>
       </c>
-      <c r="T36">
+      <c r="U36">
         <v>2.0874268481154448</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>2002</v>
       </c>
@@ -2774,25 +2868,28 @@
         <v>3.147517223003014</v>
       </c>
       <c r="O37">
+        <v>-8.5462776996986012E-2</v>
+      </c>
+      <c r="P37">
         <v>3.9297722817728213</v>
       </c>
-      <c r="P37">
+      <c r="Q37">
         <v>3.4477808101731329</v>
       </c>
-      <c r="Q37">
+      <c r="R37">
         <v>2.8462016255763958</v>
       </c>
-      <c r="R37">
+      <c r="S37">
         <v>2.4847556743068364</v>
       </c>
-      <c r="S37">
+      <c r="T37">
         <v>2.0848253294876899</v>
       </c>
-      <c r="T37">
+      <c r="U37">
         <v>2.1273586980739214</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>2003</v>
       </c>
@@ -2836,25 +2933,28 @@
         <v>3.2541511449561424</v>
       </c>
       <c r="O38">
+        <v>2.1171144956142474E-2</v>
+      </c>
+      <c r="P38">
         <v>4.1741112322103078</v>
       </c>
-      <c r="P38">
+      <c r="Q38">
         <v>3.5694081293185982</v>
       </c>
-      <c r="Q38">
+      <c r="R38">
         <v>2.9012156981667281</v>
       </c>
-      <c r="R38">
+      <c r="S38">
         <v>2.4875380148458479</v>
       </c>
-      <c r="S38">
+      <c r="T38">
         <v>2.1051256945058392</v>
       </c>
-      <c r="T38">
+      <c r="U38">
         <v>2.1517242759556554</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>2004</v>
       </c>
@@ -2898,25 +2998,28 @@
         <v>3.206875031823599</v>
       </c>
       <c r="O39">
+        <v>-2.6104968176400956E-2</v>
+      </c>
+      <c r="P39">
         <v>4.0499463582647461</v>
       </c>
-      <c r="P39">
+      <c r="Q39">
         <v>3.5781334169591927</v>
       </c>
-      <c r="Q39">
+      <c r="R39">
         <v>2.7702358783251286</v>
       </c>
-      <c r="R39">
+      <c r="S39">
         <v>2.5557408408631623</v>
       </c>
-      <c r="S39">
+      <c r="T39">
         <v>2.1043564306342719</v>
       </c>
-      <c r="T39">
+      <c r="U39">
         <v>2.1498568520592731</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>2005</v>
       </c>
@@ -2960,25 +3063,28 @@
         <v>3.4433284827286768</v>
       </c>
       <c r="O40">
+        <v>0.21034848272867679</v>
+      </c>
+      <c r="P40">
         <v>4.4371584073111965</v>
       </c>
-      <c r="P40">
+      <c r="Q40">
         <v>3.7226749506249144</v>
       </c>
-      <c r="Q40">
+      <c r="R40">
         <v>2.9665355140520782</v>
       </c>
-      <c r="R40">
+      <c r="S40">
         <v>2.7549783549031361</v>
       </c>
-      <c r="S40">
+      <c r="T40">
         <v>2.1979843757446855</v>
       </c>
-      <c r="T40">
+      <c r="U40">
         <v>2.2633623130462959</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>2006</v>
       </c>
@@ -3022,25 +3128,28 @@
         <v>3.4917058330314994</v>
       </c>
       <c r="O41">
+        <v>0.25872583303149943</v>
+      </c>
+      <c r="P41">
         <v>4.4230505000332538</v>
       </c>
-      <c r="P41">
+      <c r="Q41">
         <v>3.9736350719657012</v>
       </c>
-      <c r="Q41">
+      <c r="R41">
         <v>2.924752601121785</v>
       </c>
-      <c r="R41">
+      <c r="S41">
         <v>2.7880451741530918</v>
       </c>
-      <c r="S41">
+      <c r="T41">
         <v>2.2002247676267759</v>
       </c>
-      <c r="T41">
+      <c r="U41">
         <v>2.2516576910571335</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>2007</v>
       </c>
@@ -3084,25 +3193,28 @@
         <v>3.1466021094621861</v>
       </c>
       <c r="O42">
+        <v>-8.6377890537813862E-2</v>
+      </c>
+      <c r="P42">
         <v>4.068814120542271</v>
       </c>
-      <c r="P42">
+      <c r="Q42">
         <v>3.5773943190921571</v>
       </c>
-      <c r="Q42">
+      <c r="R42">
         <v>2.558773642529832</v>
       </c>
-      <c r="R42">
+      <c r="S42">
         <v>2.5165141017365871</v>
       </c>
-      <c r="S42">
+      <c r="T42">
         <v>2.1094302517223698</v>
       </c>
-      <c r="T42">
+      <c r="U42">
         <v>2.1460276412078505</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>2008</v>
       </c>
@@ -3146,25 +3258,28 @@
         <v>3.0897749827347383</v>
       </c>
       <c r="O43">
+        <v>-0.14320501726526169</v>
+      </c>
+      <c r="P43">
         <v>3.9223541077502988</v>
       </c>
-      <c r="P43">
+      <c r="Q43">
         <v>3.2792193248649895</v>
       </c>
-      <c r="Q43">
+      <c r="R43">
         <v>2.881636425661191</v>
       </c>
-      <c r="R43">
+      <c r="S43">
         <v>2.4302503618499762</v>
       </c>
-      <c r="S43">
+      <c r="T43">
         <v>2.0687492578242428</v>
       </c>
-      <c r="T43">
+      <c r="U43">
         <v>2.10995694587066</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>2009</v>
       </c>
@@ -3208,25 +3323,28 @@
         <v>3.4995110157752274</v>
       </c>
       <c r="O44">
+        <v>0.26653101577522742</v>
+      </c>
+      <c r="P44">
         <v>4.2645878636749401</v>
       </c>
-      <c r="P44">
+      <c r="Q44">
         <v>3.7172766534171613</v>
       </c>
-      <c r="Q44">
+      <c r="R44">
         <v>3.3210167600160658</v>
       </c>
-      <c r="R44">
+      <c r="S44">
         <v>2.8166709018623819</v>
       </c>
-      <c r="S44">
+      <c r="T44">
         <v>2.2459895587144332</v>
       </c>
-      <c r="T44">
+      <c r="U44">
         <v>2.3112181487037584</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>2010</v>
       </c>
@@ -3270,25 +3388,28 @@
         <v>3.4050347535822167</v>
       </c>
       <c r="O45">
+        <v>0.17205475358221678</v>
+      </c>
+      <c r="P45">
         <v>4.4678124048666135</v>
       </c>
-      <c r="P45">
+      <c r="Q45">
         <v>3.6338547043737544</v>
       </c>
-      <c r="Q45">
+      <c r="R45">
         <v>2.6901436783168458</v>
       </c>
-      <c r="R45">
+      <c r="S45">
         <v>2.988036047269945</v>
       </c>
-      <c r="S45">
+      <c r="T45">
         <v>2.261243225107811</v>
       </c>
-      <c r="T45">
+      <c r="U45">
         <v>2.3236719067659251</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>2011</v>
       </c>
@@ -3332,25 +3453,28 @@
         <v>3.2783070307632975</v>
       </c>
       <c r="O46">
+        <v>4.5327030763297582E-2</v>
+      </c>
+      <c r="P46">
         <v>3.8985967579395178</v>
       </c>
-      <c r="P46">
+      <c r="Q46">
         <v>3.8644967206844263</v>
       </c>
-      <c r="Q46">
+      <c r="R46">
         <v>2.830066587530736</v>
       </c>
-      <c r="R46">
+      <c r="S46">
         <v>2.6480761515487949</v>
       </c>
-      <c r="S46">
+      <c r="T46">
         <v>2.0866008930804982</v>
       </c>
-      <c r="T46">
+      <c r="U46">
         <v>2.1333860685692581</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>2012</v>
       </c>
@@ -3394,25 +3518,28 @@
         <v>3.5115355058668078</v>
       </c>
       <c r="O47">
+        <v>0.27855550586680788</v>
+      </c>
+      <c r="P47">
         <v>4.5314218084095668</v>
       </c>
-      <c r="P47">
+      <c r="Q47">
         <v>3.6133838138257333</v>
       </c>
-      <c r="Q47">
+      <c r="R47">
         <v>3.0351506715968011</v>
       </c>
-      <c r="R47">
+      <c r="S47">
         <v>3.0010057663800569</v>
       </c>
-      <c r="S47">
+      <c r="T47">
         <v>2.2456959589562215</v>
       </c>
-      <c r="T47">
+      <c r="U47">
         <v>2.3114098448190843</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>2013</v>
       </c>
@@ -3456,25 +3583,28 @@
         <v>3.4378035015876991</v>
       </c>
       <c r="O48">
+        <v>0.20482350158769913</v>
+      </c>
+      <c r="P48">
         <v>4.4057687336024758</v>
       </c>
-      <c r="P48">
+      <c r="Q48">
         <v>3.8184518428349259</v>
       </c>
-      <c r="Q48">
+      <c r="R48">
         <v>2.8472776686013876</v>
       </c>
-      <c r="R48">
+      <c r="S48">
         <v>2.8247384085174572</v>
       </c>
-      <c r="S48">
+      <c r="T48">
         <v>2.2035492835883517</v>
       </c>
-      <c r="T48">
+      <c r="U48">
         <v>2.2671884355604188</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>2014</v>
       </c>
@@ -3518,25 +3648,28 @@
         <v>3.5879339237987589</v>
       </c>
       <c r="O49">
+        <v>0.3549539237987589</v>
+      </c>
+      <c r="P49">
         <v>4.8138906576777485</v>
       </c>
-      <c r="P49">
+      <c r="Q49">
         <v>3.7023627198545954</v>
       </c>
-      <c r="Q49">
+      <c r="R49">
         <v>3.1169189863254512</v>
       </c>
-      <c r="R49">
+      <c r="S49">
         <v>2.844286793357822</v>
       </c>
-      <c r="S49">
+      <c r="T49">
         <v>2.2444028019506579</v>
       </c>
-      <c r="T49">
+      <c r="U49">
         <v>2.3075025429023923</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>2015</v>
       </c>
@@ -3580,25 +3713,28 @@
         <v>3.4728639276626829</v>
       </c>
       <c r="O50">
+        <v>0.23988392766268296</v>
+      </c>
+      <c r="P50">
         <v>4.705233206172208</v>
       </c>
-      <c r="P50">
+      <c r="Q50">
         <v>3.7695481722976063</v>
       </c>
-      <c r="Q50">
+      <c r="R50">
         <v>2.9545676609919385</v>
       </c>
-      <c r="R50">
+      <c r="S50">
         <v>2.5828614265669705</v>
       </c>
-      <c r="S50">
+      <c r="T50">
         <v>2.2012982741109122</v>
       </c>
-      <c r="T50">
+      <c r="U50">
         <v>2.2546322854825265</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>2016</v>
       </c>
@@ -3642,21 +3778,24 @@
         <v>3.2330812399050908</v>
       </c>
       <c r="O51">
+        <v>1.0123990509081082E-4</v>
+      </c>
+      <c r="P51">
         <v>4.3836731183765085</v>
       </c>
-      <c r="P51">
+      <c r="Q51">
         <v>3.7719528972360892</v>
       </c>
-      <c r="Q51">
+      <c r="R51">
         <v>2.9026396401262291</v>
       </c>
-      <c r="R51">
+      <c r="S51">
         <v>2.3999856928461698</v>
       </c>
-      <c r="S51">
+      <c r="T51">
         <v>2.1641438518842775</v>
       </c>
-      <c r="T51">
+      <c r="U51">
         <v>2.1916208293278219</v>
       </c>
     </row>

--- a/my_work/data1/all.xlsx
+++ b/my_work/data1/all.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TD\my_work\data1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79964B06-9292-4D95-B43E-FDE5E58F0C7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE43C0C1-90F6-468E-96DF-85A92DED21FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -79,9 +79,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ETOmean</t>
-  </si>
-  <si>
     <t>s1_ET0</t>
   </si>
   <si>
@@ -97,10 +94,15 @@
     <t>ET0_PMT_G</t>
   </si>
   <si>
-    <t>ET0_ET0_PMT_CF</t>
+    <t>annual_ET0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>annual_ET0</t>
+    <t>ETOmean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ET0_PMT_CF</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -474,7 +476,7 @@
   <dimension ref="A1:Z51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V8" sqref="V8"/>
+      <selection activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -520,28 +522,28 @@
         <v>7</v>
       </c>
       <c r="N1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="V1" s="2"/>
       <c r="W1" s="2"/>

--- a/my_work/data1/all.xlsx
+++ b/my_work/data1/all.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TD\my_work\data1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE43C0C1-90F6-468E-96DF-85A92DED21FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB9FFCB2-F7BA-4C18-8EB2-689685A786C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -476,7 +476,7 @@
   <dimension ref="A1:Z51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1"/>
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/my_work/data1/all.xlsx
+++ b/my_work/data1/all.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TD\my_work\data1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB9FFCB2-F7BA-4C18-8EB2-689685A786C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48BC64F9-3419-4D57-B4FA-FA32A4890B4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-31860" yWindow="5970" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
   <si>
     <t>Year</t>
   </si>
@@ -104,6 +104,18 @@
   <si>
     <t>ET0_PMT_CF</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s11_ET0</t>
+  </si>
+  <si>
+    <t>s22_ET0</t>
+  </si>
+  <si>
+    <t>s33_ET0</t>
+  </si>
+  <si>
+    <t>s44_ET0</t>
   </si>
 </sst>
 </file>
@@ -473,15 +485,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z51"/>
+  <dimension ref="A1:AD51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="Y2" sqref="Y2:Y51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -545,13 +557,35 @@
       <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
+      <c r="V1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1967</v>
       </c>
@@ -615,8 +649,36 @@
       <c r="U2">
         <v>2.0732547468233942</v>
       </c>
+      <c r="V2">
+        <v>4.1279499572814142</v>
+      </c>
+      <c r="W2">
+        <v>3.5098912431924965</v>
+      </c>
+      <c r="X2">
+        <v>2.6719160397360571</v>
+      </c>
+      <c r="Y2">
+        <f>AVERAGE(Z2:AD2)</f>
+        <v>2.3728963230131237</v>
+      </c>
+      <c r="Z2">
+        <v>2.192885714502931</v>
+      </c>
+      <c r="AA2">
+        <v>2.9662843032247483</v>
+      </c>
+      <c r="AB2">
+        <v>2.1510635822667159</v>
+      </c>
+      <c r="AC2">
+        <v>1.984990373632038</v>
+      </c>
+      <c r="AD2">
+        <v>2.5692576414391821</v>
+      </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1968</v>
       </c>
@@ -680,8 +742,36 @@
       <c r="U3">
         <v>2.1112825821147476</v>
       </c>
+      <c r="V3">
+        <v>4.1352953935856736</v>
+      </c>
+      <c r="W3">
+        <v>3.2827542741593527</v>
+      </c>
+      <c r="X3">
+        <v>2.8029219461683477</v>
+      </c>
+      <c r="Y3">
+        <f t="shared" ref="Y3:Y51" si="0">AVERAGE(Z3:AD3)</f>
+        <v>2.5106612744260759</v>
+      </c>
+      <c r="Z3">
+        <v>2.1935116695727221</v>
+      </c>
+      <c r="AA3">
+        <v>2.9965206684132686</v>
+      </c>
+      <c r="AB3">
+        <v>2.315540233910379</v>
+      </c>
+      <c r="AC3">
+        <v>2.2373342444510609</v>
+      </c>
+      <c r="AD3">
+        <v>2.810399555782948</v>
+      </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1969</v>
       </c>
@@ -745,8 +835,36 @@
       <c r="U4">
         <v>2.2493428384678555</v>
       </c>
+      <c r="V4">
+        <v>4.4403820334128046</v>
+      </c>
+      <c r="W4">
+        <v>3.3602476294058525</v>
+      </c>
+      <c r="X4">
+        <v>2.8520749721187979</v>
+      </c>
+      <c r="Y4">
+        <f t="shared" si="0"/>
+        <v>2.7123696366017369</v>
+      </c>
+      <c r="Z4">
+        <v>2.2359611178264349</v>
+      </c>
+      <c r="AA4">
+        <v>2.9651818264867087</v>
+      </c>
+      <c r="AB4">
+        <v>2.5058495675535291</v>
+      </c>
+      <c r="AC4">
+        <v>2.303717149782941</v>
+      </c>
+      <c r="AD4">
+        <v>3.5511385213590718</v>
+      </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1970</v>
       </c>
@@ -810,8 +928,36 @@
       <c r="U5">
         <v>2.1268427246395372</v>
       </c>
+      <c r="V5">
+        <v>4.2239338245052629</v>
+      </c>
+      <c r="W5">
+        <v>3.2325193068464535</v>
+      </c>
+      <c r="X5">
+        <v>2.7407307067053233</v>
+      </c>
+      <c r="Y5">
+        <f t="shared" si="0"/>
+        <v>2.6325878607018121</v>
+      </c>
+      <c r="Z5">
+        <v>2.2811422651824169</v>
+      </c>
+      <c r="AA5">
+        <v>3.0676812299841285</v>
+      </c>
+      <c r="AB5">
+        <v>2.4012925335698649</v>
+      </c>
+      <c r="AC5">
+        <v>2.3115744476470348</v>
+      </c>
+      <c r="AD5">
+        <v>3.1012488271256138</v>
+      </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1971</v>
       </c>
@@ -875,8 +1021,36 @@
       <c r="U6">
         <v>2.0335012812230056</v>
       </c>
+      <c r="V6">
+        <v>4.2921420684256262</v>
+      </c>
+      <c r="W6">
+        <v>3.1867358645927206</v>
+      </c>
+      <c r="X6">
+        <v>2.7328996007596431</v>
+      </c>
+      <c r="Y6">
+        <f t="shared" si="0"/>
+        <v>2.4360688407531237</v>
+      </c>
+      <c r="Z6">
+        <v>2.060927805430151</v>
+      </c>
+      <c r="AA6">
+        <v>2.835753488014888</v>
+      </c>
+      <c r="AB6">
+        <v>2.260479912578004</v>
+      </c>
+      <c r="AC6">
+        <v>2.150923514866546</v>
+      </c>
+      <c r="AD6">
+        <v>2.8722594828760299</v>
+      </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1972</v>
       </c>
@@ -940,8 +1114,36 @@
       <c r="U7">
         <v>2.1037945216070706</v>
       </c>
+      <c r="V7">
+        <v>4.2986139883382481</v>
+      </c>
+      <c r="W7">
+        <v>3.6585388710237012</v>
+      </c>
+      <c r="X7">
+        <v>2.8584085893195477</v>
+      </c>
+      <c r="Y7">
+        <f t="shared" si="0"/>
+        <v>2.5653226525843116</v>
+      </c>
+      <c r="Z7">
+        <v>2.1960154898518862</v>
+      </c>
+      <c r="AA7">
+        <v>3.1174661291673491</v>
+      </c>
+      <c r="AB7">
+        <v>2.3278844186651479</v>
+      </c>
+      <c r="AC7">
+        <v>2.188206336917732</v>
+      </c>
+      <c r="AD7">
+        <v>2.9970408883194422</v>
+      </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1973</v>
       </c>
@@ -1005,8 +1207,36 @@
       <c r="U8">
         <v>2.0832105585495468</v>
       </c>
+      <c r="V8">
+        <v>4.3195914741308679</v>
+      </c>
+      <c r="W8">
+        <v>3.3796314374755942</v>
+      </c>
+      <c r="X8">
+        <v>2.529625055979301</v>
+      </c>
+      <c r="Y8">
+        <f t="shared" si="0"/>
+        <v>2.65233543893173</v>
+      </c>
+      <c r="Z8">
+        <v>2.405758910841286</v>
+      </c>
+      <c r="AA8">
+        <v>2.8398264587804678</v>
+      </c>
+      <c r="AB8">
+        <v>2.3940828087224628</v>
+      </c>
+      <c r="AC8">
+        <v>2.3234448390274141</v>
+      </c>
+      <c r="AD8">
+        <v>3.2985641772870209</v>
+      </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1974</v>
       </c>
@@ -1070,8 +1300,36 @@
       <c r="U9">
         <v>2.0691642036105744</v>
       </c>
+      <c r="V9">
+        <v>4.0322175671603357</v>
+      </c>
+      <c r="W9">
+        <v>3.0496467736921051</v>
+      </c>
+      <c r="X9">
+        <v>2.7231360560031685</v>
+      </c>
+      <c r="Y9">
+        <f t="shared" si="0"/>
+        <v>2.81582235560799</v>
+      </c>
+      <c r="Z9">
+        <v>2.4618668546063458</v>
+      </c>
+      <c r="AA9">
+        <v>3.4776788439738091</v>
+      </c>
+      <c r="AB9">
+        <v>2.4174191647549939</v>
+      </c>
+      <c r="AC9">
+        <v>2.302568858935806</v>
+      </c>
+      <c r="AD9">
+        <v>3.4195780557689961</v>
+      </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1975</v>
       </c>
@@ -1135,8 +1393,36 @@
       <c r="U10">
         <v>2.1481224810495192</v>
       </c>
+      <c r="V10">
+        <v>4.3991966987211413</v>
+      </c>
+      <c r="W10">
+        <v>3.4184695676879171</v>
+      </c>
+      <c r="X10">
+        <v>2.7645774730988397</v>
+      </c>
+      <c r="Y10">
+        <f t="shared" si="0"/>
+        <v>2.6774303971780089</v>
+      </c>
+      <c r="Z10">
+        <v>2.4434789960390151</v>
+      </c>
+      <c r="AA10">
+        <v>3.3033303199764683</v>
+      </c>
+      <c r="AB10">
+        <v>2.2879858039035881</v>
+      </c>
+      <c r="AC10">
+        <v>2.3376691675207861</v>
+      </c>
+      <c r="AD10">
+        <v>3.0146876984501869</v>
+      </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1976</v>
       </c>
@@ -1200,8 +1486,36 @@
       <c r="U11">
         <v>2.0164702258233809</v>
       </c>
+      <c r="V11">
+        <v>4.1751539494012953</v>
+      </c>
+      <c r="W11">
+        <v>3.3527775149995866</v>
+      </c>
+      <c r="X11">
+        <v>2.5942491226719726</v>
+      </c>
+      <c r="Y11">
+        <f t="shared" si="0"/>
+        <v>2.5946402512808859</v>
+      </c>
+      <c r="Z11">
+        <v>2.3908127907057302</v>
+      </c>
+      <c r="AA11">
+        <v>3.2974877756835821</v>
+      </c>
+      <c r="AB11">
+        <v>2.1162369639705569</v>
+      </c>
+      <c r="AC11">
+        <v>2.2335460082330769</v>
+      </c>
+      <c r="AD11">
+        <v>2.935117717811484</v>
+      </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1977</v>
       </c>
@@ -1265,8 +1579,36 @@
       <c r="U12">
         <v>2.0758136339032394</v>
       </c>
+      <c r="V12">
+        <v>4.1050384347960254</v>
+      </c>
+      <c r="W12">
+        <v>3.3643128449768369</v>
+      </c>
+      <c r="X12">
+        <v>2.5777949121149368</v>
+      </c>
+      <c r="Y12">
+        <f t="shared" si="0"/>
+        <v>2.4551449635832201</v>
+      </c>
+      <c r="Z12">
+        <v>2.2935109052642049</v>
+      </c>
+      <c r="AA12">
+        <v>3.3131721321966556</v>
+      </c>
+      <c r="AB12">
+        <v>2.1608120054979238</v>
+      </c>
+      <c r="AC12">
+        <v>2.1296041031499371</v>
+      </c>
+      <c r="AD12">
+        <v>2.3786256718073782</v>
+      </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1978</v>
       </c>
@@ -1330,8 +1672,36 @@
       <c r="U13">
         <v>2.1117344000269909</v>
       </c>
+      <c r="V13">
+        <v>4.021301162160638</v>
+      </c>
+      <c r="W13">
+        <v>3.3814905574649385</v>
+      </c>
+      <c r="X13">
+        <v>2.7433539233145661</v>
+      </c>
+      <c r="Y13">
+        <f t="shared" si="0"/>
+        <v>2.5700820010762957</v>
+      </c>
+      <c r="Z13">
+        <v>2.4207495459846839</v>
+      </c>
+      <c r="AA13">
+        <v>3.2683259140994751</v>
+      </c>
+      <c r="AB13">
+        <v>2.364744042980369</v>
+      </c>
+      <c r="AC13">
+        <v>2.0856332233942299</v>
+      </c>
+      <c r="AD13">
+        <v>2.7109572789227219</v>
+      </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1979</v>
       </c>
@@ -1395,8 +1765,36 @@
       <c r="U14">
         <v>2.2210059031537837</v>
       </c>
+      <c r="V14">
+        <v>4.6504026649102874</v>
+      </c>
+      <c r="W14">
+        <v>3.3321849827272181</v>
+      </c>
+      <c r="X14">
+        <v>2.4998795275797505</v>
+      </c>
+      <c r="Y14">
+        <f t="shared" si="0"/>
+        <v>2.8529296803001012</v>
+      </c>
+      <c r="Z14">
+        <v>2.772399464853804</v>
+      </c>
+      <c r="AA14">
+        <v>3.3343354579261608</v>
+      </c>
+      <c r="AB14">
+        <v>2.27872185291739</v>
+      </c>
+      <c r="AC14">
+        <v>2.3298742158965071</v>
+      </c>
+      <c r="AD14">
+        <v>3.549317409906644</v>
+      </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1980</v>
       </c>
@@ -1460,8 +1858,36 @@
       <c r="U15">
         <v>2.2254975289861161</v>
       </c>
+      <c r="V15">
+        <v>4.5099202662894751</v>
+      </c>
+      <c r="W15">
+        <v>3.3180893761998407</v>
+      </c>
+      <c r="X15">
+        <v>2.6826110869440329</v>
+      </c>
+      <c r="Y15">
+        <f t="shared" si="0"/>
+        <v>2.7540815127198037</v>
+      </c>
+      <c r="Z15">
+        <v>2.6374913469821641</v>
+      </c>
+      <c r="AA15">
+        <v>3.2741175985120372</v>
+      </c>
+      <c r="AB15">
+        <v>2.242495687837772</v>
+      </c>
+      <c r="AC15">
+        <v>2.2069780117152988</v>
+      </c>
+      <c r="AD15">
+        <v>3.409324918551746</v>
+      </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1981</v>
       </c>
@@ -1525,8 +1951,36 @@
       <c r="U16">
         <v>2.1230948277258705</v>
       </c>
+      <c r="V16">
+        <v>4.0404277729102152</v>
+      </c>
+      <c r="W16">
+        <v>3.4310883305424844</v>
+      </c>
+      <c r="X16">
+        <v>3.0584227466247</v>
+      </c>
+      <c r="Y16">
+        <f t="shared" si="0"/>
+        <v>2.6133513918027069</v>
+      </c>
+      <c r="Z16">
+        <v>2.430506172356071</v>
+      </c>
+      <c r="AA16">
+        <v>3.3759095582489489</v>
+      </c>
+      <c r="AB16">
+        <v>2.2257773266330281</v>
+      </c>
+      <c r="AC16">
+        <v>2.098824007385439</v>
+      </c>
+      <c r="AD16">
+        <v>2.935739894390049</v>
+      </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1982</v>
       </c>
@@ -1590,8 +2044,36 @@
       <c r="U17">
         <v>2.100984667498687</v>
       </c>
+      <c r="V17">
+        <v>4.381562549949332</v>
+      </c>
+      <c r="W17">
+        <v>3.5352436089108181</v>
+      </c>
+      <c r="X17">
+        <v>2.7992348596112242</v>
+      </c>
+      <c r="Y17">
+        <f t="shared" si="0"/>
+        <v>2.4148684598550938</v>
+      </c>
+      <c r="Z17">
+        <v>2.2191247510598102</v>
+      </c>
+      <c r="AA17">
+        <v>2.9762551232121628</v>
+      </c>
+      <c r="AB17">
+        <v>1.950654362086411</v>
+      </c>
+      <c r="AC17">
+        <v>2.1078310023928211</v>
+      </c>
+      <c r="AD17">
+        <v>2.8204770605242651</v>
+      </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1983</v>
       </c>
@@ -1655,8 +2137,36 @@
       <c r="U18">
         <v>2.1517740421740363</v>
       </c>
+      <c r="V18">
+        <v>4.389712632064124</v>
+      </c>
+      <c r="W18">
+        <v>3.799056760401764</v>
+      </c>
+      <c r="X18">
+        <v>2.6532025936871384</v>
+      </c>
+      <c r="Y18">
+        <f t="shared" si="0"/>
+        <v>2.3443117930416193</v>
+      </c>
+      <c r="Z18">
+        <v>2.1101275846686112</v>
+      </c>
+      <c r="AA18">
+        <v>3.0525821652898748</v>
+      </c>
+      <c r="AB18">
+        <v>1.8429074248306481</v>
+      </c>
+      <c r="AC18">
+        <v>2.1379744603355491</v>
+      </c>
+      <c r="AD18">
+        <v>2.5779673300834149</v>
+      </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1984</v>
       </c>
@@ -1720,8 +2230,36 @@
       <c r="U19">
         <v>2.1640562977895925</v>
       </c>
+      <c r="V19">
+        <v>4.3045855877198749</v>
+      </c>
+      <c r="W19">
+        <v>3.400313478067214</v>
+      </c>
+      <c r="X19">
+        <v>2.8178677135512493</v>
+      </c>
+      <c r="Y19">
+        <f t="shared" si="0"/>
+        <v>2.8775133930371419</v>
+      </c>
+      <c r="Z19">
+        <v>2.7236938892291298</v>
+      </c>
+      <c r="AA19">
+        <v>3.862897767704363</v>
+      </c>
+      <c r="AB19">
+        <v>2.2118797819316298</v>
+      </c>
+      <c r="AC19">
+        <v>2.310445515897249</v>
+      </c>
+      <c r="AD19">
+        <v>3.2786500104233371</v>
+      </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1985</v>
       </c>
@@ -1785,8 +2323,36 @@
       <c r="U20">
         <v>2.0821483707852404</v>
       </c>
+      <c r="V20">
+        <v>3.9261188616092242</v>
+      </c>
+      <c r="W20">
+        <v>3.2680590447970501</v>
+      </c>
+      <c r="X20">
+        <v>2.6909283101784531</v>
+      </c>
+      <c r="Y20">
+        <f t="shared" si="0"/>
+        <v>2.6970547394806887</v>
+      </c>
+      <c r="Z20">
+        <v>2.7052167233374091</v>
+      </c>
+      <c r="AA20">
+        <v>3.1866069998070752</v>
+      </c>
+      <c r="AB20">
+        <v>2.0225655550469859</v>
+      </c>
+      <c r="AC20">
+        <v>2.3259596544513821</v>
+      </c>
+      <c r="AD20">
+        <v>3.2449247647605901</v>
+      </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1986</v>
       </c>
@@ -1850,8 +2416,36 @@
       <c r="U21">
         <v>2.1347008660888656</v>
       </c>
+      <c r="V21">
+        <v>4.212078529877421</v>
+      </c>
+      <c r="W21">
+        <v>3.4776520568632137</v>
+      </c>
+      <c r="X21">
+        <v>2.5655349897146302</v>
+      </c>
+      <c r="Y21">
+        <f t="shared" si="0"/>
+        <v>2.7232547971136527</v>
+      </c>
+      <c r="Z21">
+        <v>2.5544812340567811</v>
+      </c>
+      <c r="AA21">
+        <v>3.4764080860465092</v>
+      </c>
+      <c r="AB21">
+        <v>2.1733359599478348</v>
+      </c>
+      <c r="AC21">
+        <v>2.355781738151641</v>
+      </c>
+      <c r="AD21">
+        <v>3.056266967365497</v>
+      </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1987</v>
       </c>
@@ -1915,8 +2509,36 @@
       <c r="U22">
         <v>2.1668602322287702</v>
       </c>
+      <c r="V22">
+        <v>4.5733200338201652</v>
+      </c>
+      <c r="W22">
+        <v>3.0872037542541007</v>
+      </c>
+      <c r="X22">
+        <v>2.6837378364311459</v>
+      </c>
+      <c r="Y22">
+        <f t="shared" si="0"/>
+        <v>2.4630714721348399</v>
+      </c>
+      <c r="Z22">
+        <v>2.163954009622497</v>
+      </c>
+      <c r="AA22">
+        <v>3.14037465964878</v>
+      </c>
+      <c r="AB22">
+        <v>2.3410919273245989</v>
+      </c>
+      <c r="AC22">
+        <v>2.011455818606779</v>
+      </c>
+      <c r="AD22">
+        <v>2.6584809454715441</v>
+      </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1988</v>
       </c>
@@ -1980,8 +2602,36 @@
       <c r="U23">
         <v>2.1567027842404141</v>
       </c>
+      <c r="V23">
+        <v>4.0581365494627404</v>
+      </c>
+      <c r="W23">
+        <v>3.42603124459096</v>
+      </c>
+      <c r="X23">
+        <v>2.3929054121817011</v>
+      </c>
+      <c r="Y23">
+        <f t="shared" si="0"/>
+        <v>2.7113234418970444</v>
+      </c>
+      <c r="Z23">
+        <v>2.3779216789185451</v>
+      </c>
+      <c r="AA23">
+        <v>3.323534831901247</v>
+      </c>
+      <c r="AB23">
+        <v>2.4325792973677238</v>
+      </c>
+      <c r="AC23">
+        <v>2.2863056132041879</v>
+      </c>
+      <c r="AD23">
+        <v>3.1362757880935161</v>
+      </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1989</v>
       </c>
@@ -2045,8 +2695,36 @@
       <c r="U24">
         <v>2.1374088624904202</v>
       </c>
+      <c r="V24">
+        <v>4.1190551141460379</v>
+      </c>
+      <c r="W24">
+        <v>3.466520485069478</v>
+      </c>
+      <c r="X24">
+        <v>2.5321241604321951</v>
+      </c>
+      <c r="Y24">
+        <f t="shared" si="0"/>
+        <v>2.525872105884035</v>
+      </c>
+      <c r="Z24">
+        <v>2.2848769299225871</v>
+      </c>
+      <c r="AA24">
+        <v>2.9047749102030829</v>
+      </c>
+      <c r="AB24">
+        <v>2.345505125562934</v>
+      </c>
+      <c r="AC24">
+        <v>2.2847433541917388</v>
+      </c>
+      <c r="AD24">
+        <v>2.8094602095398331</v>
+      </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1990</v>
       </c>
@@ -2110,8 +2788,36 @@
       <c r="U25">
         <v>2.0885148866556635</v>
       </c>
+      <c r="V25">
+        <v>3.6181407454013006</v>
+      </c>
+      <c r="W25">
+        <v>3.4035884908413259</v>
+      </c>
+      <c r="X25">
+        <v>2.7047134325524658</v>
+      </c>
+      <c r="Y25">
+        <f t="shared" si="0"/>
+        <v>2.512009743754144</v>
+      </c>
+      <c r="Z25">
+        <v>2.2104990251138168</v>
+      </c>
+      <c r="AA25">
+        <v>2.9343943888336081</v>
+      </c>
+      <c r="AB25">
+        <v>2.0883329435396569</v>
+      </c>
+      <c r="AC25">
+        <v>2.2230080754886381</v>
+      </c>
+      <c r="AD25">
+        <v>3.1038142857950008</v>
+      </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1991</v>
       </c>
@@ -2175,8 +2881,36 @@
       <c r="U26">
         <v>2.1121277132715348</v>
       </c>
+      <c r="V26">
+        <v>4.4268903494545917</v>
+      </c>
+      <c r="W26">
+        <v>3.1612266414239301</v>
+      </c>
+      <c r="X26">
+        <v>2.6367335902044946</v>
+      </c>
+      <c r="Y26">
+        <f t="shared" si="0"/>
+        <v>2.628108123973103</v>
+      </c>
+      <c r="Z26">
+        <v>2.2379765302648509</v>
+      </c>
+      <c r="AA26">
+        <v>3.0378854165367639</v>
+      </c>
+      <c r="AB26">
+        <v>2.247759967912959</v>
+      </c>
+      <c r="AC26">
+        <v>2.5217323158084768</v>
+      </c>
+      <c r="AD26">
+        <v>3.0951863893424649</v>
+      </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1992</v>
       </c>
@@ -2240,8 +2974,36 @@
       <c r="U27">
         <v>2.1525247106477394</v>
       </c>
+      <c r="V27">
+        <v>4.4606099799019088</v>
+      </c>
+      <c r="W27">
+        <v>3.8083237531254555</v>
+      </c>
+      <c r="X27">
+        <v>2.7023874348131605</v>
+      </c>
+      <c r="Y27">
+        <f t="shared" si="0"/>
+        <v>2.1990305449082235</v>
+      </c>
+      <c r="Z27">
+        <v>1.89127458649112</v>
+      </c>
+      <c r="AA27">
+        <v>2.554809501436484</v>
+      </c>
+      <c r="AB27">
+        <v>1.930183596085665</v>
+      </c>
+      <c r="AC27">
+        <v>2.18910450265912</v>
+      </c>
+      <c r="AD27">
+        <v>2.4297805378687309</v>
+      </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1993</v>
       </c>
@@ -2305,8 +3067,36 @@
       <c r="U28">
         <v>2.1156555498093716</v>
       </c>
+      <c r="V28">
+        <v>4.3821400916304745</v>
+      </c>
+      <c r="W28">
+        <v>3.6483946722345415</v>
+      </c>
+      <c r="X28">
+        <v>2.6980267166429166</v>
+      </c>
+      <c r="Y28">
+        <f t="shared" si="0"/>
+        <v>2.3719359050963487</v>
+      </c>
+      <c r="Z28">
+        <v>2.0112624870264089</v>
+      </c>
+      <c r="AA28">
+        <v>2.6715967161452849</v>
+      </c>
+      <c r="AB28">
+        <v>2.128004939020518</v>
+      </c>
+      <c r="AC28">
+        <v>2.253449283178028</v>
+      </c>
+      <c r="AD28">
+        <v>2.795366100111504</v>
+      </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1994</v>
       </c>
@@ -2370,8 +3160,36 @@
       <c r="U29">
         <v>2.1651339894740222</v>
       </c>
+      <c r="V29">
+        <v>4.3361153534367975</v>
+      </c>
+      <c r="W29">
+        <v>3.5698155340552504</v>
+      </c>
+      <c r="X29">
+        <v>2.8299131458468922</v>
+      </c>
+      <c r="Y29">
+        <f t="shared" si="0"/>
+        <v>2.7584602133897094</v>
+      </c>
+      <c r="Z29">
+        <v>2.5394664303180972</v>
+      </c>
+      <c r="AA29">
+        <v>3.3202297671824161</v>
+      </c>
+      <c r="AB29">
+        <v>2.5015615039017911</v>
+      </c>
+      <c r="AC29">
+        <v>2.2169871064979318</v>
+      </c>
+      <c r="AD29">
+        <v>3.2140562590483088</v>
+      </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1995</v>
       </c>
@@ -2435,8 +3253,36 @@
       <c r="U30">
         <v>2.1178737296276093</v>
       </c>
+      <c r="V30">
+        <v>4.3267684620781548</v>
+      </c>
+      <c r="W30">
+        <v>3.340615673367636</v>
+      </c>
+      <c r="X30">
+        <v>2.6514032176817786</v>
+      </c>
+      <c r="Y30">
+        <f t="shared" si="0"/>
+        <v>2.3672197363984866</v>
+      </c>
+      <c r="Z30">
+        <v>2.082902231036035</v>
+      </c>
+      <c r="AA30">
+        <v>2.8210022403212491</v>
+      </c>
+      <c r="AB30">
+        <v>2.308630114930625</v>
+      </c>
+      <c r="AC30">
+        <v>2.0720695293114928</v>
+      </c>
+      <c r="AD30">
+        <v>2.5514945663930311</v>
+      </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1996</v>
       </c>
@@ -2500,8 +3346,36 @@
       <c r="U31">
         <v>2.1023941750326705</v>
       </c>
+      <c r="V31">
+        <v>4.1266365269141962</v>
+      </c>
+      <c r="W31">
+        <v>3.3362101743762453</v>
+      </c>
+      <c r="X31">
+        <v>2.7654904818954322</v>
+      </c>
+      <c r="Y31">
+        <f t="shared" si="0"/>
+        <v>2.4734904366746853</v>
+      </c>
+      <c r="Z31">
+        <v>2.138465069776045</v>
+      </c>
+      <c r="AA31">
+        <v>3.1188727193931838</v>
+      </c>
+      <c r="AB31">
+        <v>2.3331412134821088</v>
+      </c>
+      <c r="AC31">
+        <v>2.063360771300629</v>
+      </c>
+      <c r="AD31">
+        <v>2.7136124094214589</v>
+      </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1997</v>
       </c>
@@ -2565,8 +3439,36 @@
       <c r="U32">
         <v>2.1195571239622764</v>
       </c>
+      <c r="V32">
+        <v>4.1001382021258976</v>
+      </c>
+      <c r="W32">
+        <v>3.3918896439657331</v>
+      </c>
+      <c r="X32">
+        <v>2.7507641634458948</v>
+      </c>
+      <c r="Y32">
+        <f t="shared" si="0"/>
+        <v>2.310579996661327</v>
+      </c>
+      <c r="Z32">
+        <v>2.0320534919419728</v>
+      </c>
+      <c r="AA32">
+        <v>2.6985285155272569</v>
+      </c>
+      <c r="AB32">
+        <v>2.0551849286600521</v>
+      </c>
+      <c r="AC32">
+        <v>2.2530575860367561</v>
+      </c>
+      <c r="AD32">
+        <v>2.5140754611405951</v>
+      </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1998</v>
       </c>
@@ -2630,8 +3532,36 @@
       <c r="U33">
         <v>2.1752752556115471</v>
       </c>
+      <c r="V33">
+        <v>4.0753703856662282</v>
+      </c>
+      <c r="W33">
+        <v>3.0625424835542412</v>
+      </c>
+      <c r="X33">
+        <v>2.8849809278374372</v>
+      </c>
+      <c r="Y33">
+        <f t="shared" si="0"/>
+        <v>2.5680479266163858</v>
+      </c>
+      <c r="Z33">
+        <v>2.4420657945118491</v>
+      </c>
+      <c r="AA33">
+        <v>2.9995022881038689</v>
+      </c>
+      <c r="AB33">
+        <v>2.1693755852279799</v>
+      </c>
+      <c r="AC33">
+        <v>2.3143521267680951</v>
+      </c>
+      <c r="AD33">
+        <v>2.9149438384701361</v>
+      </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1999</v>
       </c>
@@ -2695,8 +3625,36 @@
       <c r="U34">
         <v>2.1364300646013392</v>
       </c>
+      <c r="V34">
+        <v>4.0476862262022646</v>
+      </c>
+      <c r="W34">
+        <v>3.3780522358091076</v>
+      </c>
+      <c r="X34">
+        <v>2.7530593971847117</v>
+      </c>
+      <c r="Y34">
+        <f t="shared" si="0"/>
+        <v>2.5107268520239385</v>
+      </c>
+      <c r="Z34">
+        <v>2.2437319832029998</v>
+      </c>
+      <c r="AA34">
+        <v>3.1249468790254822</v>
+      </c>
+      <c r="AB34">
+        <v>2.3268106666251209</v>
+      </c>
+      <c r="AC34">
+        <v>2.1492713078669712</v>
+      </c>
+      <c r="AD34">
+        <v>2.7088734233991181</v>
+      </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>2000</v>
       </c>
@@ -2760,8 +3718,36 @@
       <c r="U35">
         <v>2.0588428400582068</v>
       </c>
+      <c r="V35">
+        <v>3.6355471190127604</v>
+      </c>
+      <c r="W35">
+        <v>3.3905598494234064</v>
+      </c>
+      <c r="X35">
+        <v>2.7745537667061568</v>
+      </c>
+      <c r="Y35">
+        <f t="shared" si="0"/>
+        <v>2.4764991467199025</v>
+      </c>
+      <c r="Z35">
+        <v>2.2564847493397959</v>
+      </c>
+      <c r="AA35">
+        <v>2.9445353605674649</v>
+      </c>
+      <c r="AB35">
+        <v>2.2431846355783001</v>
+      </c>
+      <c r="AC35">
+        <v>2.3061096802053789</v>
+      </c>
+      <c r="AD35">
+        <v>2.632181307908573</v>
+      </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>2001</v>
       </c>
@@ -2825,8 +3811,36 @@
       <c r="U36">
         <v>2.0874268481154448</v>
       </c>
+      <c r="V36">
+        <v>3.8987831764017962</v>
+      </c>
+      <c r="W36">
+        <v>3.5535112113595657</v>
+      </c>
+      <c r="X36">
+        <v>2.534023363876591</v>
+      </c>
+      <c r="Y36">
+        <f t="shared" si="0"/>
+        <v>2.5369804882743452</v>
+      </c>
+      <c r="Z36">
+        <v>2.3479653075057669</v>
+      </c>
+      <c r="AA36">
+        <v>3.0307821345491379</v>
+      </c>
+      <c r="AB36">
+        <v>2.3127604211174582</v>
+      </c>
+      <c r="AC36">
+        <v>2.2935439864732818</v>
+      </c>
+      <c r="AD36">
+        <v>2.699850591726082</v>
+      </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>2002</v>
       </c>
@@ -2890,8 +3904,36 @@
       <c r="U37">
         <v>2.1273586980739214</v>
       </c>
+      <c r="V37">
+        <v>3.9297722817728209</v>
+      </c>
+      <c r="W37">
+        <v>3.4477808101731329</v>
+      </c>
+      <c r="X37">
+        <v>2.8462016255763958</v>
+      </c>
+      <c r="Y37">
+        <f t="shared" si="0"/>
+        <v>2.4847556743068364</v>
+      </c>
+      <c r="Z37">
+        <v>2.3029022506204839</v>
+      </c>
+      <c r="AA37">
+        <v>2.9997413891736309</v>
+      </c>
+      <c r="AB37">
+        <v>2.1763787507549419</v>
+      </c>
+      <c r="AC37">
+        <v>2.3316238953013162</v>
+      </c>
+      <c r="AD37">
+        <v>2.6131320856838092</v>
+      </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>2003</v>
       </c>
@@ -2955,8 +3997,36 @@
       <c r="U38">
         <v>2.1517242759556554</v>
       </c>
+      <c r="V38">
+        <v>4.1741112322103087</v>
+      </c>
+      <c r="W38">
+        <v>3.5694081293185982</v>
+      </c>
+      <c r="X38">
+        <v>2.9012156981667276</v>
+      </c>
+      <c r="Y38">
+        <f t="shared" si="0"/>
+        <v>2.4875380148458479</v>
+      </c>
+      <c r="Z38">
+        <v>2.2304862595806099</v>
+      </c>
+      <c r="AA38">
+        <v>2.922687762446778</v>
+      </c>
+      <c r="AB38">
+        <v>2.1430874467719399</v>
+      </c>
+      <c r="AC38">
+        <v>2.3592934058415538</v>
+      </c>
+      <c r="AD38">
+        <v>2.782135199588359</v>
+      </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>2004</v>
       </c>
@@ -3020,8 +4090,36 @@
       <c r="U39">
         <v>2.1498568520592731</v>
       </c>
+      <c r="V39">
+        <v>4.0499463582647461</v>
+      </c>
+      <c r="W39">
+        <v>3.5781334169591927</v>
+      </c>
+      <c r="X39">
+        <v>2.7702358783251286</v>
+      </c>
+      <c r="Y39">
+        <f t="shared" si="0"/>
+        <v>2.5557408408631623</v>
+      </c>
+      <c r="Z39">
+        <v>2.3384569198314309</v>
+      </c>
+      <c r="AA39">
+        <v>2.9397332487382819</v>
+      </c>
+      <c r="AB39">
+        <v>2.2993935378942369</v>
+      </c>
+      <c r="AC39">
+        <v>2.470051598903392</v>
+      </c>
+      <c r="AD39">
+        <v>2.731068898948469</v>
+      </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>2005</v>
       </c>
@@ -3085,8 +4183,36 @@
       <c r="U40">
         <v>2.2633623130462959</v>
       </c>
+      <c r="V40">
+        <v>4.4371584073111974</v>
+      </c>
+      <c r="W40">
+        <v>3.7226749506249144</v>
+      </c>
+      <c r="X40">
+        <v>2.9665355140520782</v>
+      </c>
+      <c r="Y40">
+        <f t="shared" si="0"/>
+        <v>2.7549783549031366</v>
+      </c>
+      <c r="Z40">
+        <v>2.879397347003223</v>
+      </c>
+      <c r="AA40">
+        <v>2.9790618755503271</v>
+      </c>
+      <c r="AB40">
+        <v>2.3306228132730511</v>
+      </c>
+      <c r="AC40">
+        <v>2.5635587023852038</v>
+      </c>
+      <c r="AD40">
+        <v>3.022251036303877</v>
+      </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>2006</v>
       </c>
@@ -3150,8 +4276,36 @@
       <c r="U41">
         <v>2.2516576910571335</v>
       </c>
+      <c r="V41">
+        <v>4.4230505000332538</v>
+      </c>
+      <c r="W41">
+        <v>3.9736350719657012</v>
+      </c>
+      <c r="X41">
+        <v>2.924752601121785</v>
+      </c>
+      <c r="Y41">
+        <f t="shared" si="0"/>
+        <v>2.7880451741530918</v>
+      </c>
+      <c r="Z41">
+        <v>2.8525702253189822</v>
+      </c>
+      <c r="AA41">
+        <v>3.0292153917551641</v>
+      </c>
+      <c r="AB41">
+        <v>2.3778001003360552</v>
+      </c>
+      <c r="AC41">
+        <v>2.6594345619992148</v>
+      </c>
+      <c r="AD41">
+        <v>3.0212055913560429</v>
+      </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>2007</v>
       </c>
@@ -3215,8 +4369,36 @@
       <c r="U42">
         <v>2.1460276412078505</v>
       </c>
+      <c r="V42">
+        <v>4.0688141205422701</v>
+      </c>
+      <c r="W42">
+        <v>3.5773943190921571</v>
+      </c>
+      <c r="X42">
+        <v>2.558773642529832</v>
+      </c>
+      <c r="Y42">
+        <f t="shared" si="0"/>
+        <v>2.5165141017365871</v>
+      </c>
+      <c r="Z42">
+        <v>2.4412821526609658</v>
+      </c>
+      <c r="AA42">
+        <v>2.8745663892309699</v>
+      </c>
+      <c r="AB42">
+        <v>2.212559189610972</v>
+      </c>
+      <c r="AC42">
+        <v>2.6059879933515608</v>
+      </c>
+      <c r="AD42">
+        <v>2.448174783828466</v>
+      </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>2008</v>
       </c>
@@ -3280,8 +4462,36 @@
       <c r="U43">
         <v>2.10995694587066</v>
       </c>
+      <c r="V43">
+        <v>3.9223541077502988</v>
+      </c>
+      <c r="W43">
+        <v>3.2792193248649903</v>
+      </c>
+      <c r="X43">
+        <v>2.8816364256611924</v>
+      </c>
+      <c r="Y43">
+        <f t="shared" si="0"/>
+        <v>2.4302503618499762</v>
+      </c>
+      <c r="Z43">
+        <v>2.3657664898133599</v>
+      </c>
+      <c r="AA43">
+        <v>2.808988379465664</v>
+      </c>
+      <c r="AB43">
+        <v>2.2417317994908079</v>
+      </c>
+      <c r="AC43">
+        <v>2.4847724115484171</v>
+      </c>
+      <c r="AD43">
+        <v>2.2499927289316339</v>
+      </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>2009</v>
       </c>
@@ -3345,8 +4555,36 @@
       <c r="U44">
         <v>2.3112181487037584</v>
       </c>
+      <c r="V44">
+        <v>4.264587863674941</v>
+      </c>
+      <c r="W44">
+        <v>3.7172766534171613</v>
+      </c>
+      <c r="X44">
+        <v>3.3210167600160658</v>
+      </c>
+      <c r="Y44">
+        <f t="shared" si="0"/>
+        <v>2.8166709018623814</v>
+      </c>
+      <c r="Z44">
+        <v>2.799712101934182</v>
+      </c>
+      <c r="AA44">
+        <v>3.231033332742089</v>
+      </c>
+      <c r="AB44">
+        <v>2.5078838621982902</v>
+      </c>
+      <c r="AC44">
+        <v>2.7381618602845501</v>
+      </c>
+      <c r="AD44">
+        <v>2.8065633521527982</v>
+      </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>2010</v>
       </c>
@@ -3410,8 +4648,36 @@
       <c r="U45">
         <v>2.3236719067659251</v>
       </c>
+      <c r="V45">
+        <v>4.4678124048666126</v>
+      </c>
+      <c r="W45">
+        <v>3.6338547043737544</v>
+      </c>
+      <c r="X45">
+        <v>2.6901436783168458</v>
+      </c>
+      <c r="Y45">
+        <f t="shared" si="0"/>
+        <v>2.9880360472699454</v>
+      </c>
+      <c r="Z45">
+        <v>3.1816241542069021</v>
+      </c>
+      <c r="AA45">
+        <v>3.409364322361494</v>
+      </c>
+      <c r="AB45">
+        <v>2.5657991535172382</v>
+      </c>
+      <c r="AC45">
+        <v>2.8345567244251191</v>
+      </c>
+      <c r="AD45">
+        <v>2.9488358818389719</v>
+      </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>2011</v>
       </c>
@@ -3475,8 +4741,36 @@
       <c r="U46">
         <v>2.1333860685692581</v>
       </c>
+      <c r="V46">
+        <v>3.8985967579395173</v>
+      </c>
+      <c r="W46">
+        <v>3.8644967206844263</v>
+      </c>
+      <c r="X46">
+        <v>2.8300665875307356</v>
+      </c>
+      <c r="Y46">
+        <f t="shared" si="0"/>
+        <v>2.6480761515487945</v>
+      </c>
+      <c r="Z46">
+        <v>2.610870551491896</v>
+      </c>
+      <c r="AA46">
+        <v>3.1374881693771322</v>
+      </c>
+      <c r="AB46">
+        <v>2.405685079406461</v>
+      </c>
+      <c r="AC46">
+        <v>2.605801684537977</v>
+      </c>
+      <c r="AD46">
+        <v>2.4805352729305081</v>
+      </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>2012</v>
       </c>
@@ -3540,8 +4834,36 @@
       <c r="U47">
         <v>2.3114098448190843</v>
       </c>
+      <c r="V47">
+        <v>4.5314218084095668</v>
+      </c>
+      <c r="W47">
+        <v>3.6133838138257333</v>
+      </c>
+      <c r="X47">
+        <v>3.0351506715968006</v>
+      </c>
+      <c r="Y47">
+        <f t="shared" si="0"/>
+        <v>3.0010057663800564</v>
+      </c>
+      <c r="Z47">
+        <v>3.2806851179039969</v>
+      </c>
+      <c r="AA47">
+        <v>3.3034572214077151</v>
+      </c>
+      <c r="AB47">
+        <v>2.5737767978561599</v>
+      </c>
+      <c r="AC47">
+        <v>2.865582688162887</v>
+      </c>
+      <c r="AD47">
+        <v>2.9815270065695261</v>
+      </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>2013</v>
       </c>
@@ -3605,8 +4927,36 @@
       <c r="U48">
         <v>2.2671884355604188</v>
       </c>
+      <c r="V48">
+        <v>4.4057687336024767</v>
+      </c>
+      <c r="W48">
+        <v>3.8184518428349259</v>
+      </c>
+      <c r="X48">
+        <v>2.8472776686013872</v>
+      </c>
+      <c r="Y48">
+        <f t="shared" si="0"/>
+        <v>2.8247384085174572</v>
+      </c>
+      <c r="Z48">
+        <v>2.861725203052913</v>
+      </c>
+      <c r="AA48">
+        <v>3.2721299138057929</v>
+      </c>
+      <c r="AB48">
+        <v>2.5995571231672838</v>
+      </c>
+      <c r="AC48">
+        <v>2.6933781284064788</v>
+      </c>
+      <c r="AD48">
+        <v>2.696901674154816</v>
+      </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>2014</v>
       </c>
@@ -3670,8 +5020,36 @@
       <c r="U49">
         <v>2.3075025429023923</v>
       </c>
+      <c r="V49">
+        <v>4.8138906576777476</v>
+      </c>
+      <c r="W49">
+        <v>3.7023627198545954</v>
+      </c>
+      <c r="X49">
+        <v>3.1169189863254512</v>
+      </c>
+      <c r="Y49">
+        <f t="shared" si="0"/>
+        <v>2.844286793357822</v>
+      </c>
+      <c r="Z49">
+        <v>2.891810939651164</v>
+      </c>
+      <c r="AA49">
+        <v>3.2509468143178859</v>
+      </c>
+      <c r="AB49">
+        <v>2.489407590216115</v>
+      </c>
+      <c r="AC49">
+        <v>2.870920308055243</v>
+      </c>
+      <c r="AD49">
+        <v>2.7183483145487028</v>
+      </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>2015</v>
       </c>
@@ -3735,8 +5113,36 @@
       <c r="U50">
         <v>2.2546322854825265</v>
       </c>
+      <c r="V50">
+        <v>4.705233206172208</v>
+      </c>
+      <c r="W50">
+        <v>3.7695481722976063</v>
+      </c>
+      <c r="X50">
+        <v>2.9545676609919385</v>
+      </c>
+      <c r="Y50">
+        <f t="shared" si="0"/>
+        <v>2.5828614265669705</v>
+      </c>
+      <c r="Z50">
+        <v>2.5549711916185398</v>
+      </c>
+      <c r="AA50">
+        <v>3.1022102050166578</v>
+      </c>
+      <c r="AB50">
+        <v>2.2225695568961261</v>
+      </c>
+      <c r="AC50">
+        <v>2.5272373368550678</v>
+      </c>
+      <c r="AD50">
+        <v>2.5073188424484618</v>
+      </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>2016</v>
       </c>
@@ -3799,6 +5205,31 @@
       </c>
       <c r="U51">
         <v>2.1916208293278219</v>
+      </c>
+      <c r="V51">
+        <v>4.3836731183765085</v>
+      </c>
+      <c r="W51">
+        <v>3.7719528972360892</v>
+      </c>
+      <c r="X51">
+        <v>2.9026396401262291</v>
+      </c>
+      <c r="Y51">
+        <f t="shared" si="0"/>
+        <v>2.3999856928461725</v>
+      </c>
+      <c r="Z51">
+        <v>2.2787468238034698</v>
+      </c>
+      <c r="AA51">
+        <v>2.725009550488815</v>
+      </c>
+      <c r="AB51">
+        <v>2.1574342630668171</v>
+      </c>
+      <c r="AC51">
+        <v>2.4387521340255871</v>
       </c>
     </row>
   </sheetData>

--- a/my_work/data1/all.xlsx
+++ b/my_work/data1/all.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TD\my_work\data1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48BC64F9-3419-4D57-B4FA-FA32A4890B4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0938E663-AA07-4B7E-A28F-CC22B30B516D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-31860" yWindow="5970" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$51</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -485,15 +488,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD51"/>
+  <dimension ref="A1:AE51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="Y2" sqref="Y2:Y51"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -584,8 +587,12 @@
       <c r="AD1" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="AE1">
+        <f>MIN(B:B)</f>
+        <v>16.229869938280899</v>
+      </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1967</v>
       </c>
@@ -678,7 +685,7 @@
         <v>2.5692576414391821</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1968</v>
       </c>
@@ -771,7 +778,7 @@
         <v>2.810399555782948</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1969</v>
       </c>
@@ -864,7 +871,7 @@
         <v>3.5511385213590718</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1970</v>
       </c>
@@ -957,7 +964,7 @@
         <v>3.1012488271256138</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1971</v>
       </c>
@@ -1050,7 +1057,7 @@
         <v>2.8722594828760299</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1972</v>
       </c>
@@ -1143,7 +1150,7 @@
         <v>2.9970408883194422</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1973</v>
       </c>
@@ -1236,7 +1243,7 @@
         <v>3.2985641772870209</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1974</v>
       </c>
@@ -1329,7 +1336,7 @@
         <v>3.4195780557689961</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1975</v>
       </c>
@@ -1422,7 +1429,7 @@
         <v>3.0146876984501869</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1976</v>
       </c>
@@ -1515,7 +1522,7 @@
         <v>2.935117717811484</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1977</v>
       </c>
@@ -1608,7 +1615,7 @@
         <v>2.3786256718073782</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1978</v>
       </c>
@@ -1701,7 +1708,7 @@
         <v>2.7109572789227219</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1979</v>
       </c>
@@ -1794,7 +1801,7 @@
         <v>3.549317409906644</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1980</v>
       </c>
@@ -1887,7 +1894,7 @@
         <v>3.409324918551746</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1981</v>
       </c>
@@ -5233,6 +5240,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="B1:B51" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/my_work/data1/all.xlsx
+++ b/my_work/data1/all.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TD\my_work\data1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0938E663-AA07-4B7E-A28F-CC22B30B516D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{012F1F69-0853-4128-8CD9-66823291A35D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -490,8 +490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U8" sqref="U8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/my_work/data1/all.xlsx
+++ b/my_work/data1/all.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TD\my_work\data1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{012F1F69-0853-4128-8CD9-66823291A35D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95F60084-A4A2-4DB9-A571-2DD55FEF308C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -488,15 +488,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE51"/>
+  <dimension ref="A1:AF51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U8" sqref="U8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P29" sqref="P29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -588,11 +588,15 @@
         <v>24</v>
       </c>
       <c r="AE1">
-        <f>MIN(B:B)</f>
-        <v>16.229869938280899</v>
+        <f>MAX(S:S)</f>
+        <v>3.0010057663800569</v>
+      </c>
+      <c r="AF1">
+        <f>SUM(S:S)/SUM(P:S)</f>
+        <v>0.19864935492759778</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1967</v>
       </c>
@@ -684,8 +688,12 @@
       <c r="AD2">
         <v>2.5692576414391821</v>
       </c>
+      <c r="AE2">
+        <f>AVERAGE(S:S)</f>
+        <v>2.5961913521700781</v>
+      </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1968</v>
       </c>
@@ -778,7 +786,7 @@
         <v>2.810399555782948</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1969</v>
       </c>
@@ -871,7 +879,7 @@
         <v>3.5511385213590718</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1970</v>
       </c>
@@ -964,7 +972,7 @@
         <v>3.1012488271256138</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1971</v>
       </c>
@@ -1057,7 +1065,7 @@
         <v>2.8722594828760299</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1972</v>
       </c>
@@ -1150,7 +1158,7 @@
         <v>2.9970408883194422</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1973</v>
       </c>
@@ -1243,7 +1251,7 @@
         <v>3.2985641772870209</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1974</v>
       </c>
@@ -1336,7 +1344,7 @@
         <v>3.4195780557689961</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1975</v>
       </c>
@@ -1429,7 +1437,7 @@
         <v>3.0146876984501869</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1976</v>
       </c>
@@ -1522,7 +1530,7 @@
         <v>2.935117717811484</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1977</v>
       </c>
@@ -1615,7 +1623,7 @@
         <v>2.3786256718073782</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1978</v>
       </c>
@@ -1708,7 +1716,7 @@
         <v>2.7109572789227219</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1979</v>
       </c>
@@ -1801,7 +1809,7 @@
         <v>3.549317409906644</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1980</v>
       </c>
@@ -1894,7 +1902,7 @@
         <v>3.409324918551746</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1981</v>
       </c>

--- a/my_work/data1/all.xlsx
+++ b/my_work/data1/all.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TD\my_work\data1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95F60084-A4A2-4DB9-A571-2DD55FEF308C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F16FB99-EABF-45E8-9A7E-C4B83747CF9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Year</t>
   </si>
@@ -488,15 +488,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF51"/>
+  <dimension ref="A1:Y51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P29" sqref="P29"/>
+      <selection activeCell="Y1" sqref="Y1:Y1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="9.25" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -572,31 +575,8 @@
       <c r="Y1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="AE1">
-        <f>MAX(S:S)</f>
-        <v>3.0010057663800569</v>
-      </c>
-      <c r="AF1">
-        <f>SUM(S:S)/SUM(P:S)</f>
-        <v>0.19864935492759778</v>
-      </c>
-    </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1967</v>
       </c>
@@ -661,39 +641,19 @@
         <v>2.0732547468233942</v>
       </c>
       <c r="V2">
-        <v>4.1279499572814142</v>
+        <v>2.192885714502931</v>
       </c>
       <c r="W2">
-        <v>3.5098912431924965</v>
+        <v>2.9662843032247483</v>
       </c>
       <c r="X2">
-        <v>2.6719160397360571</v>
+        <v>2.1510635822667159</v>
       </c>
       <c r="Y2">
-        <f>AVERAGE(Z2:AD2)</f>
-        <v>2.3728963230131237</v>
-      </c>
-      <c r="Z2">
-        <v>2.192885714502931</v>
-      </c>
-      <c r="AA2">
-        <v>2.9662843032247483</v>
-      </c>
-      <c r="AB2">
-        <v>2.1510635822667159</v>
-      </c>
-      <c r="AC2">
         <v>1.984990373632038</v>
       </c>
-      <c r="AD2">
-        <v>2.5692576414391821</v>
-      </c>
-      <c r="AE2">
-        <f>AVERAGE(S:S)</f>
-        <v>2.5961913521700781</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1968</v>
       </c>
@@ -758,35 +718,19 @@
         <v>2.1112825821147476</v>
       </c>
       <c r="V3">
-        <v>4.1352953935856736</v>
+        <v>2.1935116695727221</v>
       </c>
       <c r="W3">
-        <v>3.2827542741593527</v>
+        <v>2.9965206684132686</v>
       </c>
       <c r="X3">
-        <v>2.8029219461683477</v>
+        <v>2.315540233910379</v>
       </c>
       <c r="Y3">
-        <f t="shared" ref="Y3:Y51" si="0">AVERAGE(Z3:AD3)</f>
-        <v>2.5106612744260759</v>
-      </c>
-      <c r="Z3">
-        <v>2.1935116695727221</v>
-      </c>
-      <c r="AA3">
-        <v>2.9965206684132686</v>
-      </c>
-      <c r="AB3">
-        <v>2.315540233910379</v>
-      </c>
-      <c r="AC3">
         <v>2.2373342444510609</v>
       </c>
-      <c r="AD3">
-        <v>2.810399555782948</v>
-      </c>
-    </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1969</v>
       </c>
@@ -851,35 +795,19 @@
         <v>2.2493428384678555</v>
       </c>
       <c r="V4">
-        <v>4.4403820334128046</v>
+        <v>2.2359611178264349</v>
       </c>
       <c r="W4">
-        <v>3.3602476294058525</v>
+        <v>2.9651818264867087</v>
       </c>
       <c r="X4">
-        <v>2.8520749721187979</v>
+        <v>2.5058495675535291</v>
       </c>
       <c r="Y4">
-        <f t="shared" si="0"/>
-        <v>2.7123696366017369</v>
-      </c>
-      <c r="Z4">
-        <v>2.2359611178264349</v>
-      </c>
-      <c r="AA4">
-        <v>2.9651818264867087</v>
-      </c>
-      <c r="AB4">
-        <v>2.5058495675535291</v>
-      </c>
-      <c r="AC4">
         <v>2.303717149782941</v>
       </c>
-      <c r="AD4">
-        <v>3.5511385213590718</v>
-      </c>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1970</v>
       </c>
@@ -944,35 +872,19 @@
         <v>2.1268427246395372</v>
       </c>
       <c r="V5">
-        <v>4.2239338245052629</v>
+        <v>2.2811422651824169</v>
       </c>
       <c r="W5">
-        <v>3.2325193068464535</v>
+        <v>3.0676812299841285</v>
       </c>
       <c r="X5">
-        <v>2.7407307067053233</v>
+        <v>2.4012925335698649</v>
       </c>
       <c r="Y5">
-        <f t="shared" si="0"/>
-        <v>2.6325878607018121</v>
-      </c>
-      <c r="Z5">
-        <v>2.2811422651824169</v>
-      </c>
-      <c r="AA5">
-        <v>3.0676812299841285</v>
-      </c>
-      <c r="AB5">
-        <v>2.4012925335698649</v>
-      </c>
-      <c r="AC5">
         <v>2.3115744476470348</v>
       </c>
-      <c r="AD5">
-        <v>3.1012488271256138</v>
-      </c>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1971</v>
       </c>
@@ -1037,35 +949,19 @@
         <v>2.0335012812230056</v>
       </c>
       <c r="V6">
-        <v>4.2921420684256262</v>
+        <v>2.060927805430151</v>
       </c>
       <c r="W6">
-        <v>3.1867358645927206</v>
+        <v>2.835753488014888</v>
       </c>
       <c r="X6">
-        <v>2.7328996007596431</v>
+        <v>2.260479912578004</v>
       </c>
       <c r="Y6">
-        <f t="shared" si="0"/>
-        <v>2.4360688407531237</v>
-      </c>
-      <c r="Z6">
-        <v>2.060927805430151</v>
-      </c>
-      <c r="AA6">
-        <v>2.835753488014888</v>
-      </c>
-      <c r="AB6">
-        <v>2.260479912578004</v>
-      </c>
-      <c r="AC6">
         <v>2.150923514866546</v>
       </c>
-      <c r="AD6">
-        <v>2.8722594828760299</v>
-      </c>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1972</v>
       </c>
@@ -1130,35 +1026,19 @@
         <v>2.1037945216070706</v>
       </c>
       <c r="V7">
-        <v>4.2986139883382481</v>
+        <v>2.1960154898518862</v>
       </c>
       <c r="W7">
-        <v>3.6585388710237012</v>
+        <v>3.1174661291673491</v>
       </c>
       <c r="X7">
-        <v>2.8584085893195477</v>
+        <v>2.3278844186651479</v>
       </c>
       <c r="Y7">
-        <f t="shared" si="0"/>
-        <v>2.5653226525843116</v>
-      </c>
-      <c r="Z7">
-        <v>2.1960154898518862</v>
-      </c>
-      <c r="AA7">
-        <v>3.1174661291673491</v>
-      </c>
-      <c r="AB7">
-        <v>2.3278844186651479</v>
-      </c>
-      <c r="AC7">
         <v>2.188206336917732</v>
       </c>
-      <c r="AD7">
-        <v>2.9970408883194422</v>
-      </c>
-    </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1973</v>
       </c>
@@ -1223,35 +1103,19 @@
         <v>2.0832105585495468</v>
       </c>
       <c r="V8">
-        <v>4.3195914741308679</v>
+        <v>2.405758910841286</v>
       </c>
       <c r="W8">
-        <v>3.3796314374755942</v>
+        <v>2.8398264587804678</v>
       </c>
       <c r="X8">
-        <v>2.529625055979301</v>
+        <v>2.3940828087224628</v>
       </c>
       <c r="Y8">
-        <f t="shared" si="0"/>
-        <v>2.65233543893173</v>
-      </c>
-      <c r="Z8">
-        <v>2.405758910841286</v>
-      </c>
-      <c r="AA8">
-        <v>2.8398264587804678</v>
-      </c>
-      <c r="AB8">
-        <v>2.3940828087224628</v>
-      </c>
-      <c r="AC8">
         <v>2.3234448390274141</v>
       </c>
-      <c r="AD8">
-        <v>3.2985641772870209</v>
-      </c>
-    </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1974</v>
       </c>
@@ -1316,35 +1180,19 @@
         <v>2.0691642036105744</v>
       </c>
       <c r="V9">
-        <v>4.0322175671603357</v>
+        <v>2.4618668546063458</v>
       </c>
       <c r="W9">
-        <v>3.0496467736921051</v>
+        <v>3.4776788439738091</v>
       </c>
       <c r="X9">
-        <v>2.7231360560031685</v>
+        <v>2.4174191647549939</v>
       </c>
       <c r="Y9">
-        <f t="shared" si="0"/>
-        <v>2.81582235560799</v>
-      </c>
-      <c r="Z9">
-        <v>2.4618668546063458</v>
-      </c>
-      <c r="AA9">
-        <v>3.4776788439738091</v>
-      </c>
-      <c r="AB9">
-        <v>2.4174191647549939</v>
-      </c>
-      <c r="AC9">
         <v>2.302568858935806</v>
       </c>
-      <c r="AD9">
-        <v>3.4195780557689961</v>
-      </c>
-    </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1975</v>
       </c>
@@ -1409,35 +1257,19 @@
         <v>2.1481224810495192</v>
       </c>
       <c r="V10">
-        <v>4.3991966987211413</v>
+        <v>2.4434789960390151</v>
       </c>
       <c r="W10">
-        <v>3.4184695676879171</v>
+        <v>3.3033303199764683</v>
       </c>
       <c r="X10">
-        <v>2.7645774730988397</v>
+        <v>2.2879858039035881</v>
       </c>
       <c r="Y10">
-        <f t="shared" si="0"/>
-        <v>2.6774303971780089</v>
-      </c>
-      <c r="Z10">
-        <v>2.4434789960390151</v>
-      </c>
-      <c r="AA10">
-        <v>3.3033303199764683</v>
-      </c>
-      <c r="AB10">
-        <v>2.2879858039035881</v>
-      </c>
-      <c r="AC10">
         <v>2.3376691675207861</v>
       </c>
-      <c r="AD10">
-        <v>3.0146876984501869</v>
-      </c>
-    </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1976</v>
       </c>
@@ -1502,35 +1334,19 @@
         <v>2.0164702258233809</v>
       </c>
       <c r="V11">
-        <v>4.1751539494012953</v>
+        <v>2.3908127907057302</v>
       </c>
       <c r="W11">
-        <v>3.3527775149995866</v>
+        <v>3.2974877756835821</v>
       </c>
       <c r="X11">
-        <v>2.5942491226719726</v>
+        <v>2.1162369639705569</v>
       </c>
       <c r="Y11">
-        <f t="shared" si="0"/>
-        <v>2.5946402512808859</v>
-      </c>
-      <c r="Z11">
-        <v>2.3908127907057302</v>
-      </c>
-      <c r="AA11">
-        <v>3.2974877756835821</v>
-      </c>
-      <c r="AB11">
-        <v>2.1162369639705569</v>
-      </c>
-      <c r="AC11">
         <v>2.2335460082330769</v>
       </c>
-      <c r="AD11">
-        <v>2.935117717811484</v>
-      </c>
-    </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1977</v>
       </c>
@@ -1595,35 +1411,19 @@
         <v>2.0758136339032394</v>
       </c>
       <c r="V12">
-        <v>4.1050384347960254</v>
+        <v>2.2935109052642049</v>
       </c>
       <c r="W12">
-        <v>3.3643128449768369</v>
+        <v>3.3131721321966556</v>
       </c>
       <c r="X12">
-        <v>2.5777949121149368</v>
+        <v>2.1608120054979238</v>
       </c>
       <c r="Y12">
-        <f t="shared" si="0"/>
-        <v>2.4551449635832201</v>
-      </c>
-      <c r="Z12">
-        <v>2.2935109052642049</v>
-      </c>
-      <c r="AA12">
-        <v>3.3131721321966556</v>
-      </c>
-      <c r="AB12">
-        <v>2.1608120054979238</v>
-      </c>
-      <c r="AC12">
         <v>2.1296041031499371</v>
       </c>
-      <c r="AD12">
-        <v>2.3786256718073782</v>
-      </c>
-    </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1978</v>
       </c>
@@ -1688,35 +1488,19 @@
         <v>2.1117344000269909</v>
       </c>
       <c r="V13">
-        <v>4.021301162160638</v>
+        <v>2.4207495459846839</v>
       </c>
       <c r="W13">
-        <v>3.3814905574649385</v>
+        <v>3.2683259140994751</v>
       </c>
       <c r="X13">
-        <v>2.7433539233145661</v>
+        <v>2.364744042980369</v>
       </c>
       <c r="Y13">
-        <f t="shared" si="0"/>
-        <v>2.5700820010762957</v>
-      </c>
-      <c r="Z13">
-        <v>2.4207495459846839</v>
-      </c>
-      <c r="AA13">
-        <v>3.2683259140994751</v>
-      </c>
-      <c r="AB13">
-        <v>2.364744042980369</v>
-      </c>
-      <c r="AC13">
         <v>2.0856332233942299</v>
       </c>
-      <c r="AD13">
-        <v>2.7109572789227219</v>
-      </c>
-    </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1979</v>
       </c>
@@ -1781,35 +1565,19 @@
         <v>2.2210059031537837</v>
       </c>
       <c r="V14">
-        <v>4.6504026649102874</v>
+        <v>2.772399464853804</v>
       </c>
       <c r="W14">
-        <v>3.3321849827272181</v>
+        <v>3.3343354579261608</v>
       </c>
       <c r="X14">
-        <v>2.4998795275797505</v>
+        <v>2.27872185291739</v>
       </c>
       <c r="Y14">
-        <f t="shared" si="0"/>
-        <v>2.8529296803001012</v>
-      </c>
-      <c r="Z14">
-        <v>2.772399464853804</v>
-      </c>
-      <c r="AA14">
-        <v>3.3343354579261608</v>
-      </c>
-      <c r="AB14">
-        <v>2.27872185291739</v>
-      </c>
-      <c r="AC14">
         <v>2.3298742158965071</v>
       </c>
-      <c r="AD14">
-        <v>3.549317409906644</v>
-      </c>
-    </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1980</v>
       </c>
@@ -1874,35 +1642,19 @@
         <v>2.2254975289861161</v>
       </c>
       <c r="V15">
-        <v>4.5099202662894751</v>
+        <v>2.6374913469821641</v>
       </c>
       <c r="W15">
-        <v>3.3180893761998407</v>
+        <v>3.2741175985120372</v>
       </c>
       <c r="X15">
-        <v>2.6826110869440329</v>
+        <v>2.242495687837772</v>
       </c>
       <c r="Y15">
-        <f t="shared" si="0"/>
-        <v>2.7540815127198037</v>
-      </c>
-      <c r="Z15">
-        <v>2.6374913469821641</v>
-      </c>
-      <c r="AA15">
-        <v>3.2741175985120372</v>
-      </c>
-      <c r="AB15">
-        <v>2.242495687837772</v>
-      </c>
-      <c r="AC15">
         <v>2.2069780117152988</v>
       </c>
-      <c r="AD15">
-        <v>3.409324918551746</v>
-      </c>
-    </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1981</v>
       </c>
@@ -1967,35 +1719,19 @@
         <v>2.1230948277258705</v>
       </c>
       <c r="V16">
-        <v>4.0404277729102152</v>
+        <v>2.430506172356071</v>
       </c>
       <c r="W16">
-        <v>3.4310883305424844</v>
+        <v>3.3759095582489489</v>
       </c>
       <c r="X16">
-        <v>3.0584227466247</v>
+        <v>2.2257773266330281</v>
       </c>
       <c r="Y16">
-        <f t="shared" si="0"/>
-        <v>2.6133513918027069</v>
-      </c>
-      <c r="Z16">
-        <v>2.430506172356071</v>
-      </c>
-      <c r="AA16">
-        <v>3.3759095582489489</v>
-      </c>
-      <c r="AB16">
-        <v>2.2257773266330281</v>
-      </c>
-      <c r="AC16">
         <v>2.098824007385439</v>
       </c>
-      <c r="AD16">
-        <v>2.935739894390049</v>
-      </c>
-    </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1982</v>
       </c>
@@ -2060,35 +1796,19 @@
         <v>2.100984667498687</v>
       </c>
       <c r="V17">
-        <v>4.381562549949332</v>
+        <v>2.2191247510598102</v>
       </c>
       <c r="W17">
-        <v>3.5352436089108181</v>
+        <v>2.9762551232121628</v>
       </c>
       <c r="X17">
-        <v>2.7992348596112242</v>
+        <v>1.950654362086411</v>
       </c>
       <c r="Y17">
-        <f t="shared" si="0"/>
-        <v>2.4148684598550938</v>
-      </c>
-      <c r="Z17">
-        <v>2.2191247510598102</v>
-      </c>
-      <c r="AA17">
-        <v>2.9762551232121628</v>
-      </c>
-      <c r="AB17">
-        <v>1.950654362086411</v>
-      </c>
-      <c r="AC17">
         <v>2.1078310023928211</v>
       </c>
-      <c r="AD17">
-        <v>2.8204770605242651</v>
-      </c>
-    </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1983</v>
       </c>
@@ -2153,35 +1873,19 @@
         <v>2.1517740421740363</v>
       </c>
       <c r="V18">
-        <v>4.389712632064124</v>
+        <v>2.1101275846686112</v>
       </c>
       <c r="W18">
-        <v>3.799056760401764</v>
+        <v>3.0525821652898748</v>
       </c>
       <c r="X18">
-        <v>2.6532025936871384</v>
+        <v>1.8429074248306481</v>
       </c>
       <c r="Y18">
-        <f t="shared" si="0"/>
-        <v>2.3443117930416193</v>
-      </c>
-      <c r="Z18">
-        <v>2.1101275846686112</v>
-      </c>
-      <c r="AA18">
-        <v>3.0525821652898748</v>
-      </c>
-      <c r="AB18">
-        <v>1.8429074248306481</v>
-      </c>
-      <c r="AC18">
         <v>2.1379744603355491</v>
       </c>
-      <c r="AD18">
-        <v>2.5779673300834149</v>
-      </c>
-    </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1984</v>
       </c>
@@ -2246,35 +1950,19 @@
         <v>2.1640562977895925</v>
       </c>
       <c r="V19">
-        <v>4.3045855877198749</v>
+        <v>2.7236938892291298</v>
       </c>
       <c r="W19">
-        <v>3.400313478067214</v>
+        <v>3.862897767704363</v>
       </c>
       <c r="X19">
-        <v>2.8178677135512493</v>
+        <v>2.2118797819316298</v>
       </c>
       <c r="Y19">
-        <f t="shared" si="0"/>
-        <v>2.8775133930371419</v>
-      </c>
-      <c r="Z19">
-        <v>2.7236938892291298</v>
-      </c>
-      <c r="AA19">
-        <v>3.862897767704363</v>
-      </c>
-      <c r="AB19">
-        <v>2.2118797819316298</v>
-      </c>
-      <c r="AC19">
         <v>2.310445515897249</v>
       </c>
-      <c r="AD19">
-        <v>3.2786500104233371</v>
-      </c>
-    </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1985</v>
       </c>
@@ -2339,35 +2027,19 @@
         <v>2.0821483707852404</v>
       </c>
       <c r="V20">
-        <v>3.9261188616092242</v>
+        <v>2.7052167233374091</v>
       </c>
       <c r="W20">
-        <v>3.2680590447970501</v>
+        <v>3.1866069998070752</v>
       </c>
       <c r="X20">
-        <v>2.6909283101784531</v>
+        <v>2.0225655550469859</v>
       </c>
       <c r="Y20">
-        <f t="shared" si="0"/>
-        <v>2.6970547394806887</v>
-      </c>
-      <c r="Z20">
-        <v>2.7052167233374091</v>
-      </c>
-      <c r="AA20">
-        <v>3.1866069998070752</v>
-      </c>
-      <c r="AB20">
-        <v>2.0225655550469859</v>
-      </c>
-      <c r="AC20">
         <v>2.3259596544513821</v>
       </c>
-      <c r="AD20">
-        <v>3.2449247647605901</v>
-      </c>
-    </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1986</v>
       </c>
@@ -2432,35 +2104,19 @@
         <v>2.1347008660888656</v>
       </c>
       <c r="V21">
-        <v>4.212078529877421</v>
+        <v>2.5544812340567811</v>
       </c>
       <c r="W21">
-        <v>3.4776520568632137</v>
+        <v>3.4764080860465092</v>
       </c>
       <c r="X21">
-        <v>2.5655349897146302</v>
+        <v>2.1733359599478348</v>
       </c>
       <c r="Y21">
-        <f t="shared" si="0"/>
-        <v>2.7232547971136527</v>
-      </c>
-      <c r="Z21">
-        <v>2.5544812340567811</v>
-      </c>
-      <c r="AA21">
-        <v>3.4764080860465092</v>
-      </c>
-      <c r="AB21">
-        <v>2.1733359599478348</v>
-      </c>
-      <c r="AC21">
         <v>2.355781738151641</v>
       </c>
-      <c r="AD21">
-        <v>3.056266967365497</v>
-      </c>
-    </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1987</v>
       </c>
@@ -2525,35 +2181,19 @@
         <v>2.1668602322287702</v>
       </c>
       <c r="V22">
-        <v>4.5733200338201652</v>
+        <v>2.163954009622497</v>
       </c>
       <c r="W22">
-        <v>3.0872037542541007</v>
+        <v>3.14037465964878</v>
       </c>
       <c r="X22">
-        <v>2.6837378364311459</v>
+        <v>2.3410919273245989</v>
       </c>
       <c r="Y22">
-        <f t="shared" si="0"/>
-        <v>2.4630714721348399</v>
-      </c>
-      <c r="Z22">
-        <v>2.163954009622497</v>
-      </c>
-      <c r="AA22">
-        <v>3.14037465964878</v>
-      </c>
-      <c r="AB22">
-        <v>2.3410919273245989</v>
-      </c>
-      <c r="AC22">
         <v>2.011455818606779</v>
       </c>
-      <c r="AD22">
-        <v>2.6584809454715441</v>
-      </c>
-    </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1988</v>
       </c>
@@ -2618,35 +2258,19 @@
         <v>2.1567027842404141</v>
       </c>
       <c r="V23">
-        <v>4.0581365494627404</v>
+        <v>2.3779216789185451</v>
       </c>
       <c r="W23">
-        <v>3.42603124459096</v>
+        <v>3.323534831901247</v>
       </c>
       <c r="X23">
-        <v>2.3929054121817011</v>
+        <v>2.4325792973677238</v>
       </c>
       <c r="Y23">
-        <f t="shared" si="0"/>
-        <v>2.7113234418970444</v>
-      </c>
-      <c r="Z23">
-        <v>2.3779216789185451</v>
-      </c>
-      <c r="AA23">
-        <v>3.323534831901247</v>
-      </c>
-      <c r="AB23">
-        <v>2.4325792973677238</v>
-      </c>
-      <c r="AC23">
         <v>2.2863056132041879</v>
       </c>
-      <c r="AD23">
-        <v>3.1362757880935161</v>
-      </c>
-    </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1989</v>
       </c>
@@ -2711,35 +2335,19 @@
         <v>2.1374088624904202</v>
       </c>
       <c r="V24">
-        <v>4.1190551141460379</v>
+        <v>2.2848769299225871</v>
       </c>
       <c r="W24">
-        <v>3.466520485069478</v>
+        <v>2.9047749102030829</v>
       </c>
       <c r="X24">
-        <v>2.5321241604321951</v>
+        <v>2.345505125562934</v>
       </c>
       <c r="Y24">
-        <f t="shared" si="0"/>
-        <v>2.525872105884035</v>
-      </c>
-      <c r="Z24">
-        <v>2.2848769299225871</v>
-      </c>
-      <c r="AA24">
-        <v>2.9047749102030829</v>
-      </c>
-      <c r="AB24">
-        <v>2.345505125562934</v>
-      </c>
-      <c r="AC24">
         <v>2.2847433541917388</v>
       </c>
-      <c r="AD24">
-        <v>2.8094602095398331</v>
-      </c>
-    </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1990</v>
       </c>
@@ -2804,35 +2412,19 @@
         <v>2.0885148866556635</v>
       </c>
       <c r="V25">
-        <v>3.6181407454013006</v>
+        <v>2.2104990251138168</v>
       </c>
       <c r="W25">
-        <v>3.4035884908413259</v>
+        <v>2.9343943888336081</v>
       </c>
       <c r="X25">
-        <v>2.7047134325524658</v>
+        <v>2.0883329435396569</v>
       </c>
       <c r="Y25">
-        <f t="shared" si="0"/>
-        <v>2.512009743754144</v>
-      </c>
-      <c r="Z25">
-        <v>2.2104990251138168</v>
-      </c>
-      <c r="AA25">
-        <v>2.9343943888336081</v>
-      </c>
-      <c r="AB25">
-        <v>2.0883329435396569</v>
-      </c>
-      <c r="AC25">
         <v>2.2230080754886381</v>
       </c>
-      <c r="AD25">
-        <v>3.1038142857950008</v>
-      </c>
-    </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1991</v>
       </c>
@@ -2897,35 +2489,19 @@
         <v>2.1121277132715348</v>
       </c>
       <c r="V26">
-        <v>4.4268903494545917</v>
+        <v>2.2379765302648509</v>
       </c>
       <c r="W26">
-        <v>3.1612266414239301</v>
+        <v>3.0378854165367639</v>
       </c>
       <c r="X26">
-        <v>2.6367335902044946</v>
+        <v>2.247759967912959</v>
       </c>
       <c r="Y26">
-        <f t="shared" si="0"/>
-        <v>2.628108123973103</v>
-      </c>
-      <c r="Z26">
-        <v>2.2379765302648509</v>
-      </c>
-      <c r="AA26">
-        <v>3.0378854165367639</v>
-      </c>
-      <c r="AB26">
-        <v>2.247759967912959</v>
-      </c>
-      <c r="AC26">
         <v>2.5217323158084768</v>
       </c>
-      <c r="AD26">
-        <v>3.0951863893424649</v>
-      </c>
-    </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1992</v>
       </c>
@@ -2990,35 +2566,19 @@
         <v>2.1525247106477394</v>
       </c>
       <c r="V27">
-        <v>4.4606099799019088</v>
+        <v>1.89127458649112</v>
       </c>
       <c r="W27">
-        <v>3.8083237531254555</v>
+        <v>2.554809501436484</v>
       </c>
       <c r="X27">
-        <v>2.7023874348131605</v>
+        <v>1.930183596085665</v>
       </c>
       <c r="Y27">
-        <f t="shared" si="0"/>
-        <v>2.1990305449082235</v>
-      </c>
-      <c r="Z27">
-        <v>1.89127458649112</v>
-      </c>
-      <c r="AA27">
-        <v>2.554809501436484</v>
-      </c>
-      <c r="AB27">
-        <v>1.930183596085665</v>
-      </c>
-      <c r="AC27">
         <v>2.18910450265912</v>
       </c>
-      <c r="AD27">
-        <v>2.4297805378687309</v>
-      </c>
-    </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1993</v>
       </c>
@@ -3083,35 +2643,19 @@
         <v>2.1156555498093716</v>
       </c>
       <c r="V28">
-        <v>4.3821400916304745</v>
+        <v>2.0112624870264089</v>
       </c>
       <c r="W28">
-        <v>3.6483946722345415</v>
+        <v>2.6715967161452849</v>
       </c>
       <c r="X28">
-        <v>2.6980267166429166</v>
+        <v>2.128004939020518</v>
       </c>
       <c r="Y28">
-        <f t="shared" si="0"/>
-        <v>2.3719359050963487</v>
-      </c>
-      <c r="Z28">
-        <v>2.0112624870264089</v>
-      </c>
-      <c r="AA28">
-        <v>2.6715967161452849</v>
-      </c>
-      <c r="AB28">
-        <v>2.128004939020518</v>
-      </c>
-      <c r="AC28">
         <v>2.253449283178028</v>
       </c>
-      <c r="AD28">
-        <v>2.795366100111504</v>
-      </c>
-    </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1994</v>
       </c>
@@ -3176,35 +2720,19 @@
         <v>2.1651339894740222</v>
       </c>
       <c r="V29">
-        <v>4.3361153534367975</v>
+        <v>2.5394664303180972</v>
       </c>
       <c r="W29">
-        <v>3.5698155340552504</v>
+        <v>3.3202297671824161</v>
       </c>
       <c r="X29">
-        <v>2.8299131458468922</v>
+        <v>2.5015615039017911</v>
       </c>
       <c r="Y29">
-        <f t="shared" si="0"/>
-        <v>2.7584602133897094</v>
-      </c>
-      <c r="Z29">
-        <v>2.5394664303180972</v>
-      </c>
-      <c r="AA29">
-        <v>3.3202297671824161</v>
-      </c>
-      <c r="AB29">
-        <v>2.5015615039017911</v>
-      </c>
-      <c r="AC29">
         <v>2.2169871064979318</v>
       </c>
-      <c r="AD29">
-        <v>3.2140562590483088</v>
-      </c>
-    </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1995</v>
       </c>
@@ -3269,35 +2797,19 @@
         <v>2.1178737296276093</v>
       </c>
       <c r="V30">
-        <v>4.3267684620781548</v>
+        <v>2.082902231036035</v>
       </c>
       <c r="W30">
-        <v>3.340615673367636</v>
+        <v>2.8210022403212491</v>
       </c>
       <c r="X30">
-        <v>2.6514032176817786</v>
+        <v>2.308630114930625</v>
       </c>
       <c r="Y30">
-        <f t="shared" si="0"/>
-        <v>2.3672197363984866</v>
-      </c>
-      <c r="Z30">
-        <v>2.082902231036035</v>
-      </c>
-      <c r="AA30">
-        <v>2.8210022403212491</v>
-      </c>
-      <c r="AB30">
-        <v>2.308630114930625</v>
-      </c>
-      <c r="AC30">
         <v>2.0720695293114928</v>
       </c>
-      <c r="AD30">
-        <v>2.5514945663930311</v>
-      </c>
-    </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1996</v>
       </c>
@@ -3362,35 +2874,19 @@
         <v>2.1023941750326705</v>
       </c>
       <c r="V31">
-        <v>4.1266365269141962</v>
+        <v>2.138465069776045</v>
       </c>
       <c r="W31">
-        <v>3.3362101743762453</v>
+        <v>3.1188727193931838</v>
       </c>
       <c r="X31">
-        <v>2.7654904818954322</v>
+        <v>2.3331412134821088</v>
       </c>
       <c r="Y31">
-        <f t="shared" si="0"/>
-        <v>2.4734904366746853</v>
-      </c>
-      <c r="Z31">
-        <v>2.138465069776045</v>
-      </c>
-      <c r="AA31">
-        <v>3.1188727193931838</v>
-      </c>
-      <c r="AB31">
-        <v>2.3331412134821088</v>
-      </c>
-      <c r="AC31">
         <v>2.063360771300629</v>
       </c>
-      <c r="AD31">
-        <v>2.7136124094214589</v>
-      </c>
-    </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1997</v>
       </c>
@@ -3455,35 +2951,19 @@
         <v>2.1195571239622764</v>
       </c>
       <c r="V32">
-        <v>4.1001382021258976</v>
+        <v>2.0320534919419728</v>
       </c>
       <c r="W32">
-        <v>3.3918896439657331</v>
+        <v>2.6985285155272569</v>
       </c>
       <c r="X32">
-        <v>2.7507641634458948</v>
+        <v>2.0551849286600521</v>
       </c>
       <c r="Y32">
-        <f t="shared" si="0"/>
-        <v>2.310579996661327</v>
-      </c>
-      <c r="Z32">
-        <v>2.0320534919419728</v>
-      </c>
-      <c r="AA32">
-        <v>2.6985285155272569</v>
-      </c>
-      <c r="AB32">
-        <v>2.0551849286600521</v>
-      </c>
-      <c r="AC32">
         <v>2.2530575860367561</v>
       </c>
-      <c r="AD32">
-        <v>2.5140754611405951</v>
-      </c>
-    </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1998</v>
       </c>
@@ -3548,35 +3028,19 @@
         <v>2.1752752556115471</v>
       </c>
       <c r="V33">
-        <v>4.0753703856662282</v>
+        <v>2.4420657945118491</v>
       </c>
       <c r="W33">
-        <v>3.0625424835542412</v>
+        <v>2.9995022881038689</v>
       </c>
       <c r="X33">
-        <v>2.8849809278374372</v>
+        <v>2.1693755852279799</v>
       </c>
       <c r="Y33">
-        <f t="shared" si="0"/>
-        <v>2.5680479266163858</v>
-      </c>
-      <c r="Z33">
-        <v>2.4420657945118491</v>
-      </c>
-      <c r="AA33">
-        <v>2.9995022881038689</v>
-      </c>
-      <c r="AB33">
-        <v>2.1693755852279799</v>
-      </c>
-      <c r="AC33">
         <v>2.3143521267680951</v>
       </c>
-      <c r="AD33">
-        <v>2.9149438384701361</v>
-      </c>
-    </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1999</v>
       </c>
@@ -3641,35 +3105,19 @@
         <v>2.1364300646013392</v>
       </c>
       <c r="V34">
-        <v>4.0476862262022646</v>
+        <v>2.2437319832029998</v>
       </c>
       <c r="W34">
-        <v>3.3780522358091076</v>
+        <v>3.1249468790254822</v>
       </c>
       <c r="X34">
-        <v>2.7530593971847117</v>
+        <v>2.3268106666251209</v>
       </c>
       <c r="Y34">
-        <f t="shared" si="0"/>
-        <v>2.5107268520239385</v>
-      </c>
-      <c r="Z34">
-        <v>2.2437319832029998</v>
-      </c>
-      <c r="AA34">
-        <v>3.1249468790254822</v>
-      </c>
-      <c r="AB34">
-        <v>2.3268106666251209</v>
-      </c>
-      <c r="AC34">
         <v>2.1492713078669712</v>
       </c>
-      <c r="AD34">
-        <v>2.7088734233991181</v>
-      </c>
-    </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>2000</v>
       </c>
@@ -3734,35 +3182,19 @@
         <v>2.0588428400582068</v>
       </c>
       <c r="V35">
-        <v>3.6355471190127604</v>
+        <v>2.2564847493397959</v>
       </c>
       <c r="W35">
-        <v>3.3905598494234064</v>
+        <v>2.9445353605674649</v>
       </c>
       <c r="X35">
-        <v>2.7745537667061568</v>
+        <v>2.2431846355783001</v>
       </c>
       <c r="Y35">
-        <f t="shared" si="0"/>
-        <v>2.4764991467199025</v>
-      </c>
-      <c r="Z35">
-        <v>2.2564847493397959</v>
-      </c>
-      <c r="AA35">
-        <v>2.9445353605674649</v>
-      </c>
-      <c r="AB35">
-        <v>2.2431846355783001</v>
-      </c>
-      <c r="AC35">
         <v>2.3061096802053789</v>
       </c>
-      <c r="AD35">
-        <v>2.632181307908573</v>
-      </c>
-    </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>2001</v>
       </c>
@@ -3827,35 +3259,19 @@
         <v>2.0874268481154448</v>
       </c>
       <c r="V36">
-        <v>3.8987831764017962</v>
+        <v>2.3479653075057669</v>
       </c>
       <c r="W36">
-        <v>3.5535112113595657</v>
+        <v>3.0307821345491379</v>
       </c>
       <c r="X36">
-        <v>2.534023363876591</v>
+        <v>2.3127604211174582</v>
       </c>
       <c r="Y36">
-        <f t="shared" si="0"/>
-        <v>2.5369804882743452</v>
-      </c>
-      <c r="Z36">
-        <v>2.3479653075057669</v>
-      </c>
-      <c r="AA36">
-        <v>3.0307821345491379</v>
-      </c>
-      <c r="AB36">
-        <v>2.3127604211174582</v>
-      </c>
-      <c r="AC36">
         <v>2.2935439864732818</v>
       </c>
-      <c r="AD36">
-        <v>2.699850591726082</v>
-      </c>
-    </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>2002</v>
       </c>
@@ -3920,35 +3336,19 @@
         <v>2.1273586980739214</v>
       </c>
       <c r="V37">
-        <v>3.9297722817728209</v>
+        <v>2.3029022506204839</v>
       </c>
       <c r="W37">
-        <v>3.4477808101731329</v>
+        <v>2.9997413891736309</v>
       </c>
       <c r="X37">
-        <v>2.8462016255763958</v>
+        <v>2.1763787507549419</v>
       </c>
       <c r="Y37">
-        <f t="shared" si="0"/>
-        <v>2.4847556743068364</v>
-      </c>
-      <c r="Z37">
-        <v>2.3029022506204839</v>
-      </c>
-      <c r="AA37">
-        <v>2.9997413891736309</v>
-      </c>
-      <c r="AB37">
-        <v>2.1763787507549419</v>
-      </c>
-      <c r="AC37">
         <v>2.3316238953013162</v>
       </c>
-      <c r="AD37">
-        <v>2.6131320856838092</v>
-      </c>
-    </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>2003</v>
       </c>
@@ -4013,35 +3413,19 @@
         <v>2.1517242759556554</v>
       </c>
       <c r="V38">
-        <v>4.1741112322103087</v>
+        <v>2.2304862595806099</v>
       </c>
       <c r="W38">
-        <v>3.5694081293185982</v>
+        <v>2.922687762446778</v>
       </c>
       <c r="X38">
-        <v>2.9012156981667276</v>
+        <v>2.1430874467719399</v>
       </c>
       <c r="Y38">
-        <f t="shared" si="0"/>
-        <v>2.4875380148458479</v>
-      </c>
-      <c r="Z38">
-        <v>2.2304862595806099</v>
-      </c>
-      <c r="AA38">
-        <v>2.922687762446778</v>
-      </c>
-      <c r="AB38">
-        <v>2.1430874467719399</v>
-      </c>
-      <c r="AC38">
         <v>2.3592934058415538</v>
       </c>
-      <c r="AD38">
-        <v>2.782135199588359</v>
-      </c>
-    </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>2004</v>
       </c>
@@ -4106,35 +3490,19 @@
         <v>2.1498568520592731</v>
       </c>
       <c r="V39">
-        <v>4.0499463582647461</v>
+        <v>2.3384569198314309</v>
       </c>
       <c r="W39">
-        <v>3.5781334169591927</v>
+        <v>2.9397332487382819</v>
       </c>
       <c r="X39">
-        <v>2.7702358783251286</v>
+        <v>2.2993935378942369</v>
       </c>
       <c r="Y39">
-        <f t="shared" si="0"/>
-        <v>2.5557408408631623</v>
-      </c>
-      <c r="Z39">
-        <v>2.3384569198314309</v>
-      </c>
-      <c r="AA39">
-        <v>2.9397332487382819</v>
-      </c>
-      <c r="AB39">
-        <v>2.2993935378942369</v>
-      </c>
-      <c r="AC39">
         <v>2.470051598903392</v>
       </c>
-      <c r="AD39">
-        <v>2.731068898948469</v>
-      </c>
-    </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>2005</v>
       </c>
@@ -4199,35 +3567,19 @@
         <v>2.2633623130462959</v>
       </c>
       <c r="V40">
-        <v>4.4371584073111974</v>
+        <v>2.879397347003223</v>
       </c>
       <c r="W40">
-        <v>3.7226749506249144</v>
+        <v>2.9790618755503271</v>
       </c>
       <c r="X40">
-        <v>2.9665355140520782</v>
+        <v>2.3306228132730511</v>
       </c>
       <c r="Y40">
-        <f t="shared" si="0"/>
-        <v>2.7549783549031366</v>
-      </c>
-      <c r="Z40">
-        <v>2.879397347003223</v>
-      </c>
-      <c r="AA40">
-        <v>2.9790618755503271</v>
-      </c>
-      <c r="AB40">
-        <v>2.3306228132730511</v>
-      </c>
-      <c r="AC40">
         <v>2.5635587023852038</v>
       </c>
-      <c r="AD40">
-        <v>3.022251036303877</v>
-      </c>
-    </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>2006</v>
       </c>
@@ -4292,35 +3644,19 @@
         <v>2.2516576910571335</v>
       </c>
       <c r="V41">
-        <v>4.4230505000332538</v>
+        <v>2.8525702253189822</v>
       </c>
       <c r="W41">
-        <v>3.9736350719657012</v>
+        <v>3.0292153917551641</v>
       </c>
       <c r="X41">
-        <v>2.924752601121785</v>
+        <v>2.3778001003360552</v>
       </c>
       <c r="Y41">
-        <f t="shared" si="0"/>
-        <v>2.7880451741530918</v>
-      </c>
-      <c r="Z41">
-        <v>2.8525702253189822</v>
-      </c>
-      <c r="AA41">
-        <v>3.0292153917551641</v>
-      </c>
-      <c r="AB41">
-        <v>2.3778001003360552</v>
-      </c>
-      <c r="AC41">
         <v>2.6594345619992148</v>
       </c>
-      <c r="AD41">
-        <v>3.0212055913560429</v>
-      </c>
-    </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>2007</v>
       </c>
@@ -4385,35 +3721,19 @@
         <v>2.1460276412078505</v>
       </c>
       <c r="V42">
-        <v>4.0688141205422701</v>
+        <v>2.4412821526609658</v>
       </c>
       <c r="W42">
-        <v>3.5773943190921571</v>
+        <v>2.8745663892309699</v>
       </c>
       <c r="X42">
-        <v>2.558773642529832</v>
+        <v>2.212559189610972</v>
       </c>
       <c r="Y42">
-        <f t="shared" si="0"/>
-        <v>2.5165141017365871</v>
-      </c>
-      <c r="Z42">
-        <v>2.4412821526609658</v>
-      </c>
-      <c r="AA42">
-        <v>2.8745663892309699</v>
-      </c>
-      <c r="AB42">
-        <v>2.212559189610972</v>
-      </c>
-      <c r="AC42">
         <v>2.6059879933515608</v>
       </c>
-      <c r="AD42">
-        <v>2.448174783828466</v>
-      </c>
-    </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>2008</v>
       </c>
@@ -4478,35 +3798,19 @@
         <v>2.10995694587066</v>
       </c>
       <c r="V43">
-        <v>3.9223541077502988</v>
+        <v>2.3657664898133599</v>
       </c>
       <c r="W43">
-        <v>3.2792193248649903</v>
+        <v>2.808988379465664</v>
       </c>
       <c r="X43">
-        <v>2.8816364256611924</v>
+        <v>2.2417317994908079</v>
       </c>
       <c r="Y43">
-        <f t="shared" si="0"/>
-        <v>2.4302503618499762</v>
-      </c>
-      <c r="Z43">
-        <v>2.3657664898133599</v>
-      </c>
-      <c r="AA43">
-        <v>2.808988379465664</v>
-      </c>
-      <c r="AB43">
-        <v>2.2417317994908079</v>
-      </c>
-      <c r="AC43">
         <v>2.4847724115484171</v>
       </c>
-      <c r="AD43">
-        <v>2.2499927289316339</v>
-      </c>
-    </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>2009</v>
       </c>
@@ -4571,35 +3875,19 @@
         <v>2.3112181487037584</v>
       </c>
       <c r="V44">
-        <v>4.264587863674941</v>
+        <v>2.799712101934182</v>
       </c>
       <c r="W44">
-        <v>3.7172766534171613</v>
+        <v>3.231033332742089</v>
       </c>
       <c r="X44">
-        <v>3.3210167600160658</v>
+        <v>2.5078838621982902</v>
       </c>
       <c r="Y44">
-        <f t="shared" si="0"/>
-        <v>2.8166709018623814</v>
-      </c>
-      <c r="Z44">
-        <v>2.799712101934182</v>
-      </c>
-      <c r="AA44">
-        <v>3.231033332742089</v>
-      </c>
-      <c r="AB44">
-        <v>2.5078838621982902</v>
-      </c>
-      <c r="AC44">
         <v>2.7381618602845501</v>
       </c>
-      <c r="AD44">
-        <v>2.8065633521527982</v>
-      </c>
-    </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>2010</v>
       </c>
@@ -4664,35 +3952,19 @@
         <v>2.3236719067659251</v>
       </c>
       <c r="V45">
-        <v>4.4678124048666126</v>
+        <v>3.1816241542069021</v>
       </c>
       <c r="W45">
-        <v>3.6338547043737544</v>
+        <v>3.409364322361494</v>
       </c>
       <c r="X45">
-        <v>2.6901436783168458</v>
+        <v>2.5657991535172382</v>
       </c>
       <c r="Y45">
-        <f t="shared" si="0"/>
-        <v>2.9880360472699454</v>
-      </c>
-      <c r="Z45">
-        <v>3.1816241542069021</v>
-      </c>
-      <c r="AA45">
-        <v>3.409364322361494</v>
-      </c>
-      <c r="AB45">
-        <v>2.5657991535172382</v>
-      </c>
-      <c r="AC45">
         <v>2.8345567244251191</v>
       </c>
-      <c r="AD45">
-        <v>2.9488358818389719</v>
-      </c>
-    </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>2011</v>
       </c>
@@ -4757,35 +4029,19 @@
         <v>2.1333860685692581</v>
       </c>
       <c r="V46">
-        <v>3.8985967579395173</v>
+        <v>2.610870551491896</v>
       </c>
       <c r="W46">
-        <v>3.8644967206844263</v>
+        <v>3.1374881693771322</v>
       </c>
       <c r="X46">
-        <v>2.8300665875307356</v>
+        <v>2.405685079406461</v>
       </c>
       <c r="Y46">
-        <f t="shared" si="0"/>
-        <v>2.6480761515487945</v>
-      </c>
-      <c r="Z46">
-        <v>2.610870551491896</v>
-      </c>
-      <c r="AA46">
-        <v>3.1374881693771322</v>
-      </c>
-      <c r="AB46">
-        <v>2.405685079406461</v>
-      </c>
-      <c r="AC46">
         <v>2.605801684537977</v>
       </c>
-      <c r="AD46">
-        <v>2.4805352729305081</v>
-      </c>
-    </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>2012</v>
       </c>
@@ -4850,35 +4106,19 @@
         <v>2.3114098448190843</v>
       </c>
       <c r="V47">
-        <v>4.5314218084095668</v>
+        <v>3.2806851179039969</v>
       </c>
       <c r="W47">
-        <v>3.6133838138257333</v>
+        <v>3.3034572214077151</v>
       </c>
       <c r="X47">
-        <v>3.0351506715968006</v>
+        <v>2.5737767978561599</v>
       </c>
       <c r="Y47">
-        <f t="shared" si="0"/>
-        <v>3.0010057663800564</v>
-      </c>
-      <c r="Z47">
-        <v>3.2806851179039969</v>
-      </c>
-      <c r="AA47">
-        <v>3.3034572214077151</v>
-      </c>
-      <c r="AB47">
-        <v>2.5737767978561599</v>
-      </c>
-      <c r="AC47">
         <v>2.865582688162887</v>
       </c>
-      <c r="AD47">
-        <v>2.9815270065695261</v>
-      </c>
-    </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>2013</v>
       </c>
@@ -4943,35 +4183,19 @@
         <v>2.2671884355604188</v>
       </c>
       <c r="V48">
-        <v>4.4057687336024767</v>
+        <v>2.861725203052913</v>
       </c>
       <c r="W48">
-        <v>3.8184518428349259</v>
+        <v>3.2721299138057929</v>
       </c>
       <c r="X48">
-        <v>2.8472776686013872</v>
+        <v>2.5995571231672838</v>
       </c>
       <c r="Y48">
-        <f t="shared" si="0"/>
-        <v>2.8247384085174572</v>
-      </c>
-      <c r="Z48">
-        <v>2.861725203052913</v>
-      </c>
-      <c r="AA48">
-        <v>3.2721299138057929</v>
-      </c>
-      <c r="AB48">
-        <v>2.5995571231672838</v>
-      </c>
-      <c r="AC48">
         <v>2.6933781284064788</v>
       </c>
-      <c r="AD48">
-        <v>2.696901674154816</v>
-      </c>
-    </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>2014</v>
       </c>
@@ -5036,35 +4260,19 @@
         <v>2.3075025429023923</v>
       </c>
       <c r="V49">
-        <v>4.8138906576777476</v>
+        <v>2.891810939651164</v>
       </c>
       <c r="W49">
-        <v>3.7023627198545954</v>
+        <v>3.2509468143178859</v>
       </c>
       <c r="X49">
-        <v>3.1169189863254512</v>
+        <v>2.489407590216115</v>
       </c>
       <c r="Y49">
-        <f t="shared" si="0"/>
-        <v>2.844286793357822</v>
-      </c>
-      <c r="Z49">
-        <v>2.891810939651164</v>
-      </c>
-      <c r="AA49">
-        <v>3.2509468143178859</v>
-      </c>
-      <c r="AB49">
-        <v>2.489407590216115</v>
-      </c>
-      <c r="AC49">
         <v>2.870920308055243</v>
       </c>
-      <c r="AD49">
-        <v>2.7183483145487028</v>
-      </c>
-    </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>2015</v>
       </c>
@@ -5129,35 +4337,19 @@
         <v>2.2546322854825265</v>
       </c>
       <c r="V50">
-        <v>4.705233206172208</v>
+        <v>2.5549711916185398</v>
       </c>
       <c r="W50">
-        <v>3.7695481722976063</v>
+        <v>3.1022102050166578</v>
       </c>
       <c r="X50">
-        <v>2.9545676609919385</v>
+        <v>2.2225695568961261</v>
       </c>
       <c r="Y50">
-        <f t="shared" si="0"/>
-        <v>2.5828614265669705</v>
-      </c>
-      <c r="Z50">
-        <v>2.5549711916185398</v>
-      </c>
-      <c r="AA50">
-        <v>3.1022102050166578</v>
-      </c>
-      <c r="AB50">
-        <v>2.2225695568961261</v>
-      </c>
-      <c r="AC50">
         <v>2.5272373368550678</v>
       </c>
-      <c r="AD50">
-        <v>2.5073188424484618</v>
-      </c>
-    </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>2016</v>
       </c>
@@ -5222,28 +4414,15 @@
         <v>2.1916208293278219</v>
       </c>
       <c r="V51">
-        <v>4.3836731183765085</v>
+        <v>2.2787468238034698</v>
       </c>
       <c r="W51">
-        <v>3.7719528972360892</v>
+        <v>2.725009550488815</v>
       </c>
       <c r="X51">
-        <v>2.9026396401262291</v>
+        <v>2.1574342630668171</v>
       </c>
       <c r="Y51">
-        <f t="shared" si="0"/>
-        <v>2.3999856928461725</v>
-      </c>
-      <c r="Z51">
-        <v>2.2787468238034698</v>
-      </c>
-      <c r="AA51">
-        <v>2.725009550488815</v>
-      </c>
-      <c r="AB51">
-        <v>2.1574342630668171</v>
-      </c>
-      <c r="AC51">
         <v>2.4387521340255871</v>
       </c>
     </row>

--- a/my_work/data1/all.xlsx
+++ b/my_work/data1/all.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TD\my_work\data1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F16FB99-EABF-45E8-9A7E-C4B83747CF9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5DBB800-4288-4959-9285-3C30D49D7D8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-6690" yWindow="3210" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -490,8 +490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y1" sqref="Y1:Y1048576"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Z1" sqref="Z1:Z2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/my_work/data1/all.xlsx
+++ b/my_work/data1/all.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TD\my_work\data1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5DBB800-4288-4959-9285-3C30D49D7D8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FA9D84B-9C86-4104-9A2F-7D6800CA0D5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6690" yWindow="3210" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Y$51</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -490,8 +490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Z1" sqref="Z1:Z2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4427,7 +4427,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:B51" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:Y51" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/my_work/data1/all.xlsx
+++ b/my_work/data1/all.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TD\my_work\data1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FA9D84B-9C86-4104-9A2F-7D6800CA0D5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE0A8894-4861-4739-A327-C3EF7AB5DA1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Y$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$X$51</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -490,13 +490,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y1" sqref="Y1:Y1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="5" max="5" width="9.25" customWidth="1"/>
+    <col min="15" max="15" width="9" customWidth="1"/>
+    <col min="20" max="21" width="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.2">
@@ -617,40 +619,40 @@
         <v>78.536224121717012</v>
       </c>
       <c r="N2">
-        <v>3.1515263336065873</v>
+        <v>1150.3071117664044</v>
       </c>
       <c r="O2">
-        <v>-8.1453666393412671E-2</v>
+        <v>-29.730588233595626</v>
       </c>
       <c r="P2">
-        <v>4.1279499572814142</v>
+        <v>123.83849871844242</v>
       </c>
       <c r="Q2">
-        <v>3.5098912431924965</v>
+        <v>105.29673729577489</v>
       </c>
       <c r="R2">
-        <v>2.6719160397360566</v>
+        <v>80.157481192081704</v>
       </c>
       <c r="S2">
-        <v>2.3728963230131228</v>
+        <v>71.186889690393684</v>
       </c>
       <c r="T2">
-        <v>2.0508228883029491</v>
+        <v>748.55035423057643</v>
       </c>
       <c r="U2">
-        <v>2.0732547468233942</v>
+        <v>756.73798259053888</v>
       </c>
       <c r="V2">
-        <v>2.192885714502931</v>
+        <v>65.786571435087936</v>
       </c>
       <c r="W2">
-        <v>2.9662843032247483</v>
+        <v>88.988529096742454</v>
       </c>
       <c r="X2">
-        <v>2.1510635822667159</v>
+        <v>64.531907468001478</v>
       </c>
       <c r="Y2">
-        <v>1.984990373632038</v>
+        <v>59.549711208961142</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.2">
@@ -694,40 +696,40 @@
         <v>77.655973861539863</v>
       </c>
       <c r="N3">
-        <v>3.1501057367554504</v>
+        <v>1149.7885939157393</v>
       </c>
       <c r="O3">
-        <v>-8.2874263244549606E-2</v>
+        <v>-30.249106084260607</v>
       </c>
       <c r="P3">
-        <v>4.1352953935856744</v>
+        <v>124.05886180757024</v>
       </c>
       <c r="Q3">
-        <v>3.2827542741593527</v>
+        <v>98.482628224780584</v>
       </c>
       <c r="R3">
-        <v>2.8029219461683468</v>
+        <v>84.087658385050403</v>
       </c>
       <c r="S3">
-        <v>2.5106612744260759</v>
+        <v>75.319838232782274</v>
       </c>
       <c r="T3">
-        <v>2.0896491137721553</v>
+        <v>762.72192652683668</v>
       </c>
       <c r="U3">
-        <v>2.1112825821147476</v>
+        <v>770.61814247188283</v>
       </c>
       <c r="V3">
-        <v>2.1935116695727221</v>
+        <v>65.805350087181665</v>
       </c>
       <c r="W3">
-        <v>2.9965206684132686</v>
+        <v>89.895620052398058</v>
       </c>
       <c r="X3">
-        <v>2.315540233910379</v>
+        <v>69.466207017311376</v>
       </c>
       <c r="Y3">
-        <v>2.2373342444510609</v>
+        <v>67.120027333531823</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
@@ -771,40 +773,40 @@
         <v>77.213246133691442</v>
       </c>
       <c r="N4">
-        <v>3.3068896186283134</v>
+        <v>1207.0147107993344</v>
       </c>
       <c r="O4">
-        <v>7.3909618628313467E-2</v>
+        <v>26.977010799334415</v>
       </c>
       <c r="P4">
-        <v>4.4403820334128046</v>
+        <v>133.21146100238414</v>
       </c>
       <c r="Q4">
-        <v>3.3602476294058525</v>
+        <v>100.80742888217557</v>
       </c>
       <c r="R4">
-        <v>2.8520749721187979</v>
+        <v>85.562249163563934</v>
       </c>
       <c r="S4">
-        <v>2.7123696366017369</v>
+        <v>81.37108909805211</v>
       </c>
       <c r="T4">
-        <v>2.2196841797876257</v>
+        <v>810.18472562248337</v>
       </c>
       <c r="U4">
-        <v>2.2493428384678555</v>
+        <v>821.01013604076729</v>
       </c>
       <c r="V4">
-        <v>2.2359611178264349</v>
+        <v>67.078833534793048</v>
       </c>
       <c r="W4">
-        <v>2.9651818264867087</v>
+        <v>88.955454794601266</v>
       </c>
       <c r="X4">
-        <v>2.5058495675535291</v>
+        <v>75.175487026605879</v>
       </c>
       <c r="Y4">
-        <v>2.303717149782941</v>
+        <v>69.11151449348823</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.2">
@@ -848,40 +850,40 @@
         <v>78.724183351760814</v>
       </c>
       <c r="N5">
-        <v>3.1742145796151058</v>
+        <v>1158.5883215595136</v>
       </c>
       <c r="O5">
-        <v>-5.8765420384894185E-2</v>
+        <v>-21.449378440486377</v>
       </c>
       <c r="P5">
-        <v>4.2239338245052629</v>
+        <v>126.71801473515788</v>
       </c>
       <c r="Q5">
-        <v>3.2325193068464535</v>
+        <v>96.975579205393601</v>
       </c>
       <c r="R5">
-        <v>2.7407307067053233</v>
+        <v>82.221921201159702</v>
       </c>
       <c r="S5">
-        <v>2.6325878607018121</v>
+        <v>78.977635821054363</v>
       </c>
       <c r="T5">
-        <v>2.1049032819372497</v>
+        <v>768.28969790709618</v>
       </c>
       <c r="U5">
-        <v>2.1268427246395372</v>
+        <v>776.29759449343112</v>
       </c>
       <c r="V5">
-        <v>2.2811422651824169</v>
+        <v>68.434267955472507</v>
       </c>
       <c r="W5">
-        <v>3.0676812299841285</v>
+        <v>92.030436899523849</v>
       </c>
       <c r="X5">
-        <v>2.4012925335698649</v>
+        <v>72.038776007095947</v>
       </c>
       <c r="Y5">
-        <v>2.3115744476470348</v>
+        <v>69.347233429411048</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.2">
@@ -925,40 +927,40 @@
         <v>77.764572141253922</v>
       </c>
       <c r="N6">
-        <v>3.1168101446490653</v>
+        <v>1137.6357027969088</v>
       </c>
       <c r="O6">
-        <v>-0.11616985535093471</v>
+        <v>-42.40199720309117</v>
       </c>
       <c r="P6">
-        <v>4.2921420684256262</v>
+        <v>128.7642620527688</v>
       </c>
       <c r="Q6">
-        <v>3.1867358645927206</v>
+        <v>95.60207593778162</v>
       </c>
       <c r="R6">
-        <v>2.7328996007596436</v>
+        <v>81.986988022789305</v>
       </c>
       <c r="S6">
-        <v>2.4360688407531237</v>
+        <v>73.082065222593712</v>
       </c>
       <c r="T6">
-        <v>2.0105511835126011</v>
+        <v>733.85118198209943</v>
       </c>
       <c r="U6">
-        <v>2.0335012812230056</v>
+        <v>742.22796764639702</v>
       </c>
       <c r="V6">
-        <v>2.060927805430151</v>
+        <v>61.82783416290453</v>
       </c>
       <c r="W6">
-        <v>2.835753488014888</v>
+        <v>85.072604640446642</v>
       </c>
       <c r="X6">
-        <v>2.260479912578004</v>
+        <v>67.814397377340114</v>
       </c>
       <c r="Y6">
-        <v>2.150923514866546</v>
+        <v>64.527705445996375</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.2">
@@ -1002,40 +1004,40 @@
         <v>77.560484479796244</v>
       </c>
       <c r="N7">
-        <v>3.3141250265027851</v>
+        <v>1209.6556346735165</v>
       </c>
       <c r="O7">
-        <v>8.11450265027851E-2</v>
+        <v>29.617934673516562</v>
       </c>
       <c r="P7">
-        <v>4.2986139883382473</v>
+        <v>128.95841965014742</v>
       </c>
       <c r="Q7">
-        <v>3.6585388710237012</v>
+        <v>109.75616613071104</v>
       </c>
       <c r="R7">
-        <v>2.8584085893195472</v>
+        <v>85.752257679586421</v>
       </c>
       <c r="S7">
-        <v>2.5653226525843111</v>
+        <v>76.959679577529329</v>
       </c>
       <c r="T7">
-        <v>2.0746577547528169</v>
+        <v>757.25008048477821</v>
       </c>
       <c r="U7">
-        <v>2.1037945216070706</v>
+        <v>767.88500038658071</v>
       </c>
       <c r="V7">
-        <v>2.1960154898518862</v>
+        <v>65.880464695556583</v>
       </c>
       <c r="W7">
-        <v>3.1174661291673491</v>
+        <v>93.523983875020477</v>
       </c>
       <c r="X7">
-        <v>2.3278844186651479</v>
+        <v>69.836532559954435</v>
       </c>
       <c r="Y7">
-        <v>2.188206336917732</v>
+        <v>65.646190107531964</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.2">
@@ -1079,40 +1081,40 @@
         <v>79.719135700867355</v>
       </c>
       <c r="N8">
-        <v>3.1894851357227587</v>
+        <v>1164.162074538807</v>
       </c>
       <c r="O8">
-        <v>-4.3494864277241252E-2</v>
+        <v>-15.875625461193057</v>
       </c>
       <c r="P8">
-        <v>4.319591474130867</v>
+        <v>129.58774422392599</v>
       </c>
       <c r="Q8">
-        <v>3.3796314374755951</v>
+        <v>101.38894312426785</v>
       </c>
       <c r="R8">
-        <v>2.529625055979301</v>
+        <v>75.888751679379027</v>
       </c>
       <c r="S8">
-        <v>2.6523354389317304</v>
+        <v>79.570063167951915</v>
       </c>
       <c r="T8">
-        <v>2.0580094232512041</v>
+        <v>751.17343948668952</v>
       </c>
       <c r="U8">
-        <v>2.0832105585495468</v>
+        <v>760.37185387058457</v>
       </c>
       <c r="V8">
-        <v>2.405758910841286</v>
+        <v>72.172767325238581</v>
       </c>
       <c r="W8">
-        <v>2.8398264587804678</v>
+        <v>85.19479376341404</v>
       </c>
       <c r="X8">
-        <v>2.3940828087224628</v>
+        <v>71.822484261673878</v>
       </c>
       <c r="Y8">
-        <v>2.3234448390274141</v>
+        <v>69.703345170822416</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.2">
@@ -1156,40 +1158,40 @@
         <v>77.340708411532887</v>
       </c>
       <c r="N9">
-        <v>3.1288526220965336</v>
+        <v>1142.0312070652349</v>
       </c>
       <c r="O9">
-        <v>-0.10412737790346638</v>
+        <v>-38.006492934765227</v>
       </c>
       <c r="P9">
-        <v>4.0322175671603357</v>
+        <v>120.96652701481007</v>
       </c>
       <c r="Q9">
-        <v>3.0496467736921051</v>
+        <v>91.489403210763157</v>
       </c>
       <c r="R9">
-        <v>2.7231360560031681</v>
+        <v>81.694081680095039</v>
       </c>
       <c r="S9">
-        <v>2.8158223556079904</v>
+        <v>84.47467066823971</v>
       </c>
       <c r="T9">
-        <v>2.0532813422091212</v>
+        <v>749.44768990632917</v>
       </c>
       <c r="U9">
-        <v>2.0691642036105744</v>
+        <v>755.2449343178597</v>
       </c>
       <c r="V9">
-        <v>2.4618668546063458</v>
+        <v>73.856005638190368</v>
       </c>
       <c r="W9">
-        <v>3.4776788439738091</v>
+        <v>104.33036531921428</v>
       </c>
       <c r="X9">
-        <v>2.4174191647549939</v>
+        <v>72.522574942649811</v>
       </c>
       <c r="Y9">
-        <v>2.302568858935806</v>
+        <v>69.077065768074178</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.2">
@@ -1233,40 +1235,40 @@
         <v>76.751174065281774</v>
       </c>
       <c r="N10">
-        <v>3.299284748139153</v>
+        <v>1204.2389330707908</v>
       </c>
       <c r="O10">
-        <v>6.6304748139152991E-2</v>
+        <v>24.201233070790842</v>
       </c>
       <c r="P10">
-        <v>4.3991966987211413</v>
+        <v>131.97590096163424</v>
       </c>
       <c r="Q10">
-        <v>3.4184695676879171</v>
+        <v>102.55408703063752</v>
       </c>
       <c r="R10">
-        <v>2.7645774730988397</v>
+        <v>82.937324192965193</v>
       </c>
       <c r="S10">
-        <v>2.6774303971780089</v>
+        <v>80.322911915340271</v>
       </c>
       <c r="T10">
-        <v>2.1166999352034268</v>
+        <v>772.59547634925082</v>
       </c>
       <c r="U10">
-        <v>2.1481224810495192</v>
+        <v>784.06470558307456</v>
       </c>
       <c r="V10">
-        <v>2.4434789960390151</v>
+        <v>73.304369881170459</v>
       </c>
       <c r="W10">
-        <v>3.3033303199764683</v>
+        <v>99.099909599294051</v>
       </c>
       <c r="X10">
-        <v>2.2879858039035881</v>
+        <v>68.639574117107642</v>
       </c>
       <c r="Y10">
-        <v>2.3376691675207861</v>
+        <v>70.130075025623583</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.2">
@@ -1310,40 +1312,40 @@
         <v>76.655247520979145</v>
       </c>
       <c r="N11">
-        <v>3.1129423935175082</v>
+        <v>1136.2239736338904</v>
       </c>
       <c r="O11">
-        <v>-0.12003760648249173</v>
+        <v>-43.813726366109485</v>
       </c>
       <c r="P11">
-        <v>4.1751539494012953</v>
+        <v>125.25461848203886</v>
       </c>
       <c r="Q11">
-        <v>3.3527775149995862</v>
+        <v>100.58332544998758</v>
       </c>
       <c r="R11">
-        <v>2.5942491226719726</v>
+        <v>77.827473680159173</v>
       </c>
       <c r="S11">
-        <v>2.5946402512808864</v>
+        <v>77.839207538426592</v>
       </c>
       <c r="T11">
-        <v>1.9916618837785791</v>
+        <v>726.95658757918136</v>
       </c>
       <c r="U11">
-        <v>2.0164702258233809</v>
+        <v>736.011632425534</v>
       </c>
       <c r="V11">
-        <v>2.3908127907057302</v>
+        <v>71.724383721171904</v>
       </c>
       <c r="W11">
-        <v>3.2974877756835821</v>
+        <v>98.924633270507456</v>
       </c>
       <c r="X11">
-        <v>2.1162369639705569</v>
+        <v>63.487108919116707</v>
       </c>
       <c r="Y11">
-        <v>2.2335460082330769</v>
+        <v>67.006380246992308</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.2">
@@ -1387,40 +1389,40 @@
         <v>77.724981772841176</v>
       </c>
       <c r="N12">
-        <v>3.1025799793752586</v>
+        <v>1132.4416924719694</v>
       </c>
       <c r="O12">
-        <v>-0.13040002062474132</v>
+        <v>-47.596007528030583</v>
       </c>
       <c r="P12">
-        <v>4.1050384347960254</v>
+        <v>123.15115304388075</v>
       </c>
       <c r="Q12">
-        <v>3.3643128449768369</v>
+        <v>100.92938534930511</v>
       </c>
       <c r="R12">
-        <v>2.5777949121149364</v>
+        <v>77.333847363448086</v>
       </c>
       <c r="S12">
-        <v>2.4551449635832201</v>
+        <v>73.654348907496598</v>
       </c>
       <c r="T12">
-        <v>2.0490803342830226</v>
+        <v>747.91432201330326</v>
       </c>
       <c r="U12">
-        <v>2.0758136339032394</v>
+        <v>757.67197637468234</v>
       </c>
       <c r="V12">
-        <v>2.2935109052642049</v>
+        <v>68.805327157926143</v>
       </c>
       <c r="W12">
-        <v>3.3131721321966556</v>
+        <v>99.39516396589967</v>
       </c>
       <c r="X12">
-        <v>2.1608120054979238</v>
+        <v>64.824360164937715</v>
       </c>
       <c r="Y12">
-        <v>2.1296041031499371</v>
+        <v>63.888123094498113</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.2">
@@ -1464,40 +1466,40 @@
         <v>73.80323134885306</v>
       </c>
       <c r="N13">
-        <v>3.1451745613441697</v>
+        <v>1147.9887148906218</v>
       </c>
       <c r="O13">
-        <v>-8.7805438655830237E-2</v>
+        <v>-32.048985109378037</v>
       </c>
       <c r="P13">
-        <v>4.0213011621606372</v>
+        <v>120.63903486481911</v>
       </c>
       <c r="Q13">
-        <v>3.3814905574649385</v>
+        <v>101.44471672394816</v>
       </c>
       <c r="R13">
-        <v>2.7433539233145661</v>
+        <v>82.300617699436984</v>
       </c>
       <c r="S13">
-        <v>2.5700820010762961</v>
+        <v>77.102460032288889</v>
       </c>
       <c r="T13">
-        <v>2.0859706500497652</v>
+        <v>761.37928726816426</v>
       </c>
       <c r="U13">
-        <v>2.1117344000269909</v>
+        <v>770.78305600985163</v>
       </c>
       <c r="V13">
-        <v>2.4207495459846839</v>
+        <v>72.622486379540518</v>
       </c>
       <c r="W13">
-        <v>3.2683259140994751</v>
+        <v>98.049777422984249</v>
       </c>
       <c r="X13">
-        <v>2.364744042980369</v>
+        <v>70.942321289411069</v>
       </c>
       <c r="Y13">
-        <v>2.0856332233942299</v>
+        <v>62.568996701826897</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.2">
@@ -1541,40 +1543,40 @@
         <v>77.232643819009269</v>
       </c>
       <c r="N14">
-        <v>3.3039302580147933</v>
+        <v>1205.9345441753997</v>
       </c>
       <c r="O14">
-        <v>7.0950258014793377E-2</v>
+        <v>25.896844175399583</v>
       </c>
       <c r="P14">
-        <v>4.6504026649102883</v>
+        <v>139.51207994730865</v>
       </c>
       <c r="Q14">
-        <v>3.3321849827272181</v>
+        <v>99.965549481816538</v>
       </c>
       <c r="R14">
-        <v>2.4998795275797505</v>
+        <v>74.996385827392515</v>
       </c>
       <c r="S14">
-        <v>2.8529296803001012</v>
+        <v>85.587890409003037</v>
       </c>
       <c r="T14">
-        <v>2.1768514978973768</v>
+        <v>794.55079673254249</v>
       </c>
       <c r="U14">
-        <v>2.2210059031537837</v>
+        <v>810.667154651131</v>
       </c>
       <c r="V14">
-        <v>2.772399464853804</v>
+        <v>83.171983945614116</v>
       </c>
       <c r="W14">
-        <v>3.3343354579261608</v>
+        <v>100.03006373778483</v>
       </c>
       <c r="X14">
-        <v>2.27872185291739</v>
+        <v>68.361655587521696</v>
       </c>
       <c r="Y14">
-        <v>2.3298742158965071</v>
+        <v>69.896226476895208</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.2">
@@ -1618,40 +1620,40 @@
         <v>75.950354824119671</v>
       </c>
       <c r="N15">
-        <v>3.2831562692961191</v>
+        <v>1198.3520382930835</v>
       </c>
       <c r="O15">
-        <v>5.017626929611918E-2</v>
+        <v>18.314338293083502</v>
       </c>
       <c r="P15">
-        <v>4.5099202662894751</v>
+        <v>135.29760798868426</v>
       </c>
       <c r="Q15">
-        <v>3.3180893761998407</v>
+        <v>99.542681285995215</v>
       </c>
       <c r="R15">
-        <v>2.6826110869440325</v>
+        <v>80.478332608320969</v>
       </c>
       <c r="S15">
-        <v>2.7540815127198037</v>
+        <v>82.622445381594105</v>
       </c>
       <c r="T15">
-        <v>2.1900139571237176</v>
+        <v>799.35509435015695</v>
       </c>
       <c r="U15">
-        <v>2.2254975289861161</v>
+        <v>812.30659807993231</v>
       </c>
       <c r="V15">
-        <v>2.6374913469821641</v>
+        <v>79.12474040946492</v>
       </c>
       <c r="W15">
-        <v>3.2741175985120372</v>
+        <v>98.223527955361121</v>
       </c>
       <c r="X15">
-        <v>2.242495687837772</v>
+        <v>67.274870635133155</v>
       </c>
       <c r="Y15">
-        <v>2.2069780117152988</v>
+        <v>66.209340351458962</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.2">
@@ -1695,40 +1697,40 @@
         <v>76.19161154323551</v>
       </c>
       <c r="N16">
-        <v>3.2541561030271131</v>
+        <v>1187.7669776048963</v>
       </c>
       <c r="O16">
-        <v>2.1176103027113147E-2</v>
+        <v>7.7292776048962981</v>
       </c>
       <c r="P16">
-        <v>4.0404277729102152</v>
+        <v>121.21283318730646</v>
       </c>
       <c r="Q16">
-        <v>3.4310883305424844</v>
+        <v>102.93264991627453</v>
       </c>
       <c r="R16">
-        <v>3.0584227466247</v>
+        <v>91.752682398741001</v>
       </c>
       <c r="S16">
-        <v>2.6133513918027069</v>
+        <v>78.400541754081203</v>
       </c>
       <c r="T16">
-        <v>2.0922137743301974</v>
+        <v>763.65802763052204</v>
       </c>
       <c r="U16">
-        <v>2.1230948277258705</v>
+        <v>774.9296121199427</v>
       </c>
       <c r="V16">
-        <v>2.430506172356071</v>
+        <v>72.915185170682136</v>
       </c>
       <c r="W16">
-        <v>3.3759095582489489</v>
+        <v>101.27728674746847</v>
       </c>
       <c r="X16">
-        <v>2.2257773266330281</v>
+        <v>66.77331979899084</v>
       </c>
       <c r="Y16">
-        <v>2.098824007385439</v>
+        <v>62.964720221563169</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.2">
@@ -1772,40 +1774,40 @@
         <v>78.199908821122136</v>
       </c>
       <c r="N17">
-        <v>3.2524018370334886</v>
+        <v>1187.1266705172234</v>
       </c>
       <c r="O17">
-        <v>1.9421837033488654E-2</v>
+        <v>7.088970517223359</v>
       </c>
       <c r="P17">
-        <v>4.3815625499493311</v>
+        <v>131.44687649847992</v>
       </c>
       <c r="Q17">
-        <v>3.5352436089108181</v>
+        <v>106.05730826732454</v>
       </c>
       <c r="R17">
-        <v>2.7992348596112251</v>
+        <v>83.977045788336753</v>
       </c>
       <c r="S17">
-        <v>2.4148684598550938</v>
+        <v>72.446053795652816</v>
       </c>
       <c r="T17">
-        <v>2.0687326672320596</v>
+        <v>755.08742353970172</v>
       </c>
       <c r="U17">
-        <v>2.100984667498687</v>
+        <v>766.8594036370207</v>
       </c>
       <c r="V17">
-        <v>2.2191247510598102</v>
+        <v>66.573742531794309</v>
       </c>
       <c r="W17">
-        <v>2.9762551232121628</v>
+        <v>89.287653696364885</v>
       </c>
       <c r="X17">
-        <v>1.950654362086411</v>
+        <v>58.519630862592329</v>
       </c>
       <c r="Y17">
-        <v>2.1078310023928211</v>
+        <v>63.234930071784632</v>
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.2">
@@ -1849,40 +1851,40 @@
         <v>78.015898629035021</v>
       </c>
       <c r="N18">
-        <v>3.2710455451778273</v>
+        <v>1193.9316239899069</v>
       </c>
       <c r="O18">
-        <v>3.8065545177827342E-2</v>
+        <v>13.89392398990698</v>
       </c>
       <c r="P18">
-        <v>4.3897126320641249</v>
+        <v>131.69137896192376</v>
       </c>
       <c r="Q18">
-        <v>3.7990567604017635</v>
+        <v>113.97170281205291</v>
       </c>
       <c r="R18">
-        <v>2.6532025936871393</v>
+        <v>79.596077810614176</v>
       </c>
       <c r="S18">
-        <v>2.3443117930416193</v>
+        <v>70.329353791248579</v>
       </c>
       <c r="T18">
-        <v>2.1177287095533384</v>
+        <v>772.97097898696848</v>
       </c>
       <c r="U18">
-        <v>2.1517740421740363</v>
+        <v>785.39752539352321</v>
       </c>
       <c r="V18">
-        <v>2.1101275846686112</v>
+        <v>63.303827540058336</v>
       </c>
       <c r="W18">
-        <v>3.0525821652898748</v>
+        <v>91.57746495869624</v>
       </c>
       <c r="X18">
-        <v>1.8429074248306481</v>
+        <v>55.28722274491944</v>
       </c>
       <c r="Y18">
-        <v>2.1379744603355491</v>
+        <v>64.139233810066472</v>
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.2">
@@ -1926,40 +1928,40 @@
         <v>73.624085854663434</v>
       </c>
       <c r="N19">
-        <v>3.3167871884501663</v>
+        <v>1210.6273237843106</v>
       </c>
       <c r="O19">
-        <v>8.3807188450166326E-2</v>
+        <v>30.58962378431071</v>
       </c>
       <c r="P19">
-        <v>4.3045855877198749</v>
+        <v>129.13756763159626</v>
       </c>
       <c r="Q19">
-        <v>3.400313478067214</v>
+        <v>102.00940434201642</v>
       </c>
       <c r="R19">
-        <v>2.8178677135512493</v>
+        <v>84.536031406537475</v>
       </c>
       <c r="S19">
-        <v>2.8775133930371419</v>
+        <v>86.32540179111426</v>
       </c>
       <c r="T19">
-        <v>2.1253833871652303</v>
+        <v>775.76493631530911</v>
       </c>
       <c r="U19">
-        <v>2.1640562977895925</v>
+        <v>789.88054869320126</v>
       </c>
       <c r="V19">
-        <v>2.7236938892291298</v>
+        <v>81.71081667687389</v>
       </c>
       <c r="W19">
-        <v>3.862897767704363</v>
+        <v>115.88693303113089</v>
       </c>
       <c r="X19">
-        <v>2.2118797819316298</v>
+        <v>66.356393457948897</v>
       </c>
       <c r="Y19">
-        <v>2.310445515897249</v>
+        <v>69.313365476917468</v>
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.2">
@@ -2003,40 +2005,40 @@
         <v>75.489392237550689</v>
       </c>
       <c r="N20">
-        <v>3.1125301095794606</v>
+        <v>1136.0734899965032</v>
       </c>
       <c r="O20">
-        <v>-0.12044989042053933</v>
+        <v>-43.964210003496852</v>
       </c>
       <c r="P20">
-        <v>3.9261188616092242</v>
+        <v>117.78356584827672</v>
       </c>
       <c r="Q20">
-        <v>3.2680590447970501</v>
+        <v>98.041771343911506</v>
       </c>
       <c r="R20">
-        <v>2.6909283101784531</v>
+        <v>80.727849305353601</v>
       </c>
       <c r="S20">
-        <v>2.6970547394806887</v>
+        <v>80.911642184420657</v>
       </c>
       <c r="T20">
-        <v>2.0568087210943053</v>
+        <v>750.7351831994215</v>
       </c>
       <c r="U20">
-        <v>2.0821483707852404</v>
+        <v>759.98415533661273</v>
       </c>
       <c r="V20">
-        <v>2.7052167233374091</v>
+        <v>81.156501700122277</v>
       </c>
       <c r="W20">
-        <v>3.1866069998070752</v>
+        <v>95.598209994212255</v>
       </c>
       <c r="X20">
-        <v>2.0225655550469859</v>
+        <v>60.676966651409579</v>
       </c>
       <c r="Y20">
-        <v>2.3259596544513821</v>
+        <v>69.778789633541464</v>
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.2">
@@ -2080,40 +2082,40 @@
         <v>76.952310486773584</v>
       </c>
       <c r="N21">
-        <v>3.2153121060134966</v>
+        <v>1173.5889186949262</v>
       </c>
       <c r="O21">
-        <v>-1.7667893986503369E-2</v>
+        <v>-6.4487813050737302</v>
       </c>
       <c r="P21">
-        <v>4.212078529877421</v>
+        <v>126.36235589632263</v>
       </c>
       <c r="Q21">
-        <v>3.4776520568632137</v>
+        <v>104.32956170589641</v>
       </c>
       <c r="R21">
-        <v>2.5655349897146302</v>
+        <v>76.966049691438911</v>
       </c>
       <c r="S21">
-        <v>2.7232547971136527</v>
+        <v>81.697643913409578</v>
       </c>
       <c r="T21">
-        <v>2.0967683802202708</v>
+        <v>765.32045878039889</v>
       </c>
       <c r="U21">
-        <v>2.1347008660888656</v>
+        <v>779.1658161224359</v>
       </c>
       <c r="V21">
-        <v>2.5544812340567811</v>
+        <v>76.634437021703434</v>
       </c>
       <c r="W21">
-        <v>3.4764080860465092</v>
+        <v>104.29224258139527</v>
       </c>
       <c r="X21">
-        <v>2.1733359599478348</v>
+        <v>65.200078798435044</v>
       </c>
       <c r="Y21">
-        <v>2.355781738151641</v>
+        <v>70.673452144549231</v>
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.2">
@@ -2157,40 +2159,40 @@
         <v>75.59295989659536</v>
       </c>
       <c r="N22">
-        <v>3.1722042592572817</v>
+        <v>1157.8545546289079</v>
       </c>
       <c r="O22">
-        <v>-6.0775740742718298E-2</v>
+        <v>-22.183145371092181</v>
       </c>
       <c r="P22">
-        <v>4.5733200338201643</v>
+        <v>137.19960101460492</v>
       </c>
       <c r="Q22">
-        <v>3.0872037542541007</v>
+        <v>92.616112627623025</v>
       </c>
       <c r="R22">
-        <v>2.6837378364311459</v>
+        <v>80.512135092934372</v>
       </c>
       <c r="S22">
-        <v>2.4630714721348399</v>
+        <v>73.892144164045192</v>
       </c>
       <c r="T22">
-        <v>2.1251826751838374</v>
+        <v>775.69167644210063</v>
       </c>
       <c r="U22">
-        <v>2.1668602322287702</v>
+        <v>790.90398476350117</v>
       </c>
       <c r="V22">
-        <v>2.163954009622497</v>
+        <v>64.918620288674902</v>
       </c>
       <c r="W22">
-        <v>3.14037465964878</v>
+        <v>94.211239789463406</v>
       </c>
       <c r="X22">
-        <v>2.3410919273245989</v>
+        <v>70.232757819737969</v>
       </c>
       <c r="Y22">
-        <v>2.011455818606779</v>
+        <v>60.343674558203368</v>
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.2">
@@ -2234,40 +2236,40 @@
         <v>77.771662607571699</v>
       </c>
       <c r="N23">
-        <v>3.1141582060263842</v>
+        <v>1136.6677451996302</v>
       </c>
       <c r="O23">
-        <v>-0.11882179397361581</v>
+        <v>-43.369954800369769</v>
       </c>
       <c r="P23">
-        <v>4.0581365494627404</v>
+        <v>121.74409648388222</v>
       </c>
       <c r="Q23">
-        <v>3.42603124459096</v>
+        <v>102.7809373377288</v>
       </c>
       <c r="R23">
-        <v>2.3929054121817006</v>
+        <v>71.787162365451024</v>
       </c>
       <c r="S23">
-        <v>2.7113234418970444</v>
+        <v>81.339703256911335</v>
       </c>
       <c r="T23">
-        <v>2.1208082535786001</v>
+        <v>774.09501255618909</v>
       </c>
       <c r="U23">
-        <v>2.1567027842404141</v>
+        <v>787.19651624775111</v>
       </c>
       <c r="V23">
-        <v>2.3779216789185451</v>
+        <v>71.33765036755635</v>
       </c>
       <c r="W23">
-        <v>3.323534831901247</v>
+        <v>99.706044957037406</v>
       </c>
       <c r="X23">
-        <v>2.4325792973677238</v>
+        <v>72.977378921031715</v>
       </c>
       <c r="Y23">
-        <v>2.2863056132041879</v>
+        <v>68.589168396125643</v>
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.2">
@@ -2311,40 +2313,40 @@
         <v>76.490411874510457</v>
       </c>
       <c r="N24">
-        <v>3.1341178493683448</v>
+        <v>1143.953015019446</v>
       </c>
       <c r="O24">
-        <v>-9.8862150631655155E-2</v>
+        <v>-36.08468498055413</v>
       </c>
       <c r="P24">
-        <v>4.1190551141460379</v>
+        <v>123.57165342438114</v>
       </c>
       <c r="Q24">
-        <v>3.466520485069478</v>
+        <v>103.99561455208433</v>
       </c>
       <c r="R24">
-        <v>2.5321241604321956</v>
+        <v>75.963724812965864</v>
       </c>
       <c r="S24">
-        <v>2.525872105884035</v>
+        <v>75.776163176521052</v>
       </c>
       <c r="T24">
-        <v>2.1024479624306034</v>
+        <v>767.39350628717023</v>
       </c>
       <c r="U24">
-        <v>2.1374088624904202</v>
+        <v>780.15423480900336</v>
       </c>
       <c r="V24">
-        <v>2.2848769299225871</v>
+        <v>68.546307897677607</v>
       </c>
       <c r="W24">
-        <v>2.9047749102030829</v>
+        <v>87.143247306092491</v>
       </c>
       <c r="X24">
-        <v>2.345505125562934</v>
+        <v>70.365153766888014</v>
       </c>
       <c r="Y24">
-        <v>2.2847433541917388</v>
+        <v>68.542300625752162</v>
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.2">
@@ -2388,40 +2390,40 @@
         <v>75.977525756237171</v>
       </c>
       <c r="N25">
-        <v>3.0254265281338837</v>
+        <v>1104.2806827688676</v>
       </c>
       <c r="O25">
-        <v>-0.20755347186611628</v>
+        <v>-75.757017231132437</v>
       </c>
       <c r="P25">
-        <v>3.6181407454013006</v>
+        <v>108.54422236203902</v>
       </c>
       <c r="Q25">
-        <v>3.4035884908413259</v>
+        <v>102.10765472523977</v>
       </c>
       <c r="R25">
-        <v>2.7047134325524653</v>
+        <v>81.141402976573957</v>
       </c>
       <c r="S25">
-        <v>2.5120097437541444</v>
+        <v>75.360292312624338</v>
       </c>
       <c r="T25">
-        <v>2.0681207792207821</v>
+        <v>754.86408441558547</v>
       </c>
       <c r="U25">
-        <v>2.0885148866556635</v>
+        <v>762.30793362931718</v>
       </c>
       <c r="V25">
-        <v>2.2104990251138168</v>
+        <v>66.314970753414499</v>
       </c>
       <c r="W25">
-        <v>2.9343943888336081</v>
+        <v>88.031831665008241</v>
       </c>
       <c r="X25">
-        <v>2.0883329435396569</v>
+        <v>62.649988306189705</v>
       </c>
       <c r="Y25">
-        <v>2.2230080754886381</v>
+        <v>66.690242264659148</v>
       </c>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.2">
@@ -2465,40 +2467,40 @@
         <v>77.891456956824896</v>
       </c>
       <c r="N26">
-        <v>3.1861359372115023</v>
+        <v>1162.9396170821983</v>
       </c>
       <c r="O26">
-        <v>-4.684406278849762E-2</v>
+        <v>-17.09808291780163</v>
       </c>
       <c r="P26">
-        <v>4.4268903494545908</v>
+        <v>132.80671048363772</v>
       </c>
       <c r="Q26">
-        <v>3.1612266414239301</v>
+        <v>94.836799242717902</v>
       </c>
       <c r="R26">
-        <v>2.6367335902044946</v>
+        <v>79.102007706134842</v>
       </c>
       <c r="S26">
-        <v>2.628108123973103</v>
+        <v>78.843243719193083</v>
       </c>
       <c r="T26">
-        <v>2.0835942458428134</v>
+        <v>760.51189973262683</v>
       </c>
       <c r="U26">
-        <v>2.1121277132715348</v>
+        <v>770.92661534411025</v>
       </c>
       <c r="V26">
-        <v>2.2379765302648509</v>
+        <v>67.139295907945524</v>
       </c>
       <c r="W26">
-        <v>3.0378854165367639</v>
+        <v>91.136562496102911</v>
       </c>
       <c r="X26">
-        <v>2.247759967912959</v>
+        <v>67.432799037388776</v>
       </c>
       <c r="Y26">
-        <v>2.5217323158084768</v>
+        <v>75.651969474254301</v>
       </c>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.2">
@@ -2542,40 +2544,40 @@
         <v>76.455121977582252</v>
       </c>
       <c r="N27">
-        <v>3.2636033062409893</v>
+        <v>1191.2152067779612</v>
       </c>
       <c r="O27">
-        <v>3.0623306240989301E-2</v>
+        <v>11.177506777961096</v>
       </c>
       <c r="P27">
-        <v>4.4606099799019088</v>
+        <v>133.81829939705727</v>
       </c>
       <c r="Q27">
-        <v>3.8083237531254541</v>
+        <v>114.24971259376362</v>
       </c>
       <c r="R27">
-        <v>2.7023874348131605</v>
+        <v>81.071623044394812</v>
       </c>
       <c r="S27">
-        <v>2.1990305449082244</v>
+        <v>65.970916347246728</v>
       </c>
       <c r="T27">
-        <v>2.1181189973986712</v>
+        <v>773.11343405051502</v>
       </c>
       <c r="U27">
-        <v>2.1525247106477394</v>
+        <v>785.67151938642485</v>
       </c>
       <c r="V27">
-        <v>1.89127458649112</v>
+        <v>56.738237594733597</v>
       </c>
       <c r="W27">
-        <v>2.554809501436484</v>
+        <v>76.644285043094527</v>
       </c>
       <c r="X27">
-        <v>1.930183596085665</v>
+        <v>57.90550788256995</v>
       </c>
       <c r="Y27">
-        <v>2.18910450265912</v>
+        <v>65.673135079773601</v>
       </c>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.2">
@@ -2619,40 +2621,40 @@
         <v>76.657783465151624</v>
       </c>
       <c r="N28">
-        <v>3.240900421933957</v>
+        <v>1182.9286540058943</v>
       </c>
       <c r="O28">
-        <v>7.9204219339570336E-3</v>
+        <v>2.8909540058943173</v>
       </c>
       <c r="P28">
-        <v>4.3821400916304745</v>
+        <v>131.46420274891423</v>
       </c>
       <c r="Q28">
-        <v>3.6483946722345415</v>
+        <v>109.45184016703624</v>
       </c>
       <c r="R28">
-        <v>2.6980267166429166</v>
+        <v>80.940801499287502</v>
       </c>
       <c r="S28">
-        <v>2.3719359050963491</v>
+        <v>71.158077152890471</v>
       </c>
       <c r="T28">
-        <v>2.0868278786058312</v>
+        <v>761.69217569112834</v>
       </c>
       <c r="U28">
-        <v>2.1156555498093716</v>
+        <v>772.21427568042066</v>
       </c>
       <c r="V28">
-        <v>2.0112624870264089</v>
+        <v>60.337874610792269</v>
       </c>
       <c r="W28">
-        <v>2.6715967161452849</v>
+        <v>80.147901484358542</v>
       </c>
       <c r="X28">
-        <v>2.128004939020518</v>
+        <v>63.840148170615542</v>
       </c>
       <c r="Y28">
-        <v>2.253449283178028</v>
+        <v>67.603478495340838</v>
       </c>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.2">
@@ -2696,40 +2698,40 @@
         <v>75.537157037739348</v>
       </c>
       <c r="N29">
-        <v>3.3343453043526154</v>
+        <v>1217.0360360887046</v>
       </c>
       <c r="O29">
-        <v>0.10136530435261548</v>
+        <v>36.998336088704647</v>
       </c>
       <c r="P29">
-        <v>4.3361153534367967</v>
+        <v>130.0834606031039</v>
       </c>
       <c r="Q29">
-        <v>3.5698155340552504</v>
+        <v>107.09446602165751</v>
       </c>
       <c r="R29">
-        <v>2.8299131458468918</v>
+        <v>84.897394375406748</v>
       </c>
       <c r="S29">
-        <v>2.7584602133897094</v>
+        <v>82.753806401691278</v>
       </c>
       <c r="T29">
-        <v>2.1266774713839967</v>
+        <v>776.23727705515876</v>
       </c>
       <c r="U29">
-        <v>2.1651339894740222</v>
+        <v>790.27390615801812</v>
       </c>
       <c r="V29">
-        <v>2.5394664303180972</v>
+        <v>76.183992909542908</v>
       </c>
       <c r="W29">
-        <v>3.3202297671824161</v>
+        <v>99.60689301547248</v>
       </c>
       <c r="X29">
-        <v>2.5015615039017911</v>
+        <v>75.046845117053735</v>
       </c>
       <c r="Y29">
-        <v>2.2169871064979318</v>
+        <v>66.509613194937955</v>
       </c>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.2">
@@ -2773,40 +2775,40 @@
         <v>76.858151852250487</v>
       </c>
       <c r="N30">
-        <v>3.1312935808298787</v>
+        <v>1142.9221570029058</v>
       </c>
       <c r="O30">
-        <v>-0.10168641917012122</v>
+        <v>-37.115542997094245</v>
       </c>
       <c r="P30">
-        <v>4.3267684620781548</v>
+        <v>129.80305386234465</v>
       </c>
       <c r="Q30">
-        <v>3.340615673367636</v>
+        <v>100.21847020102908</v>
       </c>
       <c r="R30">
-        <v>2.6514032176817786</v>
+        <v>79.542096530453364</v>
       </c>
       <c r="S30">
-        <v>2.3672197363984866</v>
+        <v>71.016592091954593</v>
       </c>
       <c r="T30">
-        <v>2.0809063077787076</v>
+        <v>759.53080233922822</v>
       </c>
       <c r="U30">
-        <v>2.1178737296276093</v>
+        <v>773.0239113140774</v>
       </c>
       <c r="V30">
-        <v>2.082902231036035</v>
+        <v>62.487066931081053</v>
       </c>
       <c r="W30">
-        <v>2.8210022403212491</v>
+        <v>84.630067209637474</v>
       </c>
       <c r="X30">
-        <v>2.308630114930625</v>
+        <v>69.258903447918755</v>
       </c>
       <c r="Y30">
-        <v>2.0720695293114928</v>
+        <v>62.162085879344787</v>
       </c>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.2">
@@ -2850,40 +2852,40 @@
         <v>75.321558770532619</v>
       </c>
       <c r="N31">
-        <v>3.138712649579781</v>
+        <v>1145.6301170966201</v>
       </c>
       <c r="O31">
-        <v>-9.4267350420218943E-2</v>
+        <v>-34.407582903379911</v>
       </c>
       <c r="P31">
-        <v>4.1266365269141962</v>
+        <v>123.79909580742589</v>
       </c>
       <c r="Q31">
-        <v>3.3362101743762453</v>
+        <v>100.08630523128735</v>
       </c>
       <c r="R31">
-        <v>2.7654904818954322</v>
+        <v>82.964714456862964</v>
       </c>
       <c r="S31">
-        <v>2.4734904366746853</v>
+        <v>74.204713100240554</v>
       </c>
       <c r="T31">
-        <v>2.0632647922508598</v>
+        <v>753.09164917156386</v>
       </c>
       <c r="U31">
-        <v>2.1023941750326705</v>
+        <v>767.37387388692468</v>
       </c>
       <c r="V31">
-        <v>2.138465069776045</v>
+        <v>64.153952093281347</v>
       </c>
       <c r="W31">
-        <v>3.1188727193931838</v>
+        <v>93.566181581795519</v>
       </c>
       <c r="X31">
-        <v>2.3331412134821088</v>
+        <v>69.994236404463265</v>
       </c>
       <c r="Y31">
-        <v>2.063360771300629</v>
+        <v>61.900823139018868</v>
       </c>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.2">
@@ -2927,40 +2929,40 @@
         <v>73.60969828135481</v>
       </c>
       <c r="N32">
-        <v>3.1037070744304041</v>
+        <v>1132.8530821670975</v>
       </c>
       <c r="O32">
-        <v>-0.12927292556959591</v>
+        <v>-47.184617832902504</v>
       </c>
       <c r="P32">
-        <v>4.1001382021258976</v>
+        <v>123.00414606377693</v>
       </c>
       <c r="Q32">
-        <v>3.3918896439657331</v>
+        <v>101.75668931897199</v>
       </c>
       <c r="R32">
-        <v>2.7507641634458948</v>
+        <v>82.522924903376847</v>
       </c>
       <c r="S32">
-        <v>2.3105799966613265</v>
+        <v>69.317399899839799</v>
       </c>
       <c r="T32">
-        <v>2.0771841665036317</v>
+        <v>758.17222077382553</v>
       </c>
       <c r="U32">
-        <v>2.1195571239622764</v>
+        <v>773.63835024623086</v>
       </c>
       <c r="V32">
-        <v>2.0320534919419728</v>
+        <v>60.961604758259185</v>
       </c>
       <c r="W32">
-        <v>2.6985285155272569</v>
+        <v>80.955855465817706</v>
       </c>
       <c r="X32">
-        <v>2.0551849286600521</v>
+        <v>61.655547859801565</v>
       </c>
       <c r="Y32">
-        <v>2.2530575860367561</v>
+        <v>67.591727581102688</v>
       </c>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.2">
@@ -3004,40 +3006,40 @@
         <v>73.913854567709024</v>
       </c>
       <c r="N33">
-        <v>3.1146387658631047</v>
+        <v>1136.8431495400332</v>
       </c>
       <c r="O33">
-        <v>-0.11834123413689523</v>
+        <v>-43.194550459966763</v>
       </c>
       <c r="P33">
-        <v>4.0753703856662282</v>
+        <v>122.26111156998685</v>
       </c>
       <c r="Q33">
-        <v>3.0625424835542412</v>
+        <v>91.87627450662724</v>
       </c>
       <c r="R33">
-        <v>2.8849809278374372</v>
+        <v>86.549427835123112</v>
       </c>
       <c r="S33">
-        <v>2.5680479266163858</v>
+        <v>77.041437798491572</v>
       </c>
       <c r="T33">
-        <v>2.1344136257914545</v>
+        <v>779.0609734138809</v>
       </c>
       <c r="U33">
-        <v>2.1752752556115471</v>
+        <v>793.97546829821465</v>
       </c>
       <c r="V33">
-        <v>2.4420657945118491</v>
+        <v>73.261973835355477</v>
       </c>
       <c r="W33">
-        <v>2.9995022881038689</v>
+        <v>89.985068643116065</v>
       </c>
       <c r="X33">
-        <v>2.1693755852279799</v>
+        <v>65.081267556839393</v>
       </c>
       <c r="Y33">
-        <v>2.3143521267680951</v>
+        <v>69.430563803042858</v>
       </c>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.2">
@@ -3081,40 +3083,40 @@
         <v>76.646162247794038</v>
       </c>
       <c r="N34">
-        <v>3.1431968641467294</v>
+        <v>1147.2668554135562</v>
       </c>
       <c r="O34">
-        <v>-8.9783135853270579E-2</v>
+        <v>-32.770844586443758</v>
       </c>
       <c r="P34">
-        <v>4.0476862262022646</v>
+        <v>121.43058678606793</v>
       </c>
       <c r="Q34">
-        <v>3.3780522358091076</v>
+        <v>101.34156707427323</v>
       </c>
       <c r="R34">
-        <v>2.7530593971847122</v>
+        <v>82.591781915541361</v>
       </c>
       <c r="S34">
-        <v>2.5107268520239385</v>
+        <v>75.321805560718161</v>
       </c>
       <c r="T34">
-        <v>2.0901010453758229</v>
+        <v>762.88688156217529</v>
       </c>
       <c r="U34">
-        <v>2.1364300646013392</v>
+        <v>779.79697357948885</v>
       </c>
       <c r="V34">
-        <v>2.2437319832029998</v>
+        <v>67.311959496089997</v>
       </c>
       <c r="W34">
-        <v>3.1249468790254822</v>
+        <v>93.748406370764471</v>
       </c>
       <c r="X34">
-        <v>2.3268106666251209</v>
+        <v>69.804319998753627</v>
       </c>
       <c r="Y34">
-        <v>2.1492713078669712</v>
+        <v>64.478139236009142</v>
       </c>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.2">
@@ -3158,40 +3160,40 @@
         <v>75.150501763562971</v>
       </c>
       <c r="N35">
-        <v>3.0373664192730345</v>
+        <v>1108.6387430346576</v>
       </c>
       <c r="O35">
-        <v>-0.19561358072696544</v>
+        <v>-71.398956965342393</v>
       </c>
       <c r="P35">
-        <v>3.6355471190127604</v>
+        <v>109.06641357038281</v>
       </c>
       <c r="Q35">
-        <v>3.3905598494234064</v>
+        <v>101.7167954827022</v>
       </c>
       <c r="R35">
-        <v>2.7745537667061568</v>
+        <v>83.236613001184708</v>
       </c>
       <c r="S35">
-        <v>2.4764991467199029</v>
+        <v>74.294974401597088</v>
       </c>
       <c r="T35">
-        <v>2.0271220164660475</v>
+        <v>739.89953601010734</v>
       </c>
       <c r="U35">
-        <v>2.0588428400582068</v>
+        <v>751.47763662124555</v>
       </c>
       <c r="V35">
-        <v>2.2564847493397959</v>
+        <v>67.694542480193874</v>
       </c>
       <c r="W35">
-        <v>2.9445353605674649</v>
+        <v>88.336060817023949</v>
       </c>
       <c r="X35">
-        <v>2.2431846355783001</v>
+        <v>67.295539067348997</v>
       </c>
       <c r="Y35">
-        <v>2.3061096802053789</v>
+        <v>69.183290406161362</v>
       </c>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.2">
@@ -3235,40 +3237,40 @@
         <v>76.817418992263754</v>
       </c>
       <c r="N36">
-        <v>3.1020370797124883</v>
+        <v>1132.2435340950583</v>
       </c>
       <c r="O36">
-        <v>-0.13094292028751164</v>
+        <v>-47.79416590494175</v>
       </c>
       <c r="P36">
-        <v>3.8987831764017953</v>
+        <v>116.96349529205386</v>
       </c>
       <c r="Q36">
-        <v>3.5535112113595657</v>
+        <v>106.60533634078698</v>
       </c>
       <c r="R36">
-        <v>2.5340233638765906</v>
+        <v>76.020700916297713</v>
       </c>
       <c r="S36">
-        <v>2.5369804882743452</v>
+        <v>76.109414648230356</v>
       </c>
       <c r="T36">
-        <v>2.0481882457968084</v>
+        <v>747.58870971583508</v>
       </c>
       <c r="U36">
-        <v>2.0874268481154448</v>
+        <v>761.9107995621373</v>
       </c>
       <c r="V36">
-        <v>2.3479653075057669</v>
+        <v>70.438959225173008</v>
       </c>
       <c r="W36">
-        <v>3.0307821345491379</v>
+        <v>90.923464036474144</v>
       </c>
       <c r="X36">
-        <v>2.3127604211174582</v>
+        <v>69.382812633523741</v>
       </c>
       <c r="Y36">
-        <v>2.2935439864732818</v>
+        <v>68.806319594198456</v>
       </c>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.2">
@@ -3312,40 +3314,40 @@
         <v>73.204685450035498</v>
       </c>
       <c r="N37">
-        <v>3.147517223003014</v>
+        <v>1148.8437863961001</v>
       </c>
       <c r="O37">
-        <v>-8.5462776996986012E-2</v>
+        <v>-31.193913603899894</v>
       </c>
       <c r="P37">
-        <v>3.9297722817728213</v>
+        <v>117.89316845318464</v>
       </c>
       <c r="Q37">
-        <v>3.4477808101731329</v>
+        <v>103.43342430519398</v>
       </c>
       <c r="R37">
-        <v>2.8462016255763958</v>
+        <v>85.386048767291868</v>
       </c>
       <c r="S37">
-        <v>2.4847556743068364</v>
+        <v>74.542670229205086</v>
       </c>
       <c r="T37">
-        <v>2.0848253294876899</v>
+        <v>760.96124526300684</v>
       </c>
       <c r="U37">
-        <v>2.1273586980739214</v>
+        <v>776.48592479698129</v>
       </c>
       <c r="V37">
-        <v>2.3029022506204839</v>
+        <v>69.087067518614518</v>
       </c>
       <c r="W37">
-        <v>2.9997413891736309</v>
+        <v>89.99224167520893</v>
       </c>
       <c r="X37">
-        <v>2.1763787507549419</v>
+        <v>65.291362522648257</v>
       </c>
       <c r="Y37">
-        <v>2.3316238953013162</v>
+        <v>69.948716859039479</v>
       </c>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.2">
@@ -3389,40 +3391,40 @@
         <v>73.317442233152548</v>
       </c>
       <c r="N38">
-        <v>3.2541511449561424</v>
+        <v>1187.765167908992</v>
       </c>
       <c r="O38">
-        <v>2.1171144956142474E-2</v>
+        <v>7.7274679089920024</v>
       </c>
       <c r="P38">
-        <v>4.1741112322103078</v>
+        <v>125.22333696630923</v>
       </c>
       <c r="Q38">
-        <v>3.5694081293185982</v>
+        <v>107.08224387955795</v>
       </c>
       <c r="R38">
-        <v>2.9012156981667281</v>
+        <v>87.036470945001838</v>
       </c>
       <c r="S38">
-        <v>2.4875380148458479</v>
+        <v>74.626140445375441</v>
       </c>
       <c r="T38">
-        <v>2.1051256945058392</v>
+        <v>768.37087849463126</v>
       </c>
       <c r="U38">
-        <v>2.1517242759556554</v>
+        <v>785.37936072381422</v>
       </c>
       <c r="V38">
-        <v>2.2304862595806099</v>
+        <v>66.914587787418299</v>
       </c>
       <c r="W38">
-        <v>2.922687762446778</v>
+        <v>87.68063287340334</v>
       </c>
       <c r="X38">
-        <v>2.1430874467719399</v>
+        <v>64.292623403158188</v>
       </c>
       <c r="Y38">
-        <v>2.3592934058415538</v>
+        <v>70.778802175246611</v>
       </c>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.2">
@@ -3466,40 +3468,40 @@
         <v>72.151276546012525</v>
       </c>
       <c r="N39">
-        <v>3.206875031823599</v>
+        <v>1170.5093866156137</v>
       </c>
       <c r="O39">
-        <v>-2.6104968176400956E-2</v>
+        <v>-9.5283133843863492</v>
       </c>
       <c r="P39">
-        <v>4.0499463582647461</v>
+        <v>121.49839074794238</v>
       </c>
       <c r="Q39">
-        <v>3.5781334169591927</v>
+        <v>107.34400250877579</v>
       </c>
       <c r="R39">
-        <v>2.7702358783251286</v>
+        <v>83.107076349753854</v>
       </c>
       <c r="S39">
-        <v>2.5557408408631623</v>
+        <v>76.672225225894863</v>
       </c>
       <c r="T39">
-        <v>2.1043564306342719</v>
+        <v>768.09009718150924</v>
       </c>
       <c r="U39">
-        <v>2.1498568520592731</v>
+        <v>784.69775100163474</v>
       </c>
       <c r="V39">
-        <v>2.3384569198314309</v>
+        <v>70.153707594942929</v>
       </c>
       <c r="W39">
-        <v>2.9397332487382819</v>
+        <v>88.191997462148464</v>
       </c>
       <c r="X39">
-        <v>2.2993935378942369</v>
+        <v>68.981806136827103</v>
       </c>
       <c r="Y39">
-        <v>2.470051598903392</v>
+        <v>74.101547967101766</v>
       </c>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.2">
@@ -3543,40 +3545,40 @@
         <v>72.884378065498822</v>
       </c>
       <c r="N40">
-        <v>3.4433284827286768</v>
+        <v>1256.8148961959671</v>
       </c>
       <c r="O40">
-        <v>0.21034848272867679</v>
+        <v>76.777196195967022</v>
       </c>
       <c r="P40">
-        <v>4.4371584073111965</v>
+        <v>133.11475221933588</v>
       </c>
       <c r="Q40">
-        <v>3.7226749506249144</v>
+        <v>111.68024851874743</v>
       </c>
       <c r="R40">
-        <v>2.9665355140520782</v>
+        <v>88.996065421562349</v>
       </c>
       <c r="S40">
-        <v>2.7549783549031361</v>
+        <v>82.649350647094082</v>
       </c>
       <c r="T40">
-        <v>2.1979843757446855</v>
+        <v>802.26429714681024</v>
       </c>
       <c r="U40">
-        <v>2.2633623130462959</v>
+        <v>826.127244261898</v>
       </c>
       <c r="V40">
-        <v>2.879397347003223</v>
+        <v>86.381920410096697</v>
       </c>
       <c r="W40">
-        <v>2.9790618755503271</v>
+        <v>89.371856266509809</v>
       </c>
       <c r="X40">
-        <v>2.3306228132730511</v>
+        <v>69.91868439819153</v>
       </c>
       <c r="Y40">
-        <v>2.5635587023852038</v>
+        <v>76.906761071556119</v>
       </c>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.2">
@@ -3620,40 +3622,40 @@
         <v>73.055264978972815</v>
       </c>
       <c r="N41">
-        <v>3.4917058330314994</v>
+        <v>1274.4726290564972</v>
       </c>
       <c r="O41">
-        <v>0.25872583303149943</v>
+        <v>94.434929056497296</v>
       </c>
       <c r="P41">
-        <v>4.4230505000332538</v>
+        <v>132.69151500099761</v>
       </c>
       <c r="Q41">
-        <v>3.9736350719657012</v>
+        <v>119.20905215897103</v>
       </c>
       <c r="R41">
-        <v>2.924752601121785</v>
+        <v>87.742578033653558</v>
       </c>
       <c r="S41">
-        <v>2.7880451741530918</v>
+        <v>83.641355224592758</v>
       </c>
       <c r="T41">
-        <v>2.2002247676267759</v>
+        <v>803.08204018377319</v>
       </c>
       <c r="U41">
-        <v>2.2516576910571335</v>
+        <v>821.85505723585379</v>
       </c>
       <c r="V41">
-        <v>2.8525702253189822</v>
+        <v>85.57710675956946</v>
       </c>
       <c r="W41">
-        <v>3.0292153917551641</v>
+        <v>90.876461752654919</v>
       </c>
       <c r="X41">
-        <v>2.3778001003360552</v>
+        <v>71.334003010081659</v>
       </c>
       <c r="Y41">
-        <v>2.6594345619992148</v>
+        <v>79.783036859976448</v>
       </c>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.2">
@@ -3697,40 +3699,40 @@
         <v>75.167992010641015</v>
       </c>
       <c r="N42">
-        <v>3.1466021094621861</v>
+        <v>1148.509769953698</v>
       </c>
       <c r="O42">
-        <v>-8.6377890537813862E-2</v>
+        <v>-31.52793004630206</v>
       </c>
       <c r="P42">
-        <v>4.068814120542271</v>
+        <v>122.06442361626813</v>
       </c>
       <c r="Q42">
-        <v>3.5773943190921571</v>
+        <v>107.32182957276471</v>
       </c>
       <c r="R42">
-        <v>2.558773642529832</v>
+        <v>76.763209275894965</v>
       </c>
       <c r="S42">
-        <v>2.5165141017365871</v>
+        <v>75.495423052097607</v>
       </c>
       <c r="T42">
-        <v>2.1094302517223698</v>
+        <v>769.94204187866501</v>
       </c>
       <c r="U42">
-        <v>2.1460276412078505</v>
+        <v>783.30008904086549</v>
       </c>
       <c r="V42">
-        <v>2.4412821526609658</v>
+        <v>73.238464579828971</v>
       </c>
       <c r="W42">
-        <v>2.8745663892309699</v>
+        <v>86.236991676929094</v>
       </c>
       <c r="X42">
-        <v>2.212559189610972</v>
+        <v>66.376775688329161</v>
       </c>
       <c r="Y42">
-        <v>2.6059879933515608</v>
+        <v>78.179639800546823</v>
       </c>
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.2">
@@ -3774,40 +3776,40 @@
         <v>74.018721248811815</v>
       </c>
       <c r="N43">
-        <v>3.0897749827347383</v>
+        <v>1127.7678686981794</v>
       </c>
       <c r="O43">
-        <v>-0.14320501726526169</v>
+        <v>-52.269831301820517</v>
       </c>
       <c r="P43">
-        <v>3.9223541077502988</v>
+        <v>117.67062323250896</v>
       </c>
       <c r="Q43">
-        <v>3.2792193248649895</v>
+        <v>98.376579745949684</v>
       </c>
       <c r="R43">
-        <v>2.881636425661191</v>
+        <v>86.44909276983573</v>
       </c>
       <c r="S43">
-        <v>2.4302503618499762</v>
+        <v>72.907510855499282</v>
       </c>
       <c r="T43">
-        <v>2.0687492578242428</v>
+        <v>755.09347910584859</v>
       </c>
       <c r="U43">
-        <v>2.10995694587066</v>
+        <v>770.13428524279084</v>
       </c>
       <c r="V43">
-        <v>2.3657664898133599</v>
+        <v>70.972994694400796</v>
       </c>
       <c r="W43">
-        <v>2.808988379465664</v>
+        <v>84.269651383969915</v>
       </c>
       <c r="X43">
-        <v>2.2417317994908079</v>
+        <v>67.251953984724238</v>
       </c>
       <c r="Y43">
-        <v>2.4847724115484171</v>
+        <v>74.543172346452508</v>
       </c>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.2">
@@ -3851,40 +3853,40 @@
         <v>66.7610730570523</v>
       </c>
       <c r="N44">
-        <v>3.4995110157752274</v>
+        <v>1277.3215207579581</v>
       </c>
       <c r="O44">
-        <v>0.26653101577522742</v>
+        <v>97.283820757958011</v>
       </c>
       <c r="P44">
-        <v>4.2645878636749401</v>
+        <v>127.9376359102482</v>
       </c>
       <c r="Q44">
-        <v>3.7172766534171613</v>
+        <v>111.51829960251484</v>
       </c>
       <c r="R44">
-        <v>3.3210167600160658</v>
+        <v>99.630502800481977</v>
       </c>
       <c r="S44">
-        <v>2.8166709018623819</v>
+        <v>84.500127055871459</v>
       </c>
       <c r="T44">
-        <v>2.2459895587144332</v>
+        <v>819.78618893076816</v>
       </c>
       <c r="U44">
-        <v>2.3112181487037584</v>
+        <v>843.59462427687185</v>
       </c>
       <c r="V44">
-        <v>2.799712101934182</v>
+        <v>83.991363058025456</v>
       </c>
       <c r="W44">
-        <v>3.231033332742089</v>
+        <v>96.930999982262676</v>
       </c>
       <c r="X44">
-        <v>2.5078838621982902</v>
+        <v>75.236515865948704</v>
       </c>
       <c r="Y44">
-        <v>2.7381618602845501</v>
+        <v>82.144855808536505</v>
       </c>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.2">
@@ -3928,40 +3930,40 @@
         <v>75.145954396744088</v>
       </c>
       <c r="N45">
-        <v>3.4050347535822167</v>
+        <v>1242.8376850575091</v>
       </c>
       <c r="O45">
-        <v>0.17205475358221678</v>
+        <v>62.799985057509126</v>
       </c>
       <c r="P45">
-        <v>4.4678124048666135</v>
+        <v>134.03437214599842</v>
       </c>
       <c r="Q45">
-        <v>3.6338547043737544</v>
+        <v>109.01564113121263</v>
       </c>
       <c r="R45">
-        <v>2.6901436783168458</v>
+        <v>80.704310349505377</v>
       </c>
       <c r="S45">
-        <v>2.988036047269945</v>
+        <v>89.641081418098352</v>
       </c>
       <c r="T45">
-        <v>2.261243225107811</v>
+        <v>825.35377716435096</v>
       </c>
       <c r="U45">
-        <v>2.3236719067659251</v>
+        <v>848.14024596956267</v>
       </c>
       <c r="V45">
-        <v>3.1816241542069021</v>
+        <v>95.448724626207067</v>
       </c>
       <c r="W45">
-        <v>3.409364322361494</v>
+        <v>102.28092967084481</v>
       </c>
       <c r="X45">
-        <v>2.5657991535172382</v>
+        <v>76.973974605517142</v>
       </c>
       <c r="Y45">
-        <v>2.8345567244251191</v>
+        <v>85.036701732753571</v>
       </c>
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.2">
@@ -4005,40 +4007,40 @@
         <v>74.923300628504606</v>
       </c>
       <c r="N46">
-        <v>3.2783070307632975</v>
+        <v>1196.5820662286037</v>
       </c>
       <c r="O46">
-        <v>4.5327030763297582E-2</v>
+        <v>16.544366228603618</v>
       </c>
       <c r="P46">
-        <v>3.8985967579395178</v>
+        <v>116.95790273818554</v>
       </c>
       <c r="Q46">
-        <v>3.8644967206844263</v>
+        <v>115.93490162053278</v>
       </c>
       <c r="R46">
-        <v>2.830066587530736</v>
+        <v>84.901997625922078</v>
       </c>
       <c r="S46">
-        <v>2.6480761515487949</v>
+        <v>79.442284546463853</v>
       </c>
       <c r="T46">
-        <v>2.0866008930804982</v>
+        <v>761.60932597438182</v>
       </c>
       <c r="U46">
-        <v>2.1333860685692581</v>
+        <v>778.68591502777917</v>
       </c>
       <c r="V46">
-        <v>2.610870551491896</v>
+        <v>78.326116544756871</v>
       </c>
       <c r="W46">
-        <v>3.1374881693771322</v>
+        <v>94.124645081313957</v>
       </c>
       <c r="X46">
-        <v>2.405685079406461</v>
+        <v>72.170552382193833</v>
       </c>
       <c r="Y46">
-        <v>2.605801684537977</v>
+        <v>78.174050536139305</v>
       </c>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.2">
@@ -4082,40 +4084,40 @@
         <v>67.973079354657656</v>
       </c>
       <c r="N47">
-        <v>3.5115355058668078</v>
+        <v>1281.7104596413849</v>
       </c>
       <c r="O47">
-        <v>0.27855550586680788</v>
+        <v>101.67275964138487</v>
       </c>
       <c r="P47">
-        <v>4.5314218084095668</v>
+        <v>135.94265425228701</v>
       </c>
       <c r="Q47">
-        <v>3.6133838138257333</v>
+        <v>108.401514414772</v>
       </c>
       <c r="R47">
-        <v>3.0351506715968011</v>
+        <v>91.054520147904029</v>
       </c>
       <c r="S47">
-        <v>3.0010057663800569</v>
+        <v>90.030172991401713</v>
       </c>
       <c r="T47">
-        <v>2.2456959589562215</v>
+        <v>819.67902501902086</v>
       </c>
       <c r="U47">
-        <v>2.3114098448190843</v>
+        <v>843.66459335896582</v>
       </c>
       <c r="V47">
-        <v>3.2806851179039969</v>
+        <v>98.420553537119901</v>
       </c>
       <c r="W47">
-        <v>3.3034572214077151</v>
+        <v>99.103716642231461</v>
       </c>
       <c r="X47">
-        <v>2.5737767978561599</v>
+        <v>77.213303935684792</v>
       </c>
       <c r="Y47">
-        <v>2.865582688162887</v>
+        <v>85.967480644886606</v>
       </c>
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.2">
@@ -4159,40 +4161,40 @@
         <v>72.23666390602888</v>
       </c>
       <c r="N48">
-        <v>3.4378035015876991</v>
+        <v>1254.7982780795103</v>
       </c>
       <c r="O48">
-        <v>0.20482350158769913</v>
+        <v>74.760578079510182</v>
       </c>
       <c r="P48">
-        <v>4.4057687336024758</v>
+        <v>132.17306200807428</v>
       </c>
       <c r="Q48">
-        <v>3.8184518428349259</v>
+        <v>114.55355528504778</v>
       </c>
       <c r="R48">
-        <v>2.8472776686013876</v>
+        <v>85.418330058041633</v>
       </c>
       <c r="S48">
-        <v>2.8247384085174572</v>
+        <v>84.74215225552372</v>
       </c>
       <c r="T48">
-        <v>2.2035492835883517</v>
+        <v>804.29548850974834</v>
       </c>
       <c r="U48">
-        <v>2.2671884355604188</v>
+        <v>827.52377897955284</v>
       </c>
       <c r="V48">
-        <v>2.861725203052913</v>
+        <v>85.85175609158739</v>
       </c>
       <c r="W48">
-        <v>3.2721299138057929</v>
+        <v>98.163897414173789</v>
       </c>
       <c r="X48">
-        <v>2.5995571231672838</v>
+        <v>77.986713695018508</v>
       </c>
       <c r="Y48">
-        <v>2.6933781284064788</v>
+        <v>80.801343852194364</v>
       </c>
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.2">
@@ -4236,40 +4238,40 @@
         <v>72.148863236275048</v>
       </c>
       <c r="N49">
-        <v>3.5879339237987589</v>
+        <v>1309.595882186547</v>
       </c>
       <c r="O49">
-        <v>0.3549539237987589</v>
+        <v>129.55818218654699</v>
       </c>
       <c r="P49">
-        <v>4.8138906576777485</v>
+        <v>144.41671973033246</v>
       </c>
       <c r="Q49">
-        <v>3.7023627198545954</v>
+        <v>111.07088159563786</v>
       </c>
       <c r="R49">
-        <v>3.1169189863254512</v>
+        <v>93.507569589763534</v>
       </c>
       <c r="S49">
-        <v>2.844286793357822</v>
+        <v>85.328603800734655</v>
       </c>
       <c r="T49">
-        <v>2.2444028019506579</v>
+        <v>819.20702271199013</v>
       </c>
       <c r="U49">
-        <v>2.3075025429023923</v>
+        <v>842.23842815937314</v>
       </c>
       <c r="V49">
-        <v>2.891810939651164</v>
+        <v>86.754328189534917</v>
       </c>
       <c r="W49">
-        <v>3.2509468143178859</v>
+        <v>97.528404429536579</v>
       </c>
       <c r="X49">
-        <v>2.489407590216115</v>
+        <v>74.682227706483445</v>
       </c>
       <c r="Y49">
-        <v>2.870920308055243</v>
+        <v>86.127609241657296</v>
       </c>
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.2">
@@ -4313,40 +4315,40 @@
         <v>75.737908596578706</v>
       </c>
       <c r="N50">
-        <v>3.4728639276626829</v>
+        <v>1267.5953335968793</v>
       </c>
       <c r="O50">
-        <v>0.23988392766268296</v>
+        <v>87.557633596879285</v>
       </c>
       <c r="P50">
-        <v>4.705233206172208</v>
+        <v>141.15699618516624</v>
       </c>
       <c r="Q50">
-        <v>3.7695481722976063</v>
+        <v>113.08644516892819</v>
       </c>
       <c r="R50">
-        <v>2.9545676609919385</v>
+        <v>88.637029829758148</v>
       </c>
       <c r="S50">
-        <v>2.5828614265669705</v>
+        <v>77.485842797009113</v>
       </c>
       <c r="T50">
-        <v>2.2012982741109122</v>
+        <v>803.4738700504829</v>
       </c>
       <c r="U50">
-        <v>2.2546322854825265</v>
+        <v>822.94078420112214</v>
       </c>
       <c r="V50">
-        <v>2.5549711916185398</v>
+        <v>76.649135748556191</v>
       </c>
       <c r="W50">
-        <v>3.1022102050166578</v>
+        <v>93.066306150499727</v>
       </c>
       <c r="X50">
-        <v>2.2225695568961261</v>
+        <v>66.677086706883784</v>
       </c>
       <c r="Y50">
-        <v>2.5272373368550678</v>
+        <v>75.817120105652037</v>
       </c>
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.2">
@@ -4390,44 +4392,43 @@
         <v>77.467047564816539</v>
       </c>
       <c r="N51">
-        <v>3.2330812399050908</v>
+        <v>1180.0746525653581</v>
       </c>
       <c r="O51">
-        <v>1.0123990509081082E-4</v>
+        <v>3.695256535814595E-2</v>
       </c>
       <c r="P51">
-        <v>4.3836731183765085</v>
+        <v>131.51019355129526</v>
       </c>
       <c r="Q51">
-        <v>3.7719528972360892</v>
+        <v>113.15858691708267</v>
       </c>
       <c r="R51">
-        <v>2.9026396401262291</v>
+        <v>87.079189203786868</v>
       </c>
       <c r="S51">
-        <v>2.3999856928461698</v>
+        <v>71.999570785385089</v>
       </c>
       <c r="T51">
-        <v>2.1641438518842775</v>
+        <v>789.91250593776124</v>
       </c>
       <c r="U51">
-        <v>2.1916208293278219</v>
+        <v>799.941602704655</v>
       </c>
       <c r="V51">
-        <v>2.2787468238034698</v>
+        <v>68.362404714104088</v>
       </c>
       <c r="W51">
-        <v>2.725009550488815</v>
+        <v>81.750286514664452</v>
       </c>
       <c r="X51">
-        <v>2.1574342630668171</v>
+        <v>64.723027892004509</v>
       </c>
       <c r="Y51">
-        <v>2.4387521340255871</v>
+        <v>73.162564020767618</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Y51" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/my_work/data1/all.xlsx
+++ b/my_work/data1/all.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TD\my_work\data1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE0A8894-4861-4739-A327-C3EF7AB5DA1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D8E828B-B95C-4705-AA8A-D16B0CA82E98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -491,7 +491,7 @@
   <dimension ref="A1:Y51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y1" sqref="Y1:Y1048576"/>
+      <selection activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/my_work/data1/all.xlsx
+++ b/my_work/data1/all.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TD\my_work\data1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D8E828B-B95C-4705-AA8A-D16B0CA82E98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDF61188-F8FB-4D22-AFAD-78257E439CAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -488,10 +488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y51"/>
+  <dimension ref="A1:AB51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q25" sqref="Q25"/>
+      <selection activeCell="AB2" sqref="AB2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -501,7 +501,7 @@
     <col min="20" max="21" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -578,7 +578,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1967</v>
       </c>
@@ -654,8 +654,14 @@
       <c r="Y2">
         <v>59.549711208961142</v>
       </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA2">
+        <v>126.9882932</v>
+      </c>
+      <c r="AB2">
+        <v>104.2816578</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1968</v>
       </c>
@@ -732,7 +738,7 @@
         <v>67.120027333531823</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1969</v>
       </c>
@@ -809,7 +815,7 @@
         <v>69.11151449348823</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1970</v>
       </c>
@@ -886,7 +892,7 @@
         <v>69.347233429411048</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1971</v>
       </c>
@@ -963,7 +969,7 @@
         <v>64.527705445996375</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1972</v>
       </c>
@@ -1040,7 +1046,7 @@
         <v>65.646190107531964</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1973</v>
       </c>
@@ -1117,7 +1123,7 @@
         <v>69.703345170822416</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1974</v>
       </c>
@@ -1194,7 +1200,7 @@
         <v>69.077065768074178</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1975</v>
       </c>
@@ -1271,7 +1277,7 @@
         <v>70.130075025623583</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1976</v>
       </c>
@@ -1348,7 +1354,7 @@
         <v>67.006380246992308</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1977</v>
       </c>
@@ -1425,7 +1431,7 @@
         <v>63.888123094498113</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1978</v>
       </c>
@@ -1502,7 +1508,7 @@
         <v>62.568996701826897</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1979</v>
       </c>
@@ -1579,7 +1585,7 @@
         <v>69.896226476895208</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1980</v>
       </c>
@@ -1656,7 +1662,7 @@
         <v>66.209340351458962</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1981</v>
       </c>
